--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4279813-8044-4B28-9ADA-AB693534E717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A5112-3E36-4B74-A4D9-190D1077E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{AD2507E4-7809-4EA5-A8F6-6E64402326AB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AD2507E4-7809-4EA5-A8F6-6E64402326AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Oracle</t>
   </si>
@@ -186,13 +186,46 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>FQ325</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Segment</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Chairman &amp; CTO</t>
+  </si>
+  <si>
+    <t>Lawrance J. Ellison</t>
+  </si>
+  <si>
+    <t>Safra A. Catz</t>
+  </si>
+  <si>
+    <t>CEO</t>
   </si>
 </sst>
 </file>
@@ -203,13 +236,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -398,33 +437,39 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -761,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E364-B57F-4259-9EAC-BC85DA4E665C}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -789,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>153.5</v>
+        <v>226.05</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -800,10 +845,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <v>2804.2339999999999</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>49</v>
+        <v>2808.8330000000001</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -815,7 +860,7 @@
       </c>
       <c r="H5" s="4">
         <f>+H3*H4</f>
-        <v>430449.91899999999</v>
+        <v>634936.69965000008</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -823,16 +868,16 @@
         <v>7</v>
       </c>
       <c r="H6" s="4">
-        <f>17406+417</f>
-        <v>17823</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>49</v>
+        <f>10786+417</f>
+        <v>11203</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -841,11 +886,11 @@
         <v>8</v>
       </c>
       <c r="H7" s="4">
-        <f>8167+88109</f>
-        <v>96276</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>49</v>
+        <f>7271+85297</f>
+        <v>92568</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -860,7 +905,7 @@
       </c>
       <c r="H8" s="4">
         <f>+H5-H6+H7</f>
-        <v>508902.91899999999</v>
+        <v>716301.69965000008</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -883,9 +928,28 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -901,10 +965,10 @@
   <dimension ref="A1:AO518"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -944,6 +1008,24 @@
       <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="L2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -973,9 +1055,15 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="O3" s="4">
+        <v>35307</v>
+      </c>
+      <c r="P3" s="4">
+        <v>39383</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>44029</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -1029,9 +1117,15 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="O4" s="4">
+        <v>5779</v>
+      </c>
+      <c r="P4" s="4">
+        <v>5081</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>5201</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -1085,9 +1179,15 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="O5" s="4">
+        <v>3274</v>
+      </c>
+      <c r="P5" s="4">
+        <v>3066</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2936</v>
+      </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -1141,9 +1241,15 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="O6" s="4">
+        <v>5594</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5431</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>5233</v>
+      </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -1209,9 +1315,15 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="O7" s="18">
+        <v>49954</v>
+      </c>
+      <c r="P7" s="18">
+        <v>52961</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>57399</v>
+      </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -1265,9 +1377,15 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="O8" s="4">
+        <v>7763</v>
+      </c>
+      <c r="P8" s="4">
+        <v>9427</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>11569</v>
+      </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -1321,9 +1439,15 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="O9" s="4">
+        <v>1040</v>
+      </c>
+      <c r="P9" s="4">
+        <v>891</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>782</v>
+      </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1377,9 +1501,15 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="O10" s="4">
+        <v>4761</v>
+      </c>
+      <c r="P10" s="4">
+        <v>4825</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>4576</v>
+      </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1442,12 +1572,30 @@
         <v>0</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="L11" s="4">
+        <f t="shared" ref="L11:P11" si="4">+L7-SUM(L8:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="4"/>
+        <v>36390</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="4"/>
+        <v>37818</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>+Q7-SUM(Q8:Q10)</f>
+        <v>40472</v>
+      </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1501,9 +1649,15 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="O12" s="4">
+        <v>8833</v>
+      </c>
+      <c r="P12" s="4">
+        <v>8274</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>8651</v>
+      </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -1557,9 +1711,15 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="O13" s="4">
+        <v>8623</v>
+      </c>
+      <c r="P13" s="4">
+        <v>8915</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>9860</v>
+      </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1613,9 +1773,15 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="O14" s="4">
+        <v>1579</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1548</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1602</v>
+      </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -1669,9 +1835,15 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="O15" s="4">
+        <v>3582</v>
+      </c>
+      <c r="P15" s="4">
+        <v>3010</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2307</v>
+      </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -1725,9 +1897,15 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="O16" s="4">
+        <v>190</v>
+      </c>
+      <c r="P16" s="4">
+        <v>314</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>75</v>
+      </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -1781,9 +1959,15 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="4">
+        <v>490</v>
+      </c>
+      <c r="P17" s="4">
+        <v>404</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>299</v>
+      </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -1814,19 +1998,19 @@
         <v>34</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:F18" si="4">+C11-SUM(C12:C17)</f>
+        <f t="shared" ref="C18:F18" si="5">+C11-SUM(C12:C17)</f>
         <v>3296</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3622</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3750</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G18" s="4">
@@ -1834,24 +2018,42 @@
         <v>3991</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" ref="H18:J18" si="5">+H11-SUM(H12:H17)</f>
+        <f t="shared" ref="H18:Q18" si="6">+H11-SUM(H12:H17)</f>
         <v>4220</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4358</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="L18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="6"/>
+        <v>13093</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="6"/>
+        <v>15353</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="6"/>
+        <v>17678</v>
+      </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -1905,9 +2107,15 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="O19" s="4">
+        <v>3505</v>
+      </c>
+      <c r="P19" s="4">
+        <v>3514</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>3578</v>
+      </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -1961,9 +2169,15 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="O20" s="4">
+        <v>-462</v>
+      </c>
+      <c r="P20" s="4">
+        <v>-98</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>60</v>
+      </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -1994,19 +2208,19 @@
         <v>37</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:F21" si="6">+C18-C19+C20</f>
+        <f t="shared" ref="C21:F21" si="7">+C18-C19+C20</f>
         <v>2375</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2720</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2865</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G21" s="4">
@@ -2014,24 +2228,42 @@
         <v>3169</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" ref="H21:J21" si="7">+H18-H19+H20</f>
+        <f t="shared" ref="H21:Q21" si="8">+H18-H19+H20</f>
         <v>3390</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3448</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="L21" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="8"/>
+        <v>9126</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="8"/>
+        <v>11741</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="8"/>
+        <v>14160</v>
+      </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -2085,9 +2317,15 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="O22" s="4">
+        <v>623</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1274</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1717</v>
+      </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -2118,19 +2356,19 @@
         <v>39</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" ref="C23:F23" si="8">+C21-C22</f>
+        <f t="shared" ref="C23:F23" si="9">+C21-C22</f>
         <v>2420</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2503</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2401</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G23" s="4">
@@ -2138,24 +2376,42 @@
         <v>2929</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" ref="H23:J23" si="9">+H21-H22</f>
+        <f t="shared" ref="H23:Q23" si="10">+H21-H22</f>
         <v>3151</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2936</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="L23" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="10"/>
+        <v>8503</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="10"/>
+        <v>10467</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="10"/>
+        <v>12443</v>
+      </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -2227,19 +2483,19 @@
         <v>40</v>
       </c>
       <c r="C25" s="19">
-        <f t="shared" ref="C25:F25" si="10">+C23/C26</f>
+        <f t="shared" ref="C25:F25" si="11">+C23/C26</f>
         <v>0.87649402390438247</v>
       </c>
       <c r="D25" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91150764748725421</v>
       </c>
       <c r="E25" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.87372634643377001</v>
       </c>
       <c r="F25" s="19" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="19">
@@ -2247,24 +2503,42 @@
         <v>1.0736803519061584</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" ref="H25:J25" si="11">+H23/H26</f>
+        <f t="shared" ref="H25:Q25" si="12">+H23/H26</f>
         <v>1.1293906810035843</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0489460521614862</v>
       </c>
       <c r="J25" s="19" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="L25" s="19" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="19" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="19" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="19">
+        <f t="shared" si="12"/>
+        <v>3.1539317507418398</v>
+      </c>
+      <c r="P25" s="19">
+        <f t="shared" si="12"/>
+        <v>3.8145043731778427</v>
+      </c>
+      <c r="Q25" s="19">
+        <f t="shared" si="12"/>
+        <v>4.4614557188956612</v>
+      </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -2318,9 +2592,15 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="O26" s="4">
+        <v>2696</v>
+      </c>
+      <c r="P26" s="4">
+        <v>2744</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>2789</v>
+      </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -2401,8 +2681,6 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -2441,15 +2719,15 @@
         <v>0.10181208756677496</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" ref="H29:J33" si="12">+H3/D3-1</f>
+        <f t="shared" ref="H29:J33" si="13">+H3/D3-1</f>
         <v>0.12107065048241528</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.10478771454381208</v>
       </c>
       <c r="J29" s="20" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="4"/>
@@ -2457,8 +2735,14 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="P29" s="20">
+        <f>+P3/O3-1</f>
+        <v>0.11544452941343075</v>
+      </c>
+      <c r="Q29" s="20">
+        <f>+Q3/P3-1</f>
+        <v>0.11796968235025274</v>
+      </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -2493,19 +2777,19 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="20">
-        <f t="shared" ref="G30:G33" si="13">+G4/C4-1</f>
+        <f t="shared" ref="G30:G33" si="14">+G4/C4-1</f>
         <v>7.5401730531520439E-2</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4431239388794648E-2</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.10111464968152861</v>
       </c>
       <c r="J30" s="20" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="4"/>
@@ -2513,8 +2797,14 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="P30" s="20">
+        <f>+P4/O4-1</f>
+        <v>-0.12078214223914174</v>
+      </c>
+      <c r="Q30" s="20">
+        <f>+Q4/P4-1</f>
+        <v>2.3617398149970548E-2</v>
+      </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -2549,19 +2839,19 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="20">
+        <f t="shared" si="14"/>
+        <v>-8.2633053221288555E-2</v>
+      </c>
+      <c r="H31" s="20">
         <f t="shared" si="13"/>
-        <v>-8.2633053221288555E-2</v>
-      </c>
-      <c r="H31" s="20">
-        <f t="shared" si="12"/>
         <v>-3.703703703703709E-2</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.7639257294429656E-2</v>
       </c>
       <c r="J31" s="20" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="4"/>
@@ -2569,8 +2859,14 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="P31" s="20">
+        <f>+P5/O5-1</f>
+        <v>-6.3530849114233345E-2</v>
+      </c>
+      <c r="Q31" s="20">
+        <f>+Q5/P5-1</f>
+        <v>-4.24005218525767E-2</v>
+      </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -2605,19 +2901,19 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="20">
+        <f t="shared" si="14"/>
+        <v>-8.6767895878524959E-2</v>
+      </c>
+      <c r="H32" s="20">
         <f t="shared" si="13"/>
-        <v>-8.6767895878524959E-2</v>
-      </c>
-      <c r="H32" s="20">
-        <f t="shared" si="12"/>
         <v>-2.777777777777779E-2</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.2241775057383331E-2</v>
       </c>
       <c r="J32" s="20" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="4"/>
@@ -2625,8 +2921,14 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="P32" s="20">
+        <f>+P6/O6-1</f>
+        <v>-2.9138362531283546E-2</v>
+      </c>
+      <c r="Q32" s="20">
+        <f>+Q6/P6-1</f>
+        <v>-3.6457374332535486E-2</v>
+      </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -2653,36 +2955,42 @@
       <c r="AO32" s="4"/>
     </row>
     <row r="33" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="20">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="24">
+        <f t="shared" si="14"/>
+        <v>6.857785272625061E-2</v>
+      </c>
+      <c r="H33" s="24">
         <f t="shared" si="13"/>
-        <v>6.857785272625061E-2</v>
-      </c>
-      <c r="H33" s="20">
-        <f t="shared" si="12"/>
         <v>8.6392087164824938E-2</v>
       </c>
-      <c r="I33" s="20">
-        <f t="shared" si="12"/>
+      <c r="I33" s="24">
+        <f t="shared" si="13"/>
         <v>6.4006024096385561E-2</v>
       </c>
-      <c r="J33" s="20" t="e">
-        <f t="shared" si="12"/>
+      <c r="J33" s="24" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="24">
+        <f>+P7/O7-1</f>
+        <v>6.0195379749369504E-2</v>
+      </c>
+      <c r="Q33" s="24">
+        <f>+Q7/P7-1</f>
+        <v>8.3797511376295875E-2</v>
+      </c>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -2713,19 +3021,19 @@
         <v>46</v>
       </c>
       <c r="C34" s="20">
-        <f t="shared" ref="C34:F34" si="14">+C11/C7</f>
+        <f t="shared" ref="C34:F34" si="15">+C11/C7</f>
         <v>0.71011001365132898</v>
       </c>
       <c r="D34" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.71099605903716867</v>
       </c>
       <c r="E34" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.70865963855421688</v>
       </c>
       <c r="F34" s="20" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="20">
@@ -2733,24 +3041,42 @@
         <v>0.70647027880063129</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" ref="H34:J34" si="15">+H11/H7</f>
+        <f t="shared" ref="H34:J34" si="16">+H11/H7</f>
         <v>0.70943879365530982</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.70311394196744514</v>
       </c>
       <c r="J34" s="20" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+      <c r="L34" s="20" t="e">
+        <f t="shared" ref="L34:Q34" si="17">+L11/L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="20" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="20" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="20">
+        <f t="shared" si="17"/>
+        <v>0.72847019257717105</v>
+      </c>
+      <c r="P34" s="20">
+        <f t="shared" si="17"/>
+        <v>0.71407261947470779</v>
+      </c>
+      <c r="Q34" s="20">
+        <f t="shared" si="17"/>
+        <v>0.70509939197547</v>
+      </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -2781,19 +3107,19 @@
         <v>47</v>
       </c>
       <c r="C35" s="20">
-        <f t="shared" ref="C35:F35" si="16">+C18/C7</f>
+        <f t="shared" ref="C35:F35" si="18">+C18/C7</f>
         <v>0.26467517867180601</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.27988563480411094</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.28237951807228917</v>
       </c>
       <c r="F35" s="20" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="20">
@@ -2801,24 +3127,42 @@
         <v>0.2999173367400616</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" ref="H35:J35" si="17">+H18/H7</f>
+        <f t="shared" ref="H35:J35" si="19">+H18/H7</f>
         <v>0.30016359627285011</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.30842179759377214</v>
       </c>
       <c r="J35" s="20" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+      <c r="L35" s="20" t="e">
+        <f t="shared" ref="L35:Q35" si="20">+L18/L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="20">
+        <f t="shared" si="20"/>
+        <v>0.26210113304239901</v>
+      </c>
+      <c r="P35" s="20">
+        <f t="shared" si="20"/>
+        <v>0.28989256245161532</v>
+      </c>
+      <c r="Q35" s="20">
+        <f t="shared" si="20"/>
+        <v>0.30798445965957594</v>
+      </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -2849,19 +3193,19 @@
         <v>48</v>
       </c>
       <c r="C36" s="20">
-        <f t="shared" ref="C36:F36" si="18">+C22/C21</f>
+        <f t="shared" ref="C36:F36" si="21">+C22/C21</f>
         <v>-1.8947368421052633E-2</v>
       </c>
       <c r="D36" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7.9779411764705876E-2</v>
       </c>
       <c r="E36" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.16195462478184991</v>
       </c>
       <c r="F36" s="20" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="20">
@@ -2869,24 +3213,42 @@
         <v>7.5733669927421893E-2</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" ref="H36:J36" si="19">+H22/H21</f>
+        <f t="shared" ref="H36:J36" si="22">+H22/H21</f>
         <v>7.0501474926253693E-2</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.14849187935034802</v>
       </c>
       <c r="J36" s="20" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="L36" s="20" t="e">
+        <f t="shared" ref="L36:Q36" si="23">+L22/L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="20" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="20" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="20">
+        <f t="shared" si="23"/>
+        <v>6.826649134341442E-2</v>
+      </c>
+      <c r="P36" s="20">
+        <f t="shared" si="23"/>
+        <v>0.10850864491951281</v>
+      </c>
+      <c r="Q36" s="20">
+        <f t="shared" si="23"/>
+        <v>0.12125706214689265</v>
+      </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A5112-3E36-4B74-A4D9-190D1077E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C6D1DC-17A4-4F4B-8143-998266BD3441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AD2507E4-7809-4EA5-A8F6-6E64402326AB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Oracle</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Segment</t>
   </si>
   <si>
-    <t>FQ425</t>
-  </si>
-  <si>
     <t>FY20</t>
   </si>
   <si>
@@ -227,6 +224,21 @@
   <si>
     <t>CEO</t>
   </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
 </sst>
 </file>
 
@@ -236,13 +248,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -437,39 +455,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -808,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E364-B57F-4259-9EAC-BC85DA4E665C}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -834,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>226.05</v>
+        <v>318.95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -845,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <v>2808.8330000000001</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>51</v>
+        <v>2826</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -860,7 +881,7 @@
       </c>
       <c r="H5" s="4">
         <f>+H3*H4</f>
-        <v>634936.69965000008</v>
+        <v>901352.7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -868,11 +889,11 @@
         <v>7</v>
       </c>
       <c r="H6" s="4">
-        <f>10786+417</f>
-        <v>11203</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>51</v>
+        <f>10445+560</f>
+        <v>11005</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -886,11 +907,11 @@
         <v>8</v>
       </c>
       <c r="H7" s="4">
-        <f>7271+85297</f>
-        <v>92568</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>51</v>
+        <f>9079+82236</f>
+        <v>91315</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -905,7 +926,7 @@
       </c>
       <c r="H8" s="4">
         <f>+H5-H6+H7</f>
-        <v>716301.69965000008</v>
+        <v>981662.7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -930,7 +951,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G12" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -938,18 +959,18 @@
         <v>49</v>
       </c>
       <c r="G13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G14" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -962,13 +983,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386309C5-8495-4DC2-9B35-753E45A4595B}">
-  <dimension ref="A1:AO518"/>
+  <dimension ref="A1:AS518"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -978,12 +999,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1008,26 +1029,38 @@
       <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1055,19 +1088,19 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4">
         <v>35307</v>
       </c>
-      <c r="P3" s="4">
+      <c r="T3" s="4">
         <v>39383</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="U3" s="4">
         <v>44029</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -1088,8 +1121,12 @@
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1117,19 +1154,19 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4">
         <v>5779</v>
       </c>
-      <c r="P4" s="4">
+      <c r="T4" s="4">
         <v>5081</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="U4" s="4">
         <v>5201</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -1150,8 +1187,12 @@
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1175,23 +1216,25 @@
         <v>703</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>670</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4">
         <v>3274</v>
       </c>
-      <c r="P5" s="4">
+      <c r="T5" s="4">
         <v>3066</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="U5" s="4">
         <v>2936</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
@@ -1212,8 +1255,12 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1237,23 +1284,25 @@
         <v>1291</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>1349</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4">
         <v>5594</v>
       </c>
-      <c r="P6" s="4">
+      <c r="T6" s="4">
         <v>5431</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="U6" s="4">
         <v>5233</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
@@ -1274,8 +1323,12 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1311,23 +1364,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="18">
+      <c r="K7" s="18">
+        <v>14926</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="18">
         <v>49954</v>
       </c>
-      <c r="P7" s="18">
+      <c r="T7" s="18">
         <v>52961</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="U7" s="18">
         <v>57399</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
@@ -1348,8 +1403,12 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1373,23 +1432,25 @@
         <v>2882</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <v>3607</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
         <v>7763</v>
       </c>
-      <c r="P8" s="4">
+      <c r="T8" s="4">
         <v>9427</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="U8" s="4">
         <v>11569</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -1410,8 +1471,12 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1435,23 +1500,25 @@
         <v>197</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>178</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
         <v>1040</v>
       </c>
-      <c r="P9" s="4">
+      <c r="T9" s="4">
         <v>891</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="U9" s="4">
         <v>782</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -1472,8 +1539,12 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1497,23 +1568,25 @@
         <v>1116</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>1099</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4">
         <v>4761</v>
       </c>
-      <c r="P10" s="4">
+      <c r="T10" s="4">
         <v>4825</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="U10" s="4">
         <v>4576</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
@@ -1534,8 +1607,12 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1560,7 +1637,7 @@
         <v>9401</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" ref="H11:J11" si="3">+H7-SUM(H8:H10)</f>
+        <f t="shared" ref="H11:K11" si="3">+H7-SUM(H8:H10)</f>
         <v>9974</v>
       </c>
       <c r="I11" s="4">
@@ -1571,35 +1648,38 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4">
-        <f t="shared" ref="L11:P11" si="4">+L7-SUM(L8:L10)</f>
+      <c r="K11" s="4">
+        <f t="shared" si="3"/>
+        <v>10042</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
+        <f t="shared" ref="P11:T11" si="4">+P7-SUM(P8:P10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="4">
+      <c r="Q11" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N11" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="4"/>
         <v>36390</v>
       </c>
-      <c r="P11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="4"/>
         <v>37818</v>
       </c>
-      <c r="Q11" s="4">
-        <f>+Q7-SUM(Q8:Q10)</f>
+      <c r="U11" s="4">
+        <f>+U7-SUM(U8:U10)</f>
         <v>40472</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -1620,8 +1700,12 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1645,23 +1729,25 @@
         <v>2119</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4">
+        <v>2063</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
         <v>8833</v>
       </c>
-      <c r="P12" s="4">
+      <c r="T12" s="4">
         <v>8274</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="U12" s="23">
         <v>8651</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -1682,8 +1768,12 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1707,23 +1797,25 @@
         <v>2429</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <v>2491</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
         <v>8623</v>
       </c>
-      <c r="P13" s="4">
+      <c r="T13" s="4">
         <v>8915</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="U13" s="4">
         <v>9860</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -1744,8 +1836,12 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1769,23 +1865,25 @@
         <v>390</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>376</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4">
         <v>1579</v>
       </c>
-      <c r="P14" s="4">
+      <c r="T14" s="4">
         <v>1548</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="U14" s="4">
         <v>1602</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -1806,8 +1904,12 @@
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1831,23 +1933,25 @@
         <v>548</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4">
+        <v>420</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
         <v>3582</v>
       </c>
-      <c r="P15" s="4">
+      <c r="T15" s="4">
         <v>3010</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="U15" s="4">
         <v>2307</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
@@ -1868,8 +1972,12 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1893,23 +2001,25 @@
         <v>28</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4">
+        <v>13</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
         <v>190</v>
       </c>
-      <c r="P16" s="4">
+      <c r="T16" s="4">
         <v>314</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="U16" s="4">
         <v>75</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
@@ -1930,8 +2040,12 @@
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
-    </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1955,23 +2069,25 @@
         <v>63</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4">
+        <v>402</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4">
         <v>490</v>
       </c>
-      <c r="P17" s="4">
+      <c r="T17" s="4">
         <v>404</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="U17" s="4">
         <v>299</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
@@ -1992,8 +2108,12 @@
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
-    </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2018,7 +2138,7 @@
         <v>3991</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" ref="H18:Q18" si="6">+H11-SUM(H12:H17)</f>
+        <f t="shared" ref="H18:U18" si="6">+H11-SUM(H12:H17)</f>
         <v>4220</v>
       </c>
       <c r="I18" s="4">
@@ -2029,35 +2149,38 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4">
+      <c r="K18" s="4">
+        <f t="shared" si="6"/>
+        <v>4277</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M18" s="4">
+      <c r="Q18" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N18" s="4">
+      <c r="R18" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="6"/>
         <v>13093</v>
       </c>
-      <c r="P18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="6"/>
         <v>15353</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="U18" s="4">
         <f t="shared" si="6"/>
         <v>17678</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -2078,8 +2201,12 @@
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
-    </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
@@ -2103,23 +2230,25 @@
         <v>892</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>923</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
         <v>3505</v>
       </c>
-      <c r="P19" s="4">
+      <c r="T19" s="4">
         <v>3514</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="U19" s="4">
         <v>3578</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
@@ -2140,8 +2269,12 @@
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
-    </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2165,23 +2298,25 @@
         <v>-18</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>73</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4">
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4">
         <v>-462</v>
       </c>
-      <c r="P20" s="4">
+      <c r="T20" s="4">
         <v>-98</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="U20" s="4">
         <v>60</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -2202,8 +2337,12 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
-    </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
@@ -2228,7 +2367,7 @@
         <v>3169</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" ref="H21:Q21" si="8">+H18-H19+H20</f>
+        <f t="shared" ref="H21:U21" si="8">+H18-H19+H20</f>
         <v>3390</v>
       </c>
       <c r="I21" s="4">
@@ -2239,35 +2378,38 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4">
+      <c r="K21" s="4">
+        <f t="shared" si="8"/>
+        <v>3427</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M21" s="4">
+      <c r="Q21" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N21" s="4">
+      <c r="R21" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O21" s="4">
+      <c r="S21" s="4">
         <f t="shared" si="8"/>
         <v>9126</v>
       </c>
-      <c r="P21" s="4">
+      <c r="T21" s="4">
         <f t="shared" si="8"/>
         <v>11741</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="U21" s="4">
         <f t="shared" si="8"/>
         <v>14160</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
@@ -2288,8 +2430,12 @@
       <c r="AM21" s="4"/>
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
-    </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
@@ -2313,23 +2459,25 @@
         <v>512</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4">
+        <v>500</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4">
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4">
         <v>623</v>
       </c>
-      <c r="P22" s="4">
+      <c r="T22" s="4">
         <v>1274</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="U22" s="4">
         <v>1717</v>
       </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
@@ -2350,8 +2498,12 @@
       <c r="AM22" s="4"/>
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
-    </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
@@ -2376,7 +2528,7 @@
         <v>2929</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" ref="H23:Q23" si="10">+H21-H22</f>
+        <f t="shared" ref="H23:U23" si="10">+H21-H22</f>
         <v>3151</v>
       </c>
       <c r="I23" s="4">
@@ -2387,35 +2539,38 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4">
+      <c r="K23" s="4">
+        <f t="shared" si="10"/>
+        <v>2927</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M23" s="4">
+      <c r="Q23" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N23" s="4">
+      <c r="R23" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O23" s="4">
+      <c r="S23" s="4">
         <f t="shared" si="10"/>
         <v>8503</v>
       </c>
-      <c r="P23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="10"/>
         <v>10467</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="U23" s="4">
         <f t="shared" si="10"/>
         <v>12443</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -2436,8 +2591,12 @@
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
-    </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2477,8 +2636,12 @@
       <c r="AM24" s="4"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
-    </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
@@ -2503,7 +2666,7 @@
         <v>1.0736803519061584</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" ref="H25:Q25" si="12">+H23/H26</f>
+        <f t="shared" ref="H25:U25" si="12">+H23/H26</f>
         <v>1.1293906810035843</v>
       </c>
       <c r="I25" s="19">
@@ -2514,7 +2677,10 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="19">
+        <f t="shared" si="12"/>
+        <v>1.0357395612172682</v>
+      </c>
       <c r="L25" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
@@ -2527,22 +2693,31 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="4"/>
+      <c r="P25" s="19" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="19" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="19" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="19">
         <f t="shared" si="12"/>
         <v>3.1539317507418398</v>
       </c>
-      <c r="P25" s="19">
+      <c r="T25" s="19">
         <f t="shared" si="12"/>
         <v>3.8145043731778427</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="U25" s="19">
         <f t="shared" si="12"/>
         <v>4.4614557188956612</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
@@ -2563,8 +2738,12 @@
       <c r="AM25" s="4"/>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
-    </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2588,23 +2767,25 @@
         <v>2799</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4">
+        <v>2826</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="4">
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4">
         <v>2696</v>
       </c>
-      <c r="P26" s="4">
+      <c r="T26" s="4">
         <v>2744</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="U26" s="4">
         <v>2789</v>
       </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
@@ -2625,8 +2806,12 @@
       <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
-    </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+    </row>
+    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2666,8 +2851,12 @@
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
-    </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2681,10 +2870,10 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -2705,8 +2894,12 @@
       <c r="AM28" s="4"/>
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
-    </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
@@ -2719,7 +2912,7 @@
         <v>0.10181208756677496</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" ref="H29:J33" si="13">+H3/D3-1</f>
+        <f t="shared" ref="H29:K33" si="13">+H3/D3-1</f>
         <v>0.12107065048241528</v>
       </c>
       <c r="I29" s="20">
@@ -2730,23 +2923,26 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="K29" s="20">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="20">
-        <f>+P3/O3-1</f>
-        <v>0.11544452941343075</v>
-      </c>
-      <c r="Q29" s="20">
-        <f>+Q3/P3-1</f>
-        <v>0.11796968235025274</v>
-      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="T29" s="20">
+        <f t="shared" ref="T29:U33" si="14">+T3/S3-1</f>
+        <v>0.11544452941343075</v>
+      </c>
+      <c r="U29" s="20">
+        <f t="shared" si="14"/>
+        <v>0.11796968235025274</v>
+      </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
@@ -2767,8 +2963,12 @@
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
-    </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+    </row>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
@@ -2777,7 +2977,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="20">
-        <f t="shared" ref="G30:G33" si="14">+G4/C4-1</f>
+        <f t="shared" ref="G30:G33" si="15">+G4/C4-1</f>
         <v>7.5401730531520439E-2</v>
       </c>
       <c r="H30" s="20">
@@ -2792,23 +2992,26 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="K30" s="20">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="20">
-        <f>+P4/O4-1</f>
-        <v>-0.12078214223914174</v>
-      </c>
-      <c r="Q30" s="20">
-        <f>+Q4/P4-1</f>
-        <v>2.3617398149970548E-2</v>
-      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
+      <c r="T30" s="20">
+        <f t="shared" si="14"/>
+        <v>-0.12078214223914174</v>
+      </c>
+      <c r="U30" s="20">
+        <f t="shared" si="14"/>
+        <v>2.3617398149970548E-2</v>
+      </c>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -2829,8 +3032,12 @@
       <c r="AM30" s="4"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
-    </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
@@ -2839,7 +3046,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.2633053221288555E-2</v>
       </c>
       <c r="H31" s="20">
@@ -2854,23 +3061,26 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="K31" s="20">
+        <f t="shared" si="13"/>
+        <v>2.2900763358778553E-2</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="20">
-        <f>+P5/O5-1</f>
-        <v>-6.3530849114233345E-2</v>
-      </c>
-      <c r="Q31" s="20">
-        <f>+Q5/P5-1</f>
-        <v>-4.24005218525767E-2</v>
-      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
+      <c r="T31" s="20">
+        <f t="shared" si="14"/>
+        <v>-6.3530849114233345E-2</v>
+      </c>
+      <c r="U31" s="20">
+        <f t="shared" si="14"/>
+        <v>-4.24005218525767E-2</v>
+      </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -2891,8 +3101,12 @@
       <c r="AM31" s="4"/>
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
-    </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+    </row>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
@@ -2901,7 +3115,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.6767895878524959E-2</v>
       </c>
       <c r="H32" s="20">
@@ -2916,23 +3130,26 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="K32" s="20">
+        <f t="shared" si="13"/>
+        <v>6.8091844813935154E-2</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="20">
-        <f>+P6/O6-1</f>
-        <v>-2.9138362531283546E-2</v>
-      </c>
-      <c r="Q32" s="20">
-        <f>+Q6/P6-1</f>
-        <v>-3.6457374332535486E-2</v>
-      </c>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
+      <c r="T32" s="20">
+        <f t="shared" si="14"/>
+        <v>-2.9138362531283546E-2</v>
+      </c>
+      <c r="U32" s="20">
+        <f t="shared" si="14"/>
+        <v>-3.6457374332535486E-2</v>
+      </c>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
@@ -2953,8 +3170,12 @@
       <c r="AM32" s="4"/>
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
-    </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+    </row>
+    <row r="33" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2963,7 +3184,7 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.857785272625061E-2</v>
       </c>
       <c r="H33" s="24">
@@ -2978,23 +3199,26 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
+      <c r="K33" s="24">
+        <f t="shared" si="13"/>
+        <v>0.12166528894566775</v>
+      </c>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
       <c r="O33" s="18"/>
-      <c r="P33" s="24">
-        <f>+P7/O7-1</f>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="24">
+        <f t="shared" si="14"/>
         <v>6.0195379749369504E-2</v>
       </c>
-      <c r="Q33" s="24">
-        <f>+Q7/P7-1</f>
+      <c r="U33" s="24">
+        <f t="shared" si="14"/>
         <v>8.3797511376295875E-2</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
@@ -3015,25 +3239,29 @@
       <c r="AM33" s="4"/>
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
-    </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+    </row>
+    <row r="34" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="20">
-        <f t="shared" ref="C34:F34" si="15">+C11/C7</f>
+        <f t="shared" ref="C34:F34" si="16">+C11/C7</f>
         <v>0.71011001365132898</v>
       </c>
       <c r="D34" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.71099605903716867</v>
       </c>
       <c r="E34" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.70865963855421688</v>
       </c>
       <c r="F34" s="20" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="20">
@@ -3041,46 +3269,49 @@
         <v>0.70647027880063129</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" ref="H34:J34" si="16">+H11/H7</f>
+        <f t="shared" ref="H34:J34" si="17">+H11/H7</f>
         <v>0.70943879365530982</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.70311394196744514</v>
       </c>
       <c r="J34" s="20" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="20" t="e">
-        <f t="shared" ref="L34:Q34" si="17">+L11/L7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="20" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="20" t="e">
-        <f t="shared" si="17"/>
+      <c r="K34" s="20">
+        <f t="shared" ref="K34" si="18">+K11/K7</f>
+        <v>0.67278574299879401</v>
+      </c>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="20" t="e">
+        <f t="shared" ref="P34:U34" si="19">+P11/P7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="20">
-        <f t="shared" si="17"/>
+      <c r="Q34" s="20" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="20" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="20">
+        <f t="shared" si="19"/>
         <v>0.72847019257717105</v>
       </c>
-      <c r="P34" s="20">
-        <f t="shared" si="17"/>
+      <c r="T34" s="20">
+        <f t="shared" si="19"/>
         <v>0.71407261947470779</v>
       </c>
-      <c r="Q34" s="20">
-        <f t="shared" si="17"/>
+      <c r="U34" s="20">
+        <f t="shared" si="19"/>
         <v>0.70509939197547</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
@@ -3101,25 +3332,29 @@
       <c r="AM34" s="4"/>
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
-    </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+    </row>
+    <row r="35" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="20">
-        <f t="shared" ref="C35:F35" si="18">+C18/C7</f>
+        <f t="shared" ref="C35:F35" si="20">+C18/C7</f>
         <v>0.26467517867180601</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.27988563480411094</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.28237951807228917</v>
       </c>
       <c r="F35" s="20" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="20">
@@ -3127,46 +3362,49 @@
         <v>0.2999173367400616</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" ref="H35:J35" si="19">+H18/H7</f>
+        <f t="shared" ref="H35:J35" si="21">+H18/H7</f>
         <v>0.30016359627285011</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.30842179759377214</v>
       </c>
       <c r="J35" s="20" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="20" t="e">
-        <f t="shared" ref="L35:Q35" si="20">+L18/L7</f>
+      <c r="K35" s="20">
+        <f t="shared" ref="K35" si="22">+K18/K7</f>
+        <v>0.28654696502746885</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="20" t="e">
+        <f t="shared" ref="P35:U35" si="23">+P18/P7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="20" t="e">
-        <f t="shared" si="20"/>
+      <c r="Q35" s="20" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="20" t="e">
-        <f t="shared" si="20"/>
+      <c r="R35" s="20" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O35" s="20">
-        <f t="shared" si="20"/>
+      <c r="S35" s="20">
+        <f t="shared" si="23"/>
         <v>0.26210113304239901</v>
       </c>
-      <c r="P35" s="20">
-        <f t="shared" si="20"/>
+      <c r="T35" s="20">
+        <f t="shared" si="23"/>
         <v>0.28989256245161532</v>
       </c>
-      <c r="Q35" s="20">
-        <f t="shared" si="20"/>
+      <c r="U35" s="20">
+        <f t="shared" si="23"/>
         <v>0.30798445965957594</v>
       </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
@@ -3187,25 +3425,29 @@
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
-    </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+    </row>
+    <row r="36" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="20">
-        <f t="shared" ref="C36:F36" si="21">+C22/C21</f>
+        <f t="shared" ref="C36:F36" si="24">+C22/C21</f>
         <v>-1.8947368421052633E-2</v>
       </c>
       <c r="D36" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7.9779411764705876E-2</v>
       </c>
       <c r="E36" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.16195462478184991</v>
       </c>
       <c r="F36" s="20" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="20">
@@ -3213,46 +3455,49 @@
         <v>7.5733669927421893E-2</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" ref="H36:J36" si="22">+H22/H21</f>
+        <f t="shared" ref="H36:J36" si="25">+H22/H21</f>
         <v>7.0501474926253693E-2</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.14849187935034802</v>
       </c>
       <c r="J36" s="20" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="20" t="e">
-        <f t="shared" ref="L36:Q36" si="23">+L22/L21</f>
+      <c r="K36" s="20">
+        <f t="shared" ref="K36" si="26">+K22/K21</f>
+        <v>0.14590020426028597</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="20" t="e">
+        <f t="shared" ref="P36:U36" si="27">+P22/P21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="20" t="e">
-        <f t="shared" si="23"/>
+      <c r="Q36" s="20" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N36" s="20" t="e">
-        <f t="shared" si="23"/>
+      <c r="R36" s="20" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O36" s="20">
-        <f t="shared" si="23"/>
+      <c r="S36" s="20">
+        <f t="shared" si="27"/>
         <v>6.826649134341442E-2</v>
       </c>
-      <c r="P36" s="20">
-        <f t="shared" si="23"/>
+      <c r="T36" s="20">
+        <f t="shared" si="27"/>
         <v>0.10850864491951281</v>
       </c>
-      <c r="Q36" s="20">
-        <f t="shared" si="23"/>
+      <c r="U36" s="20">
+        <f t="shared" si="27"/>
         <v>0.12125706214689265</v>
       </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
@@ -3273,8 +3518,12 @@
       <c r="AM36" s="4"/>
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
-    </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+    </row>
+    <row r="37" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3314,8 +3563,12 @@
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
-    </row>
-    <row r="38" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+    </row>
+    <row r="38" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3355,8 +3608,12 @@
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
-    </row>
-    <row r="39" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+    </row>
+    <row r="39" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3396,8 +3653,12 @@
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
-    </row>
-    <row r="40" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+    </row>
+    <row r="40" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3437,8 +3698,12 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
-    </row>
-    <row r="41" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+    </row>
+    <row r="41" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3478,8 +3743,12 @@
       <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
-    </row>
-    <row r="42" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+    </row>
+    <row r="42" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3519,8 +3788,12 @@
       <c r="AM42" s="4"/>
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
-    </row>
-    <row r="43" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+    </row>
+    <row r="43" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3560,8 +3833,12 @@
       <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
-    </row>
-    <row r="44" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+    </row>
+    <row r="44" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3601,8 +3878,12 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
-    </row>
-    <row r="45" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+    </row>
+    <row r="45" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3642,8 +3923,12 @@
       <c r="AM45" s="4"/>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
-    </row>
-    <row r="46" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+    </row>
+    <row r="46" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3683,8 +3968,12 @@
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
-    </row>
-    <row r="47" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="4"/>
+    </row>
+    <row r="47" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3724,8 +4013,12 @@
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
-    </row>
-    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="4"/>
+    </row>
+    <row r="48" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3765,8 +4058,12 @@
       <c r="AM48" s="4"/>
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
-    </row>
-    <row r="49" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+    </row>
+    <row r="49" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -3806,8 +4103,12 @@
       <c r="AM49" s="4"/>
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
-    </row>
-    <row r="50" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+    </row>
+    <row r="50" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3847,8 +4148,12 @@
       <c r="AM50" s="4"/>
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
-    </row>
-    <row r="51" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
+      <c r="AS50" s="4"/>
+    </row>
+    <row r="51" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3888,8 +4193,12 @@
       <c r="AM51" s="4"/>
       <c r="AN51" s="4"/>
       <c r="AO51" s="4"/>
-    </row>
-    <row r="52" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+    </row>
+    <row r="52" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3929,8 +4238,12 @@
       <c r="AM52" s="4"/>
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
-    </row>
-    <row r="53" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+    </row>
+    <row r="53" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3970,8 +4283,12 @@
       <c r="AM53" s="4"/>
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
-    </row>
-    <row r="54" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="4"/>
+    </row>
+    <row r="54" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4011,8 +4328,12 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
-    </row>
-    <row r="55" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+    </row>
+    <row r="55" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4052,8 +4373,12 @@
       <c r="AM55" s="4"/>
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
-    </row>
-    <row r="56" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP55" s="4"/>
+      <c r="AQ55" s="4"/>
+      <c r="AR55" s="4"/>
+      <c r="AS55" s="4"/>
+    </row>
+    <row r="56" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4093,8 +4418,12 @@
       <c r="AM56" s="4"/>
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
-    </row>
-    <row r="57" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP56" s="4"/>
+      <c r="AQ56" s="4"/>
+      <c r="AR56" s="4"/>
+      <c r="AS56" s="4"/>
+    </row>
+    <row r="57" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -4134,8 +4463,12 @@
       <c r="AM57" s="4"/>
       <c r="AN57" s="4"/>
       <c r="AO57" s="4"/>
-    </row>
-    <row r="58" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP57" s="4"/>
+      <c r="AQ57" s="4"/>
+      <c r="AR57" s="4"/>
+      <c r="AS57" s="4"/>
+    </row>
+    <row r="58" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4175,8 +4508,12 @@
       <c r="AM58" s="4"/>
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
-    </row>
-    <row r="59" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP58" s="4"/>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4"/>
+      <c r="AS58" s="4"/>
+    </row>
+    <row r="59" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -4216,8 +4553,12 @@
       <c r="AM59" s="4"/>
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
-    </row>
-    <row r="60" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP59" s="4"/>
+      <c r="AQ59" s="4"/>
+      <c r="AR59" s="4"/>
+      <c r="AS59" s="4"/>
+    </row>
+    <row r="60" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -4257,8 +4598,12 @@
       <c r="AM60" s="4"/>
       <c r="AN60" s="4"/>
       <c r="AO60" s="4"/>
-    </row>
-    <row r="61" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP60" s="4"/>
+      <c r="AQ60" s="4"/>
+      <c r="AR60" s="4"/>
+      <c r="AS60" s="4"/>
+    </row>
+    <row r="61" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -4298,8 +4643,12 @@
       <c r="AM61" s="4"/>
       <c r="AN61" s="4"/>
       <c r="AO61" s="4"/>
-    </row>
-    <row r="62" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP61" s="4"/>
+      <c r="AQ61" s="4"/>
+      <c r="AR61" s="4"/>
+      <c r="AS61" s="4"/>
+    </row>
+    <row r="62" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -4339,8 +4688,12 @@
       <c r="AM62" s="4"/>
       <c r="AN62" s="4"/>
       <c r="AO62" s="4"/>
-    </row>
-    <row r="63" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP62" s="4"/>
+      <c r="AQ62" s="4"/>
+      <c r="AR62" s="4"/>
+      <c r="AS62" s="4"/>
+    </row>
+    <row r="63" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -4380,8 +4733,12 @@
       <c r="AM63" s="4"/>
       <c r="AN63" s="4"/>
       <c r="AO63" s="4"/>
-    </row>
-    <row r="64" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP63" s="4"/>
+      <c r="AQ63" s="4"/>
+      <c r="AR63" s="4"/>
+      <c r="AS63" s="4"/>
+    </row>
+    <row r="64" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -4421,8 +4778,12 @@
       <c r="AM64" s="4"/>
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
-    </row>
-    <row r="65" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4"/>
+      <c r="AR64" s="4"/>
+      <c r="AS64" s="4"/>
+    </row>
+    <row r="65" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -4462,8 +4823,12 @@
       <c r="AM65" s="4"/>
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
-    </row>
-    <row r="66" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4"/>
+      <c r="AR65" s="4"/>
+      <c r="AS65" s="4"/>
+    </row>
+    <row r="66" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -4503,8 +4868,12 @@
       <c r="AM66" s="4"/>
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
-    </row>
-    <row r="67" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP66" s="4"/>
+      <c r="AQ66" s="4"/>
+      <c r="AR66" s="4"/>
+      <c r="AS66" s="4"/>
+    </row>
+    <row r="67" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -4544,8 +4913,12 @@
       <c r="AM67" s="4"/>
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
-    </row>
-    <row r="68" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP67" s="4"/>
+      <c r="AQ67" s="4"/>
+      <c r="AR67" s="4"/>
+      <c r="AS67" s="4"/>
+    </row>
+    <row r="68" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -4585,8 +4958,12 @@
       <c r="AM68" s="4"/>
       <c r="AN68" s="4"/>
       <c r="AO68" s="4"/>
-    </row>
-    <row r="69" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP68" s="4"/>
+      <c r="AQ68" s="4"/>
+      <c r="AR68" s="4"/>
+      <c r="AS68" s="4"/>
+    </row>
+    <row r="69" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -4626,8 +5003,12 @@
       <c r="AM69" s="4"/>
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
-    </row>
-    <row r="70" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP69" s="4"/>
+      <c r="AQ69" s="4"/>
+      <c r="AR69" s="4"/>
+      <c r="AS69" s="4"/>
+    </row>
+    <row r="70" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -4667,8 +5048,12 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
-    </row>
-    <row r="71" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP70" s="4"/>
+      <c r="AQ70" s="4"/>
+      <c r="AR70" s="4"/>
+      <c r="AS70" s="4"/>
+    </row>
+    <row r="71" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -4708,8 +5093,12 @@
       <c r="AM71" s="4"/>
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
-    </row>
-    <row r="72" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP71" s="4"/>
+      <c r="AQ71" s="4"/>
+      <c r="AR71" s="4"/>
+      <c r="AS71" s="4"/>
+    </row>
+    <row r="72" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -4749,8 +5138,12 @@
       <c r="AM72" s="4"/>
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
-    </row>
-    <row r="73" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP72" s="4"/>
+      <c r="AQ72" s="4"/>
+      <c r="AR72" s="4"/>
+      <c r="AS72" s="4"/>
+    </row>
+    <row r="73" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -4790,8 +5183,12 @@
       <c r="AM73" s="4"/>
       <c r="AN73" s="4"/>
       <c r="AO73" s="4"/>
-    </row>
-    <row r="74" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP73" s="4"/>
+      <c r="AQ73" s="4"/>
+      <c r="AR73" s="4"/>
+      <c r="AS73" s="4"/>
+    </row>
+    <row r="74" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -4831,8 +5228,12 @@
       <c r="AM74" s="4"/>
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
-    </row>
-    <row r="75" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP74" s="4"/>
+      <c r="AQ74" s="4"/>
+      <c r="AR74" s="4"/>
+      <c r="AS74" s="4"/>
+    </row>
+    <row r="75" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -4872,8 +5273,12 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="4"/>
       <c r="AO75" s="4"/>
-    </row>
-    <row r="76" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP75" s="4"/>
+      <c r="AQ75" s="4"/>
+      <c r="AR75" s="4"/>
+      <c r="AS75" s="4"/>
+    </row>
+    <row r="76" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -4913,8 +5318,12 @@
       <c r="AM76" s="4"/>
       <c r="AN76" s="4"/>
       <c r="AO76" s="4"/>
-    </row>
-    <row r="77" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP76" s="4"/>
+      <c r="AQ76" s="4"/>
+      <c r="AR76" s="4"/>
+      <c r="AS76" s="4"/>
+    </row>
+    <row r="77" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4954,8 +5363,12 @@
       <c r="AM77" s="4"/>
       <c r="AN77" s="4"/>
       <c r="AO77" s="4"/>
-    </row>
-    <row r="78" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP77" s="4"/>
+      <c r="AQ77" s="4"/>
+      <c r="AR77" s="4"/>
+      <c r="AS77" s="4"/>
+    </row>
+    <row r="78" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -4995,8 +5408,12 @@
       <c r="AM78" s="4"/>
       <c r="AN78" s="4"/>
       <c r="AO78" s="4"/>
-    </row>
-    <row r="79" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP78" s="4"/>
+      <c r="AQ78" s="4"/>
+      <c r="AR78" s="4"/>
+      <c r="AS78" s="4"/>
+    </row>
+    <row r="79" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -5036,8 +5453,12 @@
       <c r="AM79" s="4"/>
       <c r="AN79" s="4"/>
       <c r="AO79" s="4"/>
-    </row>
-    <row r="80" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP79" s="4"/>
+      <c r="AQ79" s="4"/>
+      <c r="AR79" s="4"/>
+      <c r="AS79" s="4"/>
+    </row>
+    <row r="80" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -5077,8 +5498,12 @@
       <c r="AM80" s="4"/>
       <c r="AN80" s="4"/>
       <c r="AO80" s="4"/>
-    </row>
-    <row r="81" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP80" s="4"/>
+      <c r="AQ80" s="4"/>
+      <c r="AR80" s="4"/>
+      <c r="AS80" s="4"/>
+    </row>
+    <row r="81" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -5118,8 +5543,12 @@
       <c r="AM81" s="4"/>
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
-    </row>
-    <row r="82" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP81" s="4"/>
+      <c r="AQ81" s="4"/>
+      <c r="AR81" s="4"/>
+      <c r="AS81" s="4"/>
+    </row>
+    <row r="82" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -5159,8 +5588,12 @@
       <c r="AM82" s="4"/>
       <c r="AN82" s="4"/>
       <c r="AO82" s="4"/>
-    </row>
-    <row r="83" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP82" s="4"/>
+      <c r="AQ82" s="4"/>
+      <c r="AR82" s="4"/>
+      <c r="AS82" s="4"/>
+    </row>
+    <row r="83" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -5200,8 +5633,12 @@
       <c r="AM83" s="4"/>
       <c r="AN83" s="4"/>
       <c r="AO83" s="4"/>
-    </row>
-    <row r="84" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP83" s="4"/>
+      <c r="AQ83" s="4"/>
+      <c r="AR83" s="4"/>
+      <c r="AS83" s="4"/>
+    </row>
+    <row r="84" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -5241,8 +5678,12 @@
       <c r="AM84" s="4"/>
       <c r="AN84" s="4"/>
       <c r="AO84" s="4"/>
-    </row>
-    <row r="85" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP84" s="4"/>
+      <c r="AQ84" s="4"/>
+      <c r="AR84" s="4"/>
+      <c r="AS84" s="4"/>
+    </row>
+    <row r="85" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -5282,8 +5723,12 @@
       <c r="AM85" s="4"/>
       <c r="AN85" s="4"/>
       <c r="AO85" s="4"/>
-    </row>
-    <row r="86" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP85" s="4"/>
+      <c r="AQ85" s="4"/>
+      <c r="AR85" s="4"/>
+      <c r="AS85" s="4"/>
+    </row>
+    <row r="86" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -5323,8 +5768,12 @@
       <c r="AM86" s="4"/>
       <c r="AN86" s="4"/>
       <c r="AO86" s="4"/>
-    </row>
-    <row r="87" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP86" s="4"/>
+      <c r="AQ86" s="4"/>
+      <c r="AR86" s="4"/>
+      <c r="AS86" s="4"/>
+    </row>
+    <row r="87" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -5364,8 +5813,12 @@
       <c r="AM87" s="4"/>
       <c r="AN87" s="4"/>
       <c r="AO87" s="4"/>
-    </row>
-    <row r="88" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP87" s="4"/>
+      <c r="AQ87" s="4"/>
+      <c r="AR87" s="4"/>
+      <c r="AS87" s="4"/>
+    </row>
+    <row r="88" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -5405,8 +5858,12 @@
       <c r="AM88" s="4"/>
       <c r="AN88" s="4"/>
       <c r="AO88" s="4"/>
-    </row>
-    <row r="89" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP88" s="4"/>
+      <c r="AQ88" s="4"/>
+      <c r="AR88" s="4"/>
+      <c r="AS88" s="4"/>
+    </row>
+    <row r="89" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -5446,8 +5903,12 @@
       <c r="AM89" s="4"/>
       <c r="AN89" s="4"/>
       <c r="AO89" s="4"/>
-    </row>
-    <row r="90" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP89" s="4"/>
+      <c r="AQ89" s="4"/>
+      <c r="AR89" s="4"/>
+      <c r="AS89" s="4"/>
+    </row>
+    <row r="90" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -5487,8 +5948,12 @@
       <c r="AM90" s="4"/>
       <c r="AN90" s="4"/>
       <c r="AO90" s="4"/>
-    </row>
-    <row r="91" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP90" s="4"/>
+      <c r="AQ90" s="4"/>
+      <c r="AR90" s="4"/>
+      <c r="AS90" s="4"/>
+    </row>
+    <row r="91" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -5528,8 +5993,12 @@
       <c r="AM91" s="4"/>
       <c r="AN91" s="4"/>
       <c r="AO91" s="4"/>
-    </row>
-    <row r="92" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP91" s="4"/>
+      <c r="AQ91" s="4"/>
+      <c r="AR91" s="4"/>
+      <c r="AS91" s="4"/>
+    </row>
+    <row r="92" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -5569,8 +6038,12 @@
       <c r="AM92" s="4"/>
       <c r="AN92" s="4"/>
       <c r="AO92" s="4"/>
-    </row>
-    <row r="93" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP92" s="4"/>
+      <c r="AQ92" s="4"/>
+      <c r="AR92" s="4"/>
+      <c r="AS92" s="4"/>
+    </row>
+    <row r="93" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -5610,8 +6083,12 @@
       <c r="AM93" s="4"/>
       <c r="AN93" s="4"/>
       <c r="AO93" s="4"/>
-    </row>
-    <row r="94" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP93" s="4"/>
+      <c r="AQ93" s="4"/>
+      <c r="AR93" s="4"/>
+      <c r="AS93" s="4"/>
+    </row>
+    <row r="94" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -5651,8 +6128,12 @@
       <c r="AM94" s="4"/>
       <c r="AN94" s="4"/>
       <c r="AO94" s="4"/>
-    </row>
-    <row r="95" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP94" s="4"/>
+      <c r="AQ94" s="4"/>
+      <c r="AR94" s="4"/>
+      <c r="AS94" s="4"/>
+    </row>
+    <row r="95" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -5692,8 +6173,12 @@
       <c r="AM95" s="4"/>
       <c r="AN95" s="4"/>
       <c r="AO95" s="4"/>
-    </row>
-    <row r="96" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP95" s="4"/>
+      <c r="AQ95" s="4"/>
+      <c r="AR95" s="4"/>
+      <c r="AS95" s="4"/>
+    </row>
+    <row r="96" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -5733,8 +6218,12 @@
       <c r="AM96" s="4"/>
       <c r="AN96" s="4"/>
       <c r="AO96" s="4"/>
-    </row>
-    <row r="97" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP96" s="4"/>
+      <c r="AQ96" s="4"/>
+      <c r="AR96" s="4"/>
+      <c r="AS96" s="4"/>
+    </row>
+    <row r="97" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -5774,8 +6263,12 @@
       <c r="AM97" s="4"/>
       <c r="AN97" s="4"/>
       <c r="AO97" s="4"/>
-    </row>
-    <row r="98" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP97" s="4"/>
+      <c r="AQ97" s="4"/>
+      <c r="AR97" s="4"/>
+      <c r="AS97" s="4"/>
+    </row>
+    <row r="98" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -5815,8 +6308,12 @@
       <c r="AM98" s="4"/>
       <c r="AN98" s="4"/>
       <c r="AO98" s="4"/>
-    </row>
-    <row r="99" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP98" s="4"/>
+      <c r="AQ98" s="4"/>
+      <c r="AR98" s="4"/>
+      <c r="AS98" s="4"/>
+    </row>
+    <row r="99" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -5856,8 +6353,12 @@
       <c r="AM99" s="4"/>
       <c r="AN99" s="4"/>
       <c r="AO99" s="4"/>
-    </row>
-    <row r="100" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP99" s="4"/>
+      <c r="AQ99" s="4"/>
+      <c r="AR99" s="4"/>
+      <c r="AS99" s="4"/>
+    </row>
+    <row r="100" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -5897,8 +6398,12 @@
       <c r="AM100" s="4"/>
       <c r="AN100" s="4"/>
       <c r="AO100" s="4"/>
-    </row>
-    <row r="101" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP100" s="4"/>
+      <c r="AQ100" s="4"/>
+      <c r="AR100" s="4"/>
+      <c r="AS100" s="4"/>
+    </row>
+    <row r="101" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -5938,8 +6443,12 @@
       <c r="AM101" s="4"/>
       <c r="AN101" s="4"/>
       <c r="AO101" s="4"/>
-    </row>
-    <row r="102" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP101" s="4"/>
+      <c r="AQ101" s="4"/>
+      <c r="AR101" s="4"/>
+      <c r="AS101" s="4"/>
+    </row>
+    <row r="102" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -5979,8 +6488,12 @@
       <c r="AM102" s="4"/>
       <c r="AN102" s="4"/>
       <c r="AO102" s="4"/>
-    </row>
-    <row r="103" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP102" s="4"/>
+      <c r="AQ102" s="4"/>
+      <c r="AR102" s="4"/>
+      <c r="AS102" s="4"/>
+    </row>
+    <row r="103" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -6020,8 +6533,12 @@
       <c r="AM103" s="4"/>
       <c r="AN103" s="4"/>
       <c r="AO103" s="4"/>
-    </row>
-    <row r="104" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP103" s="4"/>
+      <c r="AQ103" s="4"/>
+      <c r="AR103" s="4"/>
+      <c r="AS103" s="4"/>
+    </row>
+    <row r="104" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -6061,8 +6578,12 @@
       <c r="AM104" s="4"/>
       <c r="AN104" s="4"/>
       <c r="AO104" s="4"/>
-    </row>
-    <row r="105" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP104" s="4"/>
+      <c r="AQ104" s="4"/>
+      <c r="AR104" s="4"/>
+      <c r="AS104" s="4"/>
+    </row>
+    <row r="105" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6102,8 +6623,12 @@
       <c r="AM105" s="4"/>
       <c r="AN105" s="4"/>
       <c r="AO105" s="4"/>
-    </row>
-    <row r="106" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP105" s="4"/>
+      <c r="AQ105" s="4"/>
+      <c r="AR105" s="4"/>
+      <c r="AS105" s="4"/>
+    </row>
+    <row r="106" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -6143,8 +6668,12 @@
       <c r="AM106" s="4"/>
       <c r="AN106" s="4"/>
       <c r="AO106" s="4"/>
-    </row>
-    <row r="107" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP106" s="4"/>
+      <c r="AQ106" s="4"/>
+      <c r="AR106" s="4"/>
+      <c r="AS106" s="4"/>
+    </row>
+    <row r="107" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -6184,8 +6713,12 @@
       <c r="AM107" s="4"/>
       <c r="AN107" s="4"/>
       <c r="AO107" s="4"/>
-    </row>
-    <row r="108" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP107" s="4"/>
+      <c r="AQ107" s="4"/>
+      <c r="AR107" s="4"/>
+      <c r="AS107" s="4"/>
+    </row>
+    <row r="108" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -6225,8 +6758,12 @@
       <c r="AM108" s="4"/>
       <c r="AN108" s="4"/>
       <c r="AO108" s="4"/>
-    </row>
-    <row r="109" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP108" s="4"/>
+      <c r="AQ108" s="4"/>
+      <c r="AR108" s="4"/>
+      <c r="AS108" s="4"/>
+    </row>
+    <row r="109" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6266,8 +6803,12 @@
       <c r="AM109" s="4"/>
       <c r="AN109" s="4"/>
       <c r="AO109" s="4"/>
-    </row>
-    <row r="110" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP109" s="4"/>
+      <c r="AQ109" s="4"/>
+      <c r="AR109" s="4"/>
+      <c r="AS109" s="4"/>
+    </row>
+    <row r="110" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6307,8 +6848,12 @@
       <c r="AM110" s="4"/>
       <c r="AN110" s="4"/>
       <c r="AO110" s="4"/>
-    </row>
-    <row r="111" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP110" s="4"/>
+      <c r="AQ110" s="4"/>
+      <c r="AR110" s="4"/>
+      <c r="AS110" s="4"/>
+    </row>
+    <row r="111" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6348,8 +6893,12 @@
       <c r="AM111" s="4"/>
       <c r="AN111" s="4"/>
       <c r="AO111" s="4"/>
-    </row>
-    <row r="112" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP111" s="4"/>
+      <c r="AQ111" s="4"/>
+      <c r="AR111" s="4"/>
+      <c r="AS111" s="4"/>
+    </row>
+    <row r="112" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6389,8 +6938,12 @@
       <c r="AM112" s="4"/>
       <c r="AN112" s="4"/>
       <c r="AO112" s="4"/>
-    </row>
-    <row r="113" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP112" s="4"/>
+      <c r="AQ112" s="4"/>
+      <c r="AR112" s="4"/>
+      <c r="AS112" s="4"/>
+    </row>
+    <row r="113" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6430,8 +6983,12 @@
       <c r="AM113" s="4"/>
       <c r="AN113" s="4"/>
       <c r="AO113" s="4"/>
-    </row>
-    <row r="114" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP113" s="4"/>
+      <c r="AQ113" s="4"/>
+      <c r="AR113" s="4"/>
+      <c r="AS113" s="4"/>
+    </row>
+    <row r="114" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6471,8 +7028,12 @@
       <c r="AM114" s="4"/>
       <c r="AN114" s="4"/>
       <c r="AO114" s="4"/>
-    </row>
-    <row r="115" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP114" s="4"/>
+      <c r="AQ114" s="4"/>
+      <c r="AR114" s="4"/>
+      <c r="AS114" s="4"/>
+    </row>
+    <row r="115" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6512,8 +7073,12 @@
       <c r="AM115" s="4"/>
       <c r="AN115" s="4"/>
       <c r="AO115" s="4"/>
-    </row>
-    <row r="116" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP115" s="4"/>
+      <c r="AQ115" s="4"/>
+      <c r="AR115" s="4"/>
+      <c r="AS115" s="4"/>
+    </row>
+    <row r="116" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6553,8 +7118,12 @@
       <c r="AM116" s="4"/>
       <c r="AN116" s="4"/>
       <c r="AO116" s="4"/>
-    </row>
-    <row r="117" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP116" s="4"/>
+      <c r="AQ116" s="4"/>
+      <c r="AR116" s="4"/>
+      <c r="AS116" s="4"/>
+    </row>
+    <row r="117" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6594,8 +7163,12 @@
       <c r="AM117" s="4"/>
       <c r="AN117" s="4"/>
       <c r="AO117" s="4"/>
-    </row>
-    <row r="118" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP117" s="4"/>
+      <c r="AQ117" s="4"/>
+      <c r="AR117" s="4"/>
+      <c r="AS117" s="4"/>
+    </row>
+    <row r="118" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6635,8 +7208,12 @@
       <c r="AM118" s="4"/>
       <c r="AN118" s="4"/>
       <c r="AO118" s="4"/>
-    </row>
-    <row r="119" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP118" s="4"/>
+      <c r="AQ118" s="4"/>
+      <c r="AR118" s="4"/>
+      <c r="AS118" s="4"/>
+    </row>
+    <row r="119" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6676,8 +7253,12 @@
       <c r="AM119" s="4"/>
       <c r="AN119" s="4"/>
       <c r="AO119" s="4"/>
-    </row>
-    <row r="120" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP119" s="4"/>
+      <c r="AQ119" s="4"/>
+      <c r="AR119" s="4"/>
+      <c r="AS119" s="4"/>
+    </row>
+    <row r="120" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6717,8 +7298,12 @@
       <c r="AM120" s="4"/>
       <c r="AN120" s="4"/>
       <c r="AO120" s="4"/>
-    </row>
-    <row r="121" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP120" s="4"/>
+      <c r="AQ120" s="4"/>
+      <c r="AR120" s="4"/>
+      <c r="AS120" s="4"/>
+    </row>
+    <row r="121" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6758,8 +7343,12 @@
       <c r="AM121" s="4"/>
       <c r="AN121" s="4"/>
       <c r="AO121" s="4"/>
-    </row>
-    <row r="122" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP121" s="4"/>
+      <c r="AQ121" s="4"/>
+      <c r="AR121" s="4"/>
+      <c r="AS121" s="4"/>
+    </row>
+    <row r="122" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -6799,8 +7388,12 @@
       <c r="AM122" s="4"/>
       <c r="AN122" s="4"/>
       <c r="AO122" s="4"/>
-    </row>
-    <row r="123" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP122" s="4"/>
+      <c r="AQ122" s="4"/>
+      <c r="AR122" s="4"/>
+      <c r="AS122" s="4"/>
+    </row>
+    <row r="123" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6840,8 +7433,12 @@
       <c r="AM123" s="4"/>
       <c r="AN123" s="4"/>
       <c r="AO123" s="4"/>
-    </row>
-    <row r="124" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP123" s="4"/>
+      <c r="AQ123" s="4"/>
+      <c r="AR123" s="4"/>
+      <c r="AS123" s="4"/>
+    </row>
+    <row r="124" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -6881,8 +7478,12 @@
       <c r="AM124" s="4"/>
       <c r="AN124" s="4"/>
       <c r="AO124" s="4"/>
-    </row>
-    <row r="125" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP124" s="4"/>
+      <c r="AQ124" s="4"/>
+      <c r="AR124" s="4"/>
+      <c r="AS124" s="4"/>
+    </row>
+    <row r="125" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -6922,8 +7523,12 @@
       <c r="AM125" s="4"/>
       <c r="AN125" s="4"/>
       <c r="AO125" s="4"/>
-    </row>
-    <row r="126" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP125" s="4"/>
+      <c r="AQ125" s="4"/>
+      <c r="AR125" s="4"/>
+      <c r="AS125" s="4"/>
+    </row>
+    <row r="126" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -6963,8 +7568,12 @@
       <c r="AM126" s="4"/>
       <c r="AN126" s="4"/>
       <c r="AO126" s="4"/>
-    </row>
-    <row r="127" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP126" s="4"/>
+      <c r="AQ126" s="4"/>
+      <c r="AR126" s="4"/>
+      <c r="AS126" s="4"/>
+    </row>
+    <row r="127" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -7004,8 +7613,12 @@
       <c r="AM127" s="4"/>
       <c r="AN127" s="4"/>
       <c r="AO127" s="4"/>
-    </row>
-    <row r="128" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP127" s="4"/>
+      <c r="AQ127" s="4"/>
+      <c r="AR127" s="4"/>
+      <c r="AS127" s="4"/>
+    </row>
+    <row r="128" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -7045,8 +7658,12 @@
       <c r="AM128" s="4"/>
       <c r="AN128" s="4"/>
       <c r="AO128" s="4"/>
-    </row>
-    <row r="129" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP128" s="4"/>
+      <c r="AQ128" s="4"/>
+      <c r="AR128" s="4"/>
+      <c r="AS128" s="4"/>
+    </row>
+    <row r="129" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -7086,8 +7703,12 @@
       <c r="AM129" s="4"/>
       <c r="AN129" s="4"/>
       <c r="AO129" s="4"/>
-    </row>
-    <row r="130" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP129" s="4"/>
+      <c r="AQ129" s="4"/>
+      <c r="AR129" s="4"/>
+      <c r="AS129" s="4"/>
+    </row>
+    <row r="130" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -7127,8 +7748,12 @@
       <c r="AM130" s="4"/>
       <c r="AN130" s="4"/>
       <c r="AO130" s="4"/>
-    </row>
-    <row r="131" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP130" s="4"/>
+      <c r="AQ130" s="4"/>
+      <c r="AR130" s="4"/>
+      <c r="AS130" s="4"/>
+    </row>
+    <row r="131" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -7168,8 +7793,12 @@
       <c r="AM131" s="4"/>
       <c r="AN131" s="4"/>
       <c r="AO131" s="4"/>
-    </row>
-    <row r="132" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP131" s="4"/>
+      <c r="AQ131" s="4"/>
+      <c r="AR131" s="4"/>
+      <c r="AS131" s="4"/>
+    </row>
+    <row r="132" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -7209,8 +7838,12 @@
       <c r="AM132" s="4"/>
       <c r="AN132" s="4"/>
       <c r="AO132" s="4"/>
-    </row>
-    <row r="133" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP132" s="4"/>
+      <c r="AQ132" s="4"/>
+      <c r="AR132" s="4"/>
+      <c r="AS132" s="4"/>
+    </row>
+    <row r="133" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -7250,8 +7883,12 @@
       <c r="AM133" s="4"/>
       <c r="AN133" s="4"/>
       <c r="AO133" s="4"/>
-    </row>
-    <row r="134" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP133" s="4"/>
+      <c r="AQ133" s="4"/>
+      <c r="AR133" s="4"/>
+      <c r="AS133" s="4"/>
+    </row>
+    <row r="134" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -7291,8 +7928,12 @@
       <c r="AM134" s="4"/>
       <c r="AN134" s="4"/>
       <c r="AO134" s="4"/>
-    </row>
-    <row r="135" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP134" s="4"/>
+      <c r="AQ134" s="4"/>
+      <c r="AR134" s="4"/>
+      <c r="AS134" s="4"/>
+    </row>
+    <row r="135" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -7332,8 +7973,12 @@
       <c r="AM135" s="4"/>
       <c r="AN135" s="4"/>
       <c r="AO135" s="4"/>
-    </row>
-    <row r="136" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP135" s="4"/>
+      <c r="AQ135" s="4"/>
+      <c r="AR135" s="4"/>
+      <c r="AS135" s="4"/>
+    </row>
+    <row r="136" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -7373,8 +8018,12 @@
       <c r="AM136" s="4"/>
       <c r="AN136" s="4"/>
       <c r="AO136" s="4"/>
-    </row>
-    <row r="137" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP136" s="4"/>
+      <c r="AQ136" s="4"/>
+      <c r="AR136" s="4"/>
+      <c r="AS136" s="4"/>
+    </row>
+    <row r="137" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -7414,8 +8063,12 @@
       <c r="AM137" s="4"/>
       <c r="AN137" s="4"/>
       <c r="AO137" s="4"/>
-    </row>
-    <row r="138" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP137" s="4"/>
+      <c r="AQ137" s="4"/>
+      <c r="AR137" s="4"/>
+      <c r="AS137" s="4"/>
+    </row>
+    <row r="138" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -7455,8 +8108,12 @@
       <c r="AM138" s="4"/>
       <c r="AN138" s="4"/>
       <c r="AO138" s="4"/>
-    </row>
-    <row r="139" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP138" s="4"/>
+      <c r="AQ138" s="4"/>
+      <c r="AR138" s="4"/>
+      <c r="AS138" s="4"/>
+    </row>
+    <row r="139" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -7496,8 +8153,12 @@
       <c r="AM139" s="4"/>
       <c r="AN139" s="4"/>
       <c r="AO139" s="4"/>
-    </row>
-    <row r="140" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP139" s="4"/>
+      <c r="AQ139" s="4"/>
+      <c r="AR139" s="4"/>
+      <c r="AS139" s="4"/>
+    </row>
+    <row r="140" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -7537,8 +8198,12 @@
       <c r="AM140" s="4"/>
       <c r="AN140" s="4"/>
       <c r="AO140" s="4"/>
-    </row>
-    <row r="141" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP140" s="4"/>
+      <c r="AQ140" s="4"/>
+      <c r="AR140" s="4"/>
+      <c r="AS140" s="4"/>
+    </row>
+    <row r="141" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -7578,8 +8243,12 @@
       <c r="AM141" s="4"/>
       <c r="AN141" s="4"/>
       <c r="AO141" s="4"/>
-    </row>
-    <row r="142" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP141" s="4"/>
+      <c r="AQ141" s="4"/>
+      <c r="AR141" s="4"/>
+      <c r="AS141" s="4"/>
+    </row>
+    <row r="142" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -7619,8 +8288,12 @@
       <c r="AM142" s="4"/>
       <c r="AN142" s="4"/>
       <c r="AO142" s="4"/>
-    </row>
-    <row r="143" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP142" s="4"/>
+      <c r="AQ142" s="4"/>
+      <c r="AR142" s="4"/>
+      <c r="AS142" s="4"/>
+    </row>
+    <row r="143" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -7660,8 +8333,12 @@
       <c r="AM143" s="4"/>
       <c r="AN143" s="4"/>
       <c r="AO143" s="4"/>
-    </row>
-    <row r="144" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP143" s="4"/>
+      <c r="AQ143" s="4"/>
+      <c r="AR143" s="4"/>
+      <c r="AS143" s="4"/>
+    </row>
+    <row r="144" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -7701,8 +8378,12 @@
       <c r="AM144" s="4"/>
       <c r="AN144" s="4"/>
       <c r="AO144" s="4"/>
-    </row>
-    <row r="145" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP144" s="4"/>
+      <c r="AQ144" s="4"/>
+      <c r="AR144" s="4"/>
+      <c r="AS144" s="4"/>
+    </row>
+    <row r="145" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -7742,8 +8423,12 @@
       <c r="AM145" s="4"/>
       <c r="AN145" s="4"/>
       <c r="AO145" s="4"/>
-    </row>
-    <row r="146" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP145" s="4"/>
+      <c r="AQ145" s="4"/>
+      <c r="AR145" s="4"/>
+      <c r="AS145" s="4"/>
+    </row>
+    <row r="146" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -7783,8 +8468,12 @@
       <c r="AM146" s="4"/>
       <c r="AN146" s="4"/>
       <c r="AO146" s="4"/>
-    </row>
-    <row r="147" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP146" s="4"/>
+      <c r="AQ146" s="4"/>
+      <c r="AR146" s="4"/>
+      <c r="AS146" s="4"/>
+    </row>
+    <row r="147" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -7824,8 +8513,12 @@
       <c r="AM147" s="4"/>
       <c r="AN147" s="4"/>
       <c r="AO147" s="4"/>
-    </row>
-    <row r="148" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP147" s="4"/>
+      <c r="AQ147" s="4"/>
+      <c r="AR147" s="4"/>
+      <c r="AS147" s="4"/>
+    </row>
+    <row r="148" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -7865,8 +8558,12 @@
       <c r="AM148" s="4"/>
       <c r="AN148" s="4"/>
       <c r="AO148" s="4"/>
-    </row>
-    <row r="149" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP148" s="4"/>
+      <c r="AQ148" s="4"/>
+      <c r="AR148" s="4"/>
+      <c r="AS148" s="4"/>
+    </row>
+    <row r="149" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -7906,8 +8603,12 @@
       <c r="AM149" s="4"/>
       <c r="AN149" s="4"/>
       <c r="AO149" s="4"/>
-    </row>
-    <row r="150" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP149" s="4"/>
+      <c r="AQ149" s="4"/>
+      <c r="AR149" s="4"/>
+      <c r="AS149" s="4"/>
+    </row>
+    <row r="150" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -7947,8 +8648,12 @@
       <c r="AM150" s="4"/>
       <c r="AN150" s="4"/>
       <c r="AO150" s="4"/>
-    </row>
-    <row r="151" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP150" s="4"/>
+      <c r="AQ150" s="4"/>
+      <c r="AR150" s="4"/>
+      <c r="AS150" s="4"/>
+    </row>
+    <row r="151" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -7988,8 +8693,12 @@
       <c r="AM151" s="4"/>
       <c r="AN151" s="4"/>
       <c r="AO151" s="4"/>
-    </row>
-    <row r="152" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP151" s="4"/>
+      <c r="AQ151" s="4"/>
+      <c r="AR151" s="4"/>
+      <c r="AS151" s="4"/>
+    </row>
+    <row r="152" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -8029,8 +8738,12 @@
       <c r="AM152" s="4"/>
       <c r="AN152" s="4"/>
       <c r="AO152" s="4"/>
-    </row>
-    <row r="153" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP152" s="4"/>
+      <c r="AQ152" s="4"/>
+      <c r="AR152" s="4"/>
+      <c r="AS152" s="4"/>
+    </row>
+    <row r="153" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -8070,8 +8783,12 @@
       <c r="AM153" s="4"/>
       <c r="AN153" s="4"/>
       <c r="AO153" s="4"/>
-    </row>
-    <row r="154" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP153" s="4"/>
+      <c r="AQ153" s="4"/>
+      <c r="AR153" s="4"/>
+      <c r="AS153" s="4"/>
+    </row>
+    <row r="154" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -8111,8 +8828,12 @@
       <c r="AM154" s="4"/>
       <c r="AN154" s="4"/>
       <c r="AO154" s="4"/>
-    </row>
-    <row r="155" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP154" s="4"/>
+      <c r="AQ154" s="4"/>
+      <c r="AR154" s="4"/>
+      <c r="AS154" s="4"/>
+    </row>
+    <row r="155" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -8152,8 +8873,12 @@
       <c r="AM155" s="4"/>
       <c r="AN155" s="4"/>
       <c r="AO155" s="4"/>
-    </row>
-    <row r="156" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP155" s="4"/>
+      <c r="AQ155" s="4"/>
+      <c r="AR155" s="4"/>
+      <c r="AS155" s="4"/>
+    </row>
+    <row r="156" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -8193,8 +8918,12 @@
       <c r="AM156" s="4"/>
       <c r="AN156" s="4"/>
       <c r="AO156" s="4"/>
-    </row>
-    <row r="157" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP156" s="4"/>
+      <c r="AQ156" s="4"/>
+      <c r="AR156" s="4"/>
+      <c r="AS156" s="4"/>
+    </row>
+    <row r="157" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -8234,8 +8963,12 @@
       <c r="AM157" s="4"/>
       <c r="AN157" s="4"/>
       <c r="AO157" s="4"/>
-    </row>
-    <row r="158" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP157" s="4"/>
+      <c r="AQ157" s="4"/>
+      <c r="AR157" s="4"/>
+      <c r="AS157" s="4"/>
+    </row>
+    <row r="158" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -8275,8 +9008,12 @@
       <c r="AM158" s="4"/>
       <c r="AN158" s="4"/>
       <c r="AO158" s="4"/>
-    </row>
-    <row r="159" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP158" s="4"/>
+      <c r="AQ158" s="4"/>
+      <c r="AR158" s="4"/>
+      <c r="AS158" s="4"/>
+    </row>
+    <row r="159" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -8316,8 +9053,12 @@
       <c r="AM159" s="4"/>
       <c r="AN159" s="4"/>
       <c r="AO159" s="4"/>
-    </row>
-    <row r="160" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP159" s="4"/>
+      <c r="AQ159" s="4"/>
+      <c r="AR159" s="4"/>
+      <c r="AS159" s="4"/>
+    </row>
+    <row r="160" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -8357,8 +9098,12 @@
       <c r="AM160" s="4"/>
       <c r="AN160" s="4"/>
       <c r="AO160" s="4"/>
-    </row>
-    <row r="161" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP160" s="4"/>
+      <c r="AQ160" s="4"/>
+      <c r="AR160" s="4"/>
+      <c r="AS160" s="4"/>
+    </row>
+    <row r="161" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -8398,8 +9143,12 @@
       <c r="AM161" s="4"/>
       <c r="AN161" s="4"/>
       <c r="AO161" s="4"/>
-    </row>
-    <row r="162" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP161" s="4"/>
+      <c r="AQ161" s="4"/>
+      <c r="AR161" s="4"/>
+      <c r="AS161" s="4"/>
+    </row>
+    <row r="162" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -8439,8 +9188,12 @@
       <c r="AM162" s="4"/>
       <c r="AN162" s="4"/>
       <c r="AO162" s="4"/>
-    </row>
-    <row r="163" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP162" s="4"/>
+      <c r="AQ162" s="4"/>
+      <c r="AR162" s="4"/>
+      <c r="AS162" s="4"/>
+    </row>
+    <row r="163" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -8480,8 +9233,12 @@
       <c r="AM163" s="4"/>
       <c r="AN163" s="4"/>
       <c r="AO163" s="4"/>
-    </row>
-    <row r="164" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP163" s="4"/>
+      <c r="AQ163" s="4"/>
+      <c r="AR163" s="4"/>
+      <c r="AS163" s="4"/>
+    </row>
+    <row r="164" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -8521,8 +9278,12 @@
       <c r="AM164" s="4"/>
       <c r="AN164" s="4"/>
       <c r="AO164" s="4"/>
-    </row>
-    <row r="165" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP164" s="4"/>
+      <c r="AQ164" s="4"/>
+      <c r="AR164" s="4"/>
+      <c r="AS164" s="4"/>
+    </row>
+    <row r="165" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -8562,8 +9323,12 @@
       <c r="AM165" s="4"/>
       <c r="AN165" s="4"/>
       <c r="AO165" s="4"/>
-    </row>
-    <row r="166" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP165" s="4"/>
+      <c r="AQ165" s="4"/>
+      <c r="AR165" s="4"/>
+      <c r="AS165" s="4"/>
+    </row>
+    <row r="166" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -8603,8 +9368,12 @@
       <c r="AM166" s="4"/>
       <c r="AN166" s="4"/>
       <c r="AO166" s="4"/>
-    </row>
-    <row r="167" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP166" s="4"/>
+      <c r="AQ166" s="4"/>
+      <c r="AR166" s="4"/>
+      <c r="AS166" s="4"/>
+    </row>
+    <row r="167" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -8644,8 +9413,12 @@
       <c r="AM167" s="4"/>
       <c r="AN167" s="4"/>
       <c r="AO167" s="4"/>
-    </row>
-    <row r="168" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP167" s="4"/>
+      <c r="AQ167" s="4"/>
+      <c r="AR167" s="4"/>
+      <c r="AS167" s="4"/>
+    </row>
+    <row r="168" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -8685,8 +9458,12 @@
       <c r="AM168" s="4"/>
       <c r="AN168" s="4"/>
       <c r="AO168" s="4"/>
-    </row>
-    <row r="169" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP168" s="4"/>
+      <c r="AQ168" s="4"/>
+      <c r="AR168" s="4"/>
+      <c r="AS168" s="4"/>
+    </row>
+    <row r="169" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -8726,8 +9503,12 @@
       <c r="AM169" s="4"/>
       <c r="AN169" s="4"/>
       <c r="AO169" s="4"/>
-    </row>
-    <row r="170" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP169" s="4"/>
+      <c r="AQ169" s="4"/>
+      <c r="AR169" s="4"/>
+      <c r="AS169" s="4"/>
+    </row>
+    <row r="170" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -8767,8 +9548,12 @@
       <c r="AM170" s="4"/>
       <c r="AN170" s="4"/>
       <c r="AO170" s="4"/>
-    </row>
-    <row r="171" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP170" s="4"/>
+      <c r="AQ170" s="4"/>
+      <c r="AR170" s="4"/>
+      <c r="AS170" s="4"/>
+    </row>
+    <row r="171" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -8808,8 +9593,12 @@
       <c r="AM171" s="4"/>
       <c r="AN171" s="4"/>
       <c r="AO171" s="4"/>
-    </row>
-    <row r="172" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP171" s="4"/>
+      <c r="AQ171" s="4"/>
+      <c r="AR171" s="4"/>
+      <c r="AS171" s="4"/>
+    </row>
+    <row r="172" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -8849,8 +9638,12 @@
       <c r="AM172" s="4"/>
       <c r="AN172" s="4"/>
       <c r="AO172" s="4"/>
-    </row>
-    <row r="173" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP172" s="4"/>
+      <c r="AQ172" s="4"/>
+      <c r="AR172" s="4"/>
+      <c r="AS172" s="4"/>
+    </row>
+    <row r="173" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -8890,8 +9683,12 @@
       <c r="AM173" s="4"/>
       <c r="AN173" s="4"/>
       <c r="AO173" s="4"/>
-    </row>
-    <row r="174" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP173" s="4"/>
+      <c r="AQ173" s="4"/>
+      <c r="AR173" s="4"/>
+      <c r="AS173" s="4"/>
+    </row>
+    <row r="174" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -8931,8 +9728,12 @@
       <c r="AM174" s="4"/>
       <c r="AN174" s="4"/>
       <c r="AO174" s="4"/>
-    </row>
-    <row r="175" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP174" s="4"/>
+      <c r="AQ174" s="4"/>
+      <c r="AR174" s="4"/>
+      <c r="AS174" s="4"/>
+    </row>
+    <row r="175" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -8972,8 +9773,12 @@
       <c r="AM175" s="4"/>
       <c r="AN175" s="4"/>
       <c r="AO175" s="4"/>
-    </row>
-    <row r="176" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP175" s="4"/>
+      <c r="AQ175" s="4"/>
+      <c r="AR175" s="4"/>
+      <c r="AS175" s="4"/>
+    </row>
+    <row r="176" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -9013,8 +9818,12 @@
       <c r="AM176" s="4"/>
       <c r="AN176" s="4"/>
       <c r="AO176" s="4"/>
-    </row>
-    <row r="177" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP176" s="4"/>
+      <c r="AQ176" s="4"/>
+      <c r="AR176" s="4"/>
+      <c r="AS176" s="4"/>
+    </row>
+    <row r="177" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -9054,8 +9863,12 @@
       <c r="AM177" s="4"/>
       <c r="AN177" s="4"/>
       <c r="AO177" s="4"/>
-    </row>
-    <row r="178" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP177" s="4"/>
+      <c r="AQ177" s="4"/>
+      <c r="AR177" s="4"/>
+      <c r="AS177" s="4"/>
+    </row>
+    <row r="178" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -9095,8 +9908,12 @@
       <c r="AM178" s="4"/>
       <c r="AN178" s="4"/>
       <c r="AO178" s="4"/>
-    </row>
-    <row r="179" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP178" s="4"/>
+      <c r="AQ178" s="4"/>
+      <c r="AR178" s="4"/>
+      <c r="AS178" s="4"/>
+    </row>
+    <row r="179" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -9136,8 +9953,12 @@
       <c r="AM179" s="4"/>
       <c r="AN179" s="4"/>
       <c r="AO179" s="4"/>
-    </row>
-    <row r="180" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP179" s="4"/>
+      <c r="AQ179" s="4"/>
+      <c r="AR179" s="4"/>
+      <c r="AS179" s="4"/>
+    </row>
+    <row r="180" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -9177,8 +9998,12 @@
       <c r="AM180" s="4"/>
       <c r="AN180" s="4"/>
       <c r="AO180" s="4"/>
-    </row>
-    <row r="181" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP180" s="4"/>
+      <c r="AQ180" s="4"/>
+      <c r="AR180" s="4"/>
+      <c r="AS180" s="4"/>
+    </row>
+    <row r="181" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -9218,8 +10043,12 @@
       <c r="AM181" s="4"/>
       <c r="AN181" s="4"/>
       <c r="AO181" s="4"/>
-    </row>
-    <row r="182" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP181" s="4"/>
+      <c r="AQ181" s="4"/>
+      <c r="AR181" s="4"/>
+      <c r="AS181" s="4"/>
+    </row>
+    <row r="182" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -9259,8 +10088,12 @@
       <c r="AM182" s="4"/>
       <c r="AN182" s="4"/>
       <c r="AO182" s="4"/>
-    </row>
-    <row r="183" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP182" s="4"/>
+      <c r="AQ182" s="4"/>
+      <c r="AR182" s="4"/>
+      <c r="AS182" s="4"/>
+    </row>
+    <row r="183" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -9300,8 +10133,12 @@
       <c r="AM183" s="4"/>
       <c r="AN183" s="4"/>
       <c r="AO183" s="4"/>
-    </row>
-    <row r="184" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP183" s="4"/>
+      <c r="AQ183" s="4"/>
+      <c r="AR183" s="4"/>
+      <c r="AS183" s="4"/>
+    </row>
+    <row r="184" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -9341,8 +10178,12 @@
       <c r="AM184" s="4"/>
       <c r="AN184" s="4"/>
       <c r="AO184" s="4"/>
-    </row>
-    <row r="185" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP184" s="4"/>
+      <c r="AQ184" s="4"/>
+      <c r="AR184" s="4"/>
+      <c r="AS184" s="4"/>
+    </row>
+    <row r="185" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -9382,8 +10223,12 @@
       <c r="AM185" s="4"/>
       <c r="AN185" s="4"/>
       <c r="AO185" s="4"/>
-    </row>
-    <row r="186" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP185" s="4"/>
+      <c r="AQ185" s="4"/>
+      <c r="AR185" s="4"/>
+      <c r="AS185" s="4"/>
+    </row>
+    <row r="186" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -9423,8 +10268,12 @@
       <c r="AM186" s="4"/>
       <c r="AN186" s="4"/>
       <c r="AO186" s="4"/>
-    </row>
-    <row r="187" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP186" s="4"/>
+      <c r="AQ186" s="4"/>
+      <c r="AR186" s="4"/>
+      <c r="AS186" s="4"/>
+    </row>
+    <row r="187" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -9464,8 +10313,12 @@
       <c r="AM187" s="4"/>
       <c r="AN187" s="4"/>
       <c r="AO187" s="4"/>
-    </row>
-    <row r="188" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP187" s="4"/>
+      <c r="AQ187" s="4"/>
+      <c r="AR187" s="4"/>
+      <c r="AS187" s="4"/>
+    </row>
+    <row r="188" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -9505,8 +10358,12 @@
       <c r="AM188" s="4"/>
       <c r="AN188" s="4"/>
       <c r="AO188" s="4"/>
-    </row>
-    <row r="189" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP188" s="4"/>
+      <c r="AQ188" s="4"/>
+      <c r="AR188" s="4"/>
+      <c r="AS188" s="4"/>
+    </row>
+    <row r="189" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -9546,8 +10403,12 @@
       <c r="AM189" s="4"/>
       <c r="AN189" s="4"/>
       <c r="AO189" s="4"/>
-    </row>
-    <row r="190" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP189" s="4"/>
+      <c r="AQ189" s="4"/>
+      <c r="AR189" s="4"/>
+      <c r="AS189" s="4"/>
+    </row>
+    <row r="190" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -9587,8 +10448,12 @@
       <c r="AM190" s="4"/>
       <c r="AN190" s="4"/>
       <c r="AO190" s="4"/>
-    </row>
-    <row r="191" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP190" s="4"/>
+      <c r="AQ190" s="4"/>
+      <c r="AR190" s="4"/>
+      <c r="AS190" s="4"/>
+    </row>
+    <row r="191" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -9628,8 +10493,12 @@
       <c r="AM191" s="4"/>
       <c r="AN191" s="4"/>
       <c r="AO191" s="4"/>
-    </row>
-    <row r="192" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP191" s="4"/>
+      <c r="AQ191" s="4"/>
+      <c r="AR191" s="4"/>
+      <c r="AS191" s="4"/>
+    </row>
+    <row r="192" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -9669,8 +10538,12 @@
       <c r="AM192" s="4"/>
       <c r="AN192" s="4"/>
       <c r="AO192" s="4"/>
-    </row>
-    <row r="193" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP192" s="4"/>
+      <c r="AQ192" s="4"/>
+      <c r="AR192" s="4"/>
+      <c r="AS192" s="4"/>
+    </row>
+    <row r="193" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -9710,8 +10583,12 @@
       <c r="AM193" s="4"/>
       <c r="AN193" s="4"/>
       <c r="AO193" s="4"/>
-    </row>
-    <row r="194" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP193" s="4"/>
+      <c r="AQ193" s="4"/>
+      <c r="AR193" s="4"/>
+      <c r="AS193" s="4"/>
+    </row>
+    <row r="194" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -9751,8 +10628,12 @@
       <c r="AM194" s="4"/>
       <c r="AN194" s="4"/>
       <c r="AO194" s="4"/>
-    </row>
-    <row r="195" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP194" s="4"/>
+      <c r="AQ194" s="4"/>
+      <c r="AR194" s="4"/>
+      <c r="AS194" s="4"/>
+    </row>
+    <row r="195" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -9792,8 +10673,12 @@
       <c r="AM195" s="4"/>
       <c r="AN195" s="4"/>
       <c r="AO195" s="4"/>
-    </row>
-    <row r="196" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP195" s="4"/>
+      <c r="AQ195" s="4"/>
+      <c r="AR195" s="4"/>
+      <c r="AS195" s="4"/>
+    </row>
+    <row r="196" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -9833,8 +10718,12 @@
       <c r="AM196" s="4"/>
       <c r="AN196" s="4"/>
       <c r="AO196" s="4"/>
-    </row>
-    <row r="197" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP196" s="4"/>
+      <c r="AQ196" s="4"/>
+      <c r="AR196" s="4"/>
+      <c r="AS196" s="4"/>
+    </row>
+    <row r="197" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -9874,8 +10763,12 @@
       <c r="AM197" s="4"/>
       <c r="AN197" s="4"/>
       <c r="AO197" s="4"/>
-    </row>
-    <row r="198" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP197" s="4"/>
+      <c r="AQ197" s="4"/>
+      <c r="AR197" s="4"/>
+      <c r="AS197" s="4"/>
+    </row>
+    <row r="198" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -9915,8 +10808,12 @@
       <c r="AM198" s="4"/>
       <c r="AN198" s="4"/>
       <c r="AO198" s="4"/>
-    </row>
-    <row r="199" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP198" s="4"/>
+      <c r="AQ198" s="4"/>
+      <c r="AR198" s="4"/>
+      <c r="AS198" s="4"/>
+    </row>
+    <row r="199" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -9956,8 +10853,12 @@
       <c r="AM199" s="4"/>
       <c r="AN199" s="4"/>
       <c r="AO199" s="4"/>
-    </row>
-    <row r="200" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP199" s="4"/>
+      <c r="AQ199" s="4"/>
+      <c r="AR199" s="4"/>
+      <c r="AS199" s="4"/>
+    </row>
+    <row r="200" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -9997,8 +10898,12 @@
       <c r="AM200" s="4"/>
       <c r="AN200" s="4"/>
       <c r="AO200" s="4"/>
-    </row>
-    <row r="201" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP200" s="4"/>
+      <c r="AQ200" s="4"/>
+      <c r="AR200" s="4"/>
+      <c r="AS200" s="4"/>
+    </row>
+    <row r="201" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -10038,8 +10943,12 @@
       <c r="AM201" s="4"/>
       <c r="AN201" s="4"/>
       <c r="AO201" s="4"/>
-    </row>
-    <row r="202" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP201" s="4"/>
+      <c r="AQ201" s="4"/>
+      <c r="AR201" s="4"/>
+      <c r="AS201" s="4"/>
+    </row>
+    <row r="202" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -10079,8 +10988,12 @@
       <c r="AM202" s="4"/>
       <c r="AN202" s="4"/>
       <c r="AO202" s="4"/>
-    </row>
-    <row r="203" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP202" s="4"/>
+      <c r="AQ202" s="4"/>
+      <c r="AR202" s="4"/>
+      <c r="AS202" s="4"/>
+    </row>
+    <row r="203" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -10120,8 +11033,12 @@
       <c r="AM203" s="4"/>
       <c r="AN203" s="4"/>
       <c r="AO203" s="4"/>
-    </row>
-    <row r="204" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP203" s="4"/>
+      <c r="AQ203" s="4"/>
+      <c r="AR203" s="4"/>
+      <c r="AS203" s="4"/>
+    </row>
+    <row r="204" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -10161,8 +11078,12 @@
       <c r="AM204" s="4"/>
       <c r="AN204" s="4"/>
       <c r="AO204" s="4"/>
-    </row>
-    <row r="205" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP204" s="4"/>
+      <c r="AQ204" s="4"/>
+      <c r="AR204" s="4"/>
+      <c r="AS204" s="4"/>
+    </row>
+    <row r="205" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -10202,8 +11123,12 @@
       <c r="AM205" s="4"/>
       <c r="AN205" s="4"/>
       <c r="AO205" s="4"/>
-    </row>
-    <row r="206" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP205" s="4"/>
+      <c r="AQ205" s="4"/>
+      <c r="AR205" s="4"/>
+      <c r="AS205" s="4"/>
+    </row>
+    <row r="206" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -10243,8 +11168,12 @@
       <c r="AM206" s="4"/>
       <c r="AN206" s="4"/>
       <c r="AO206" s="4"/>
-    </row>
-    <row r="207" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP206" s="4"/>
+      <c r="AQ206" s="4"/>
+      <c r="AR206" s="4"/>
+      <c r="AS206" s="4"/>
+    </row>
+    <row r="207" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -10284,8 +11213,12 @@
       <c r="AM207" s="4"/>
       <c r="AN207" s="4"/>
       <c r="AO207" s="4"/>
-    </row>
-    <row r="208" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP207" s="4"/>
+      <c r="AQ207" s="4"/>
+      <c r="AR207" s="4"/>
+      <c r="AS207" s="4"/>
+    </row>
+    <row r="208" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -10325,8 +11258,12 @@
       <c r="AM208" s="4"/>
       <c r="AN208" s="4"/>
       <c r="AO208" s="4"/>
-    </row>
-    <row r="209" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP208" s="4"/>
+      <c r="AQ208" s="4"/>
+      <c r="AR208" s="4"/>
+      <c r="AS208" s="4"/>
+    </row>
+    <row r="209" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -10366,8 +11303,12 @@
       <c r="AM209" s="4"/>
       <c r="AN209" s="4"/>
       <c r="AO209" s="4"/>
-    </row>
-    <row r="210" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP209" s="4"/>
+      <c r="AQ209" s="4"/>
+      <c r="AR209" s="4"/>
+      <c r="AS209" s="4"/>
+    </row>
+    <row r="210" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -10407,8 +11348,12 @@
       <c r="AM210" s="4"/>
       <c r="AN210" s="4"/>
       <c r="AO210" s="4"/>
-    </row>
-    <row r="211" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP210" s="4"/>
+      <c r="AQ210" s="4"/>
+      <c r="AR210" s="4"/>
+      <c r="AS210" s="4"/>
+    </row>
+    <row r="211" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -10448,8 +11393,12 @@
       <c r="AM211" s="4"/>
       <c r="AN211" s="4"/>
       <c r="AO211" s="4"/>
-    </row>
-    <row r="212" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP211" s="4"/>
+      <c r="AQ211" s="4"/>
+      <c r="AR211" s="4"/>
+      <c r="AS211" s="4"/>
+    </row>
+    <row r="212" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -10489,8 +11438,12 @@
       <c r="AM212" s="4"/>
       <c r="AN212" s="4"/>
       <c r="AO212" s="4"/>
-    </row>
-    <row r="213" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP212" s="4"/>
+      <c r="AQ212" s="4"/>
+      <c r="AR212" s="4"/>
+      <c r="AS212" s="4"/>
+    </row>
+    <row r="213" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -10530,8 +11483,12 @@
       <c r="AM213" s="4"/>
       <c r="AN213" s="4"/>
       <c r="AO213" s="4"/>
-    </row>
-    <row r="214" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP213" s="4"/>
+      <c r="AQ213" s="4"/>
+      <c r="AR213" s="4"/>
+      <c r="AS213" s="4"/>
+    </row>
+    <row r="214" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -10571,8 +11528,12 @@
       <c r="AM214" s="4"/>
       <c r="AN214" s="4"/>
       <c r="AO214" s="4"/>
-    </row>
-    <row r="215" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP214" s="4"/>
+      <c r="AQ214" s="4"/>
+      <c r="AR214" s="4"/>
+      <c r="AS214" s="4"/>
+    </row>
+    <row r="215" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -10612,8 +11573,12 @@
       <c r="AM215" s="4"/>
       <c r="AN215" s="4"/>
       <c r="AO215" s="4"/>
-    </row>
-    <row r="216" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP215" s="4"/>
+      <c r="AQ215" s="4"/>
+      <c r="AR215" s="4"/>
+      <c r="AS215" s="4"/>
+    </row>
+    <row r="216" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -10653,8 +11618,12 @@
       <c r="AM216" s="4"/>
       <c r="AN216" s="4"/>
       <c r="AO216" s="4"/>
-    </row>
-    <row r="217" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP216" s="4"/>
+      <c r="AQ216" s="4"/>
+      <c r="AR216" s="4"/>
+      <c r="AS216" s="4"/>
+    </row>
+    <row r="217" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -10694,8 +11663,12 @@
       <c r="AM217" s="4"/>
       <c r="AN217" s="4"/>
       <c r="AO217" s="4"/>
-    </row>
-    <row r="218" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP217" s="4"/>
+      <c r="AQ217" s="4"/>
+      <c r="AR217" s="4"/>
+      <c r="AS217" s="4"/>
+    </row>
+    <row r="218" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -10735,8 +11708,12 @@
       <c r="AM218" s="4"/>
       <c r="AN218" s="4"/>
       <c r="AO218" s="4"/>
-    </row>
-    <row r="219" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP218" s="4"/>
+      <c r="AQ218" s="4"/>
+      <c r="AR218" s="4"/>
+      <c r="AS218" s="4"/>
+    </row>
+    <row r="219" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -10776,8 +11753,12 @@
       <c r="AM219" s="4"/>
       <c r="AN219" s="4"/>
       <c r="AO219" s="4"/>
-    </row>
-    <row r="220" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP219" s="4"/>
+      <c r="AQ219" s="4"/>
+      <c r="AR219" s="4"/>
+      <c r="AS219" s="4"/>
+    </row>
+    <row r="220" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -10817,8 +11798,12 @@
       <c r="AM220" s="4"/>
       <c r="AN220" s="4"/>
       <c r="AO220" s="4"/>
-    </row>
-    <row r="221" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP220" s="4"/>
+      <c r="AQ220" s="4"/>
+      <c r="AR220" s="4"/>
+      <c r="AS220" s="4"/>
+    </row>
+    <row r="221" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -10858,8 +11843,12 @@
       <c r="AM221" s="4"/>
       <c r="AN221" s="4"/>
       <c r="AO221" s="4"/>
-    </row>
-    <row r="222" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP221" s="4"/>
+      <c r="AQ221" s="4"/>
+      <c r="AR221" s="4"/>
+      <c r="AS221" s="4"/>
+    </row>
+    <row r="222" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -10899,8 +11888,12 @@
       <c r="AM222" s="4"/>
       <c r="AN222" s="4"/>
       <c r="AO222" s="4"/>
-    </row>
-    <row r="223" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP222" s="4"/>
+      <c r="AQ222" s="4"/>
+      <c r="AR222" s="4"/>
+      <c r="AS222" s="4"/>
+    </row>
+    <row r="223" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -10940,8 +11933,12 @@
       <c r="AM223" s="4"/>
       <c r="AN223" s="4"/>
       <c r="AO223" s="4"/>
-    </row>
-    <row r="224" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP223" s="4"/>
+      <c r="AQ223" s="4"/>
+      <c r="AR223" s="4"/>
+      <c r="AS223" s="4"/>
+    </row>
+    <row r="224" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -10981,8 +11978,12 @@
       <c r="AM224" s="4"/>
       <c r="AN224" s="4"/>
       <c r="AO224" s="4"/>
-    </row>
-    <row r="225" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP224" s="4"/>
+      <c r="AQ224" s="4"/>
+      <c r="AR224" s="4"/>
+      <c r="AS224" s="4"/>
+    </row>
+    <row r="225" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -11022,8 +12023,12 @@
       <c r="AM225" s="4"/>
       <c r="AN225" s="4"/>
       <c r="AO225" s="4"/>
-    </row>
-    <row r="226" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP225" s="4"/>
+      <c r="AQ225" s="4"/>
+      <c r="AR225" s="4"/>
+      <c r="AS225" s="4"/>
+    </row>
+    <row r="226" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -11063,8 +12068,12 @@
       <c r="AM226" s="4"/>
       <c r="AN226" s="4"/>
       <c r="AO226" s="4"/>
-    </row>
-    <row r="227" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP226" s="4"/>
+      <c r="AQ226" s="4"/>
+      <c r="AR226" s="4"/>
+      <c r="AS226" s="4"/>
+    </row>
+    <row r="227" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -11104,8 +12113,12 @@
       <c r="AM227" s="4"/>
       <c r="AN227" s="4"/>
       <c r="AO227" s="4"/>
-    </row>
-    <row r="228" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP227" s="4"/>
+      <c r="AQ227" s="4"/>
+      <c r="AR227" s="4"/>
+      <c r="AS227" s="4"/>
+    </row>
+    <row r="228" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -11145,8 +12158,12 @@
       <c r="AM228" s="4"/>
       <c r="AN228" s="4"/>
       <c r="AO228" s="4"/>
-    </row>
-    <row r="229" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP228" s="4"/>
+      <c r="AQ228" s="4"/>
+      <c r="AR228" s="4"/>
+      <c r="AS228" s="4"/>
+    </row>
+    <row r="229" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -11186,8 +12203,12 @@
       <c r="AM229" s="4"/>
       <c r="AN229" s="4"/>
       <c r="AO229" s="4"/>
-    </row>
-    <row r="230" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP229" s="4"/>
+      <c r="AQ229" s="4"/>
+      <c r="AR229" s="4"/>
+      <c r="AS229" s="4"/>
+    </row>
+    <row r="230" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -11227,8 +12248,12 @@
       <c r="AM230" s="4"/>
       <c r="AN230" s="4"/>
       <c r="AO230" s="4"/>
-    </row>
-    <row r="231" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP230" s="4"/>
+      <c r="AQ230" s="4"/>
+      <c r="AR230" s="4"/>
+      <c r="AS230" s="4"/>
+    </row>
+    <row r="231" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -11268,8 +12293,12 @@
       <c r="AM231" s="4"/>
       <c r="AN231" s="4"/>
       <c r="AO231" s="4"/>
-    </row>
-    <row r="232" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP231" s="4"/>
+      <c r="AQ231" s="4"/>
+      <c r="AR231" s="4"/>
+      <c r="AS231" s="4"/>
+    </row>
+    <row r="232" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -11309,8 +12338,12 @@
       <c r="AM232" s="4"/>
       <c r="AN232" s="4"/>
       <c r="AO232" s="4"/>
-    </row>
-    <row r="233" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP232" s="4"/>
+      <c r="AQ232" s="4"/>
+      <c r="AR232" s="4"/>
+      <c r="AS232" s="4"/>
+    </row>
+    <row r="233" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -11350,8 +12383,12 @@
       <c r="AM233" s="4"/>
       <c r="AN233" s="4"/>
       <c r="AO233" s="4"/>
-    </row>
-    <row r="234" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP233" s="4"/>
+      <c r="AQ233" s="4"/>
+      <c r="AR233" s="4"/>
+      <c r="AS233" s="4"/>
+    </row>
+    <row r="234" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -11391,8 +12428,12 @@
       <c r="AM234" s="4"/>
       <c r="AN234" s="4"/>
       <c r="AO234" s="4"/>
-    </row>
-    <row r="235" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP234" s="4"/>
+      <c r="AQ234" s="4"/>
+      <c r="AR234" s="4"/>
+      <c r="AS234" s="4"/>
+    </row>
+    <row r="235" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -11432,8 +12473,12 @@
       <c r="AM235" s="4"/>
       <c r="AN235" s="4"/>
       <c r="AO235" s="4"/>
-    </row>
-    <row r="236" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP235" s="4"/>
+      <c r="AQ235" s="4"/>
+      <c r="AR235" s="4"/>
+      <c r="AS235" s="4"/>
+    </row>
+    <row r="236" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -11473,8 +12518,12 @@
       <c r="AM236" s="4"/>
       <c r="AN236" s="4"/>
       <c r="AO236" s="4"/>
-    </row>
-    <row r="237" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP236" s="4"/>
+      <c r="AQ236" s="4"/>
+      <c r="AR236" s="4"/>
+      <c r="AS236" s="4"/>
+    </row>
+    <row r="237" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -11514,8 +12563,12 @@
       <c r="AM237" s="4"/>
       <c r="AN237" s="4"/>
       <c r="AO237" s="4"/>
-    </row>
-    <row r="238" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP237" s="4"/>
+      <c r="AQ237" s="4"/>
+      <c r="AR237" s="4"/>
+      <c r="AS237" s="4"/>
+    </row>
+    <row r="238" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -11555,8 +12608,12 @@
       <c r="AM238" s="4"/>
       <c r="AN238" s="4"/>
       <c r="AO238" s="4"/>
-    </row>
-    <row r="239" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP238" s="4"/>
+      <c r="AQ238" s="4"/>
+      <c r="AR238" s="4"/>
+      <c r="AS238" s="4"/>
+    </row>
+    <row r="239" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -11596,8 +12653,12 @@
       <c r="AM239" s="4"/>
       <c r="AN239" s="4"/>
       <c r="AO239" s="4"/>
-    </row>
-    <row r="240" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP239" s="4"/>
+      <c r="AQ239" s="4"/>
+      <c r="AR239" s="4"/>
+      <c r="AS239" s="4"/>
+    </row>
+    <row r="240" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -11637,8 +12698,12 @@
       <c r="AM240" s="4"/>
       <c r="AN240" s="4"/>
       <c r="AO240" s="4"/>
-    </row>
-    <row r="241" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP240" s="4"/>
+      <c r="AQ240" s="4"/>
+      <c r="AR240" s="4"/>
+      <c r="AS240" s="4"/>
+    </row>
+    <row r="241" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -11678,8 +12743,12 @@
       <c r="AM241" s="4"/>
       <c r="AN241" s="4"/>
       <c r="AO241" s="4"/>
-    </row>
-    <row r="242" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP241" s="4"/>
+      <c r="AQ241" s="4"/>
+      <c r="AR241" s="4"/>
+      <c r="AS241" s="4"/>
+    </row>
+    <row r="242" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -11719,8 +12788,12 @@
       <c r="AM242" s="4"/>
       <c r="AN242" s="4"/>
       <c r="AO242" s="4"/>
-    </row>
-    <row r="243" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP242" s="4"/>
+      <c r="AQ242" s="4"/>
+      <c r="AR242" s="4"/>
+      <c r="AS242" s="4"/>
+    </row>
+    <row r="243" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -11760,8 +12833,12 @@
       <c r="AM243" s="4"/>
       <c r="AN243" s="4"/>
       <c r="AO243" s="4"/>
-    </row>
-    <row r="244" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP243" s="4"/>
+      <c r="AQ243" s="4"/>
+      <c r="AR243" s="4"/>
+      <c r="AS243" s="4"/>
+    </row>
+    <row r="244" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -11801,8 +12878,12 @@
       <c r="AM244" s="4"/>
       <c r="AN244" s="4"/>
       <c r="AO244" s="4"/>
-    </row>
-    <row r="245" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP244" s="4"/>
+      <c r="AQ244" s="4"/>
+      <c r="AR244" s="4"/>
+      <c r="AS244" s="4"/>
+    </row>
+    <row r="245" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -11842,8 +12923,12 @@
       <c r="AM245" s="4"/>
       <c r="AN245" s="4"/>
       <c r="AO245" s="4"/>
-    </row>
-    <row r="246" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP245" s="4"/>
+      <c r="AQ245" s="4"/>
+      <c r="AR245" s="4"/>
+      <c r="AS245" s="4"/>
+    </row>
+    <row r="246" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -11883,8 +12968,12 @@
       <c r="AM246" s="4"/>
       <c r="AN246" s="4"/>
       <c r="AO246" s="4"/>
-    </row>
-    <row r="247" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP246" s="4"/>
+      <c r="AQ246" s="4"/>
+      <c r="AR246" s="4"/>
+      <c r="AS246" s="4"/>
+    </row>
+    <row r="247" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -11924,8 +13013,12 @@
       <c r="AM247" s="4"/>
       <c r="AN247" s="4"/>
       <c r="AO247" s="4"/>
-    </row>
-    <row r="248" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP247" s="4"/>
+      <c r="AQ247" s="4"/>
+      <c r="AR247" s="4"/>
+      <c r="AS247" s="4"/>
+    </row>
+    <row r="248" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -11965,8 +13058,12 @@
       <c r="AM248" s="4"/>
       <c r="AN248" s="4"/>
       <c r="AO248" s="4"/>
-    </row>
-    <row r="249" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP248" s="4"/>
+      <c r="AQ248" s="4"/>
+      <c r="AR248" s="4"/>
+      <c r="AS248" s="4"/>
+    </row>
+    <row r="249" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -12006,8 +13103,12 @@
       <c r="AM249" s="4"/>
       <c r="AN249" s="4"/>
       <c r="AO249" s="4"/>
-    </row>
-    <row r="250" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP249" s="4"/>
+      <c r="AQ249" s="4"/>
+      <c r="AR249" s="4"/>
+      <c r="AS249" s="4"/>
+    </row>
+    <row r="250" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -12047,8 +13148,12 @@
       <c r="AM250" s="4"/>
       <c r="AN250" s="4"/>
       <c r="AO250" s="4"/>
-    </row>
-    <row r="251" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP250" s="4"/>
+      <c r="AQ250" s="4"/>
+      <c r="AR250" s="4"/>
+      <c r="AS250" s="4"/>
+    </row>
+    <row r="251" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -12088,8 +13193,12 @@
       <c r="AM251" s="4"/>
       <c r="AN251" s="4"/>
       <c r="AO251" s="4"/>
-    </row>
-    <row r="252" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP251" s="4"/>
+      <c r="AQ251" s="4"/>
+      <c r="AR251" s="4"/>
+      <c r="AS251" s="4"/>
+    </row>
+    <row r="252" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -12129,8 +13238,12 @@
       <c r="AM252" s="4"/>
       <c r="AN252" s="4"/>
       <c r="AO252" s="4"/>
-    </row>
-    <row r="253" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP252" s="4"/>
+      <c r="AQ252" s="4"/>
+      <c r="AR252" s="4"/>
+      <c r="AS252" s="4"/>
+    </row>
+    <row r="253" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -12170,8 +13283,12 @@
       <c r="AM253" s="4"/>
       <c r="AN253" s="4"/>
       <c r="AO253" s="4"/>
-    </row>
-    <row r="254" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP253" s="4"/>
+      <c r="AQ253" s="4"/>
+      <c r="AR253" s="4"/>
+      <c r="AS253" s="4"/>
+    </row>
+    <row r="254" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -12211,8 +13328,12 @@
       <c r="AM254" s="4"/>
       <c r="AN254" s="4"/>
       <c r="AO254" s="4"/>
-    </row>
-    <row r="255" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP254" s="4"/>
+      <c r="AQ254" s="4"/>
+      <c r="AR254" s="4"/>
+      <c r="AS254" s="4"/>
+    </row>
+    <row r="255" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -12252,8 +13373,12 @@
       <c r="AM255" s="4"/>
       <c r="AN255" s="4"/>
       <c r="AO255" s="4"/>
-    </row>
-    <row r="256" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP255" s="4"/>
+      <c r="AQ255" s="4"/>
+      <c r="AR255" s="4"/>
+      <c r="AS255" s="4"/>
+    </row>
+    <row r="256" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -12293,8 +13418,12 @@
       <c r="AM256" s="4"/>
       <c r="AN256" s="4"/>
       <c r="AO256" s="4"/>
-    </row>
-    <row r="257" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP256" s="4"/>
+      <c r="AQ256" s="4"/>
+      <c r="AR256" s="4"/>
+      <c r="AS256" s="4"/>
+    </row>
+    <row r="257" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -12334,8 +13463,12 @@
       <c r="AM257" s="4"/>
       <c r="AN257" s="4"/>
       <c r="AO257" s="4"/>
-    </row>
-    <row r="258" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP257" s="4"/>
+      <c r="AQ257" s="4"/>
+      <c r="AR257" s="4"/>
+      <c r="AS257" s="4"/>
+    </row>
+    <row r="258" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -12375,8 +13508,12 @@
       <c r="AM258" s="4"/>
       <c r="AN258" s="4"/>
       <c r="AO258" s="4"/>
-    </row>
-    <row r="259" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP258" s="4"/>
+      <c r="AQ258" s="4"/>
+      <c r="AR258" s="4"/>
+      <c r="AS258" s="4"/>
+    </row>
+    <row r="259" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -12416,8 +13553,12 @@
       <c r="AM259" s="4"/>
       <c r="AN259" s="4"/>
       <c r="AO259" s="4"/>
-    </row>
-    <row r="260" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP259" s="4"/>
+      <c r="AQ259" s="4"/>
+      <c r="AR259" s="4"/>
+      <c r="AS259" s="4"/>
+    </row>
+    <row r="260" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -12457,8 +13598,12 @@
       <c r="AM260" s="4"/>
       <c r="AN260" s="4"/>
       <c r="AO260" s="4"/>
-    </row>
-    <row r="261" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP260" s="4"/>
+      <c r="AQ260" s="4"/>
+      <c r="AR260" s="4"/>
+      <c r="AS260" s="4"/>
+    </row>
+    <row r="261" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -12498,8 +13643,12 @@
       <c r="AM261" s="4"/>
       <c r="AN261" s="4"/>
       <c r="AO261" s="4"/>
-    </row>
-    <row r="262" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP261" s="4"/>
+      <c r="AQ261" s="4"/>
+      <c r="AR261" s="4"/>
+      <c r="AS261" s="4"/>
+    </row>
+    <row r="262" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -12539,8 +13688,12 @@
       <c r="AM262" s="4"/>
       <c r="AN262" s="4"/>
       <c r="AO262" s="4"/>
-    </row>
-    <row r="263" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP262" s="4"/>
+      <c r="AQ262" s="4"/>
+      <c r="AR262" s="4"/>
+      <c r="AS262" s="4"/>
+    </row>
+    <row r="263" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -12580,8 +13733,12 @@
       <c r="AM263" s="4"/>
       <c r="AN263" s="4"/>
       <c r="AO263" s="4"/>
-    </row>
-    <row r="264" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP263" s="4"/>
+      <c r="AQ263" s="4"/>
+      <c r="AR263" s="4"/>
+      <c r="AS263" s="4"/>
+    </row>
+    <row r="264" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -12621,8 +13778,12 @@
       <c r="AM264" s="4"/>
       <c r="AN264" s="4"/>
       <c r="AO264" s="4"/>
-    </row>
-    <row r="265" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP264" s="4"/>
+      <c r="AQ264" s="4"/>
+      <c r="AR264" s="4"/>
+      <c r="AS264" s="4"/>
+    </row>
+    <row r="265" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -12662,8 +13823,12 @@
       <c r="AM265" s="4"/>
       <c r="AN265" s="4"/>
       <c r="AO265" s="4"/>
-    </row>
-    <row r="266" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP265" s="4"/>
+      <c r="AQ265" s="4"/>
+      <c r="AR265" s="4"/>
+      <c r="AS265" s="4"/>
+    </row>
+    <row r="266" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -12703,8 +13868,12 @@
       <c r="AM266" s="4"/>
       <c r="AN266" s="4"/>
       <c r="AO266" s="4"/>
-    </row>
-    <row r="267" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP266" s="4"/>
+      <c r="AQ266" s="4"/>
+      <c r="AR266" s="4"/>
+      <c r="AS266" s="4"/>
+    </row>
+    <row r="267" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -12744,8 +13913,12 @@
       <c r="AM267" s="4"/>
       <c r="AN267" s="4"/>
       <c r="AO267" s="4"/>
-    </row>
-    <row r="268" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP267" s="4"/>
+      <c r="AQ267" s="4"/>
+      <c r="AR267" s="4"/>
+      <c r="AS267" s="4"/>
+    </row>
+    <row r="268" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -12785,8 +13958,12 @@
       <c r="AM268" s="4"/>
       <c r="AN268" s="4"/>
       <c r="AO268" s="4"/>
-    </row>
-    <row r="269" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP268" s="4"/>
+      <c r="AQ268" s="4"/>
+      <c r="AR268" s="4"/>
+      <c r="AS268" s="4"/>
+    </row>
+    <row r="269" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -12826,8 +14003,12 @@
       <c r="AM269" s="4"/>
       <c r="AN269" s="4"/>
       <c r="AO269" s="4"/>
-    </row>
-    <row r="270" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP269" s="4"/>
+      <c r="AQ269" s="4"/>
+      <c r="AR269" s="4"/>
+      <c r="AS269" s="4"/>
+    </row>
+    <row r="270" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -12867,8 +14048,12 @@
       <c r="AM270" s="4"/>
       <c r="AN270" s="4"/>
       <c r="AO270" s="4"/>
-    </row>
-    <row r="271" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP270" s="4"/>
+      <c r="AQ270" s="4"/>
+      <c r="AR270" s="4"/>
+      <c r="AS270" s="4"/>
+    </row>
+    <row r="271" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -12908,8 +14093,12 @@
       <c r="AM271" s="4"/>
       <c r="AN271" s="4"/>
       <c r="AO271" s="4"/>
-    </row>
-    <row r="272" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP271" s="4"/>
+      <c r="AQ271" s="4"/>
+      <c r="AR271" s="4"/>
+      <c r="AS271" s="4"/>
+    </row>
+    <row r="272" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -12949,8 +14138,12 @@
       <c r="AM272" s="4"/>
       <c r="AN272" s="4"/>
       <c r="AO272" s="4"/>
-    </row>
-    <row r="273" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP272" s="4"/>
+      <c r="AQ272" s="4"/>
+      <c r="AR272" s="4"/>
+      <c r="AS272" s="4"/>
+    </row>
+    <row r="273" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -12990,8 +14183,12 @@
       <c r="AM273" s="4"/>
       <c r="AN273" s="4"/>
       <c r="AO273" s="4"/>
-    </row>
-    <row r="274" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP273" s="4"/>
+      <c r="AQ273" s="4"/>
+      <c r="AR273" s="4"/>
+      <c r="AS273" s="4"/>
+    </row>
+    <row r="274" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -13031,8 +14228,12 @@
       <c r="AM274" s="4"/>
       <c r="AN274" s="4"/>
       <c r="AO274" s="4"/>
-    </row>
-    <row r="275" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP274" s="4"/>
+      <c r="AQ274" s="4"/>
+      <c r="AR274" s="4"/>
+      <c r="AS274" s="4"/>
+    </row>
+    <row r="275" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -13072,8 +14273,12 @@
       <c r="AM275" s="4"/>
       <c r="AN275" s="4"/>
       <c r="AO275" s="4"/>
-    </row>
-    <row r="276" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP275" s="4"/>
+      <c r="AQ275" s="4"/>
+      <c r="AR275" s="4"/>
+      <c r="AS275" s="4"/>
+    </row>
+    <row r="276" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -13113,8 +14318,12 @@
       <c r="AM276" s="4"/>
       <c r="AN276" s="4"/>
       <c r="AO276" s="4"/>
-    </row>
-    <row r="277" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP276" s="4"/>
+      <c r="AQ276" s="4"/>
+      <c r="AR276" s="4"/>
+      <c r="AS276" s="4"/>
+    </row>
+    <row r="277" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -13154,8 +14363,12 @@
       <c r="AM277" s="4"/>
       <c r="AN277" s="4"/>
       <c r="AO277" s="4"/>
-    </row>
-    <row r="278" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP277" s="4"/>
+      <c r="AQ277" s="4"/>
+      <c r="AR277" s="4"/>
+      <c r="AS277" s="4"/>
+    </row>
+    <row r="278" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -13195,8 +14408,12 @@
       <c r="AM278" s="4"/>
       <c r="AN278" s="4"/>
       <c r="AO278" s="4"/>
-    </row>
-    <row r="279" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP278" s="4"/>
+      <c r="AQ278" s="4"/>
+      <c r="AR278" s="4"/>
+      <c r="AS278" s="4"/>
+    </row>
+    <row r="279" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -13236,8 +14453,12 @@
       <c r="AM279" s="4"/>
       <c r="AN279" s="4"/>
       <c r="AO279" s="4"/>
-    </row>
-    <row r="280" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP279" s="4"/>
+      <c r="AQ279" s="4"/>
+      <c r="AR279" s="4"/>
+      <c r="AS279" s="4"/>
+    </row>
+    <row r="280" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -13277,8 +14498,12 @@
       <c r="AM280" s="4"/>
       <c r="AN280" s="4"/>
       <c r="AO280" s="4"/>
-    </row>
-    <row r="281" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP280" s="4"/>
+      <c r="AQ280" s="4"/>
+      <c r="AR280" s="4"/>
+      <c r="AS280" s="4"/>
+    </row>
+    <row r="281" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -13318,8 +14543,12 @@
       <c r="AM281" s="4"/>
       <c r="AN281" s="4"/>
       <c r="AO281" s="4"/>
-    </row>
-    <row r="282" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP281" s="4"/>
+      <c r="AQ281" s="4"/>
+      <c r="AR281" s="4"/>
+      <c r="AS281" s="4"/>
+    </row>
+    <row r="282" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -13359,8 +14588,12 @@
       <c r="AM282" s="4"/>
       <c r="AN282" s="4"/>
       <c r="AO282" s="4"/>
-    </row>
-    <row r="283" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP282" s="4"/>
+      <c r="AQ282" s="4"/>
+      <c r="AR282" s="4"/>
+      <c r="AS282" s="4"/>
+    </row>
+    <row r="283" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -13400,8 +14633,12 @@
       <c r="AM283" s="4"/>
       <c r="AN283" s="4"/>
       <c r="AO283" s="4"/>
-    </row>
-    <row r="284" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP283" s="4"/>
+      <c r="AQ283" s="4"/>
+      <c r="AR283" s="4"/>
+      <c r="AS283" s="4"/>
+    </row>
+    <row r="284" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -13441,8 +14678,12 @@
       <c r="AM284" s="4"/>
       <c r="AN284" s="4"/>
       <c r="AO284" s="4"/>
-    </row>
-    <row r="285" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP284" s="4"/>
+      <c r="AQ284" s="4"/>
+      <c r="AR284" s="4"/>
+      <c r="AS284" s="4"/>
+    </row>
+    <row r="285" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -13482,8 +14723,12 @@
       <c r="AM285" s="4"/>
       <c r="AN285" s="4"/>
       <c r="AO285" s="4"/>
-    </row>
-    <row r="286" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP285" s="4"/>
+      <c r="AQ285" s="4"/>
+      <c r="AR285" s="4"/>
+      <c r="AS285" s="4"/>
+    </row>
+    <row r="286" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -13523,8 +14768,12 @@
       <c r="AM286" s="4"/>
       <c r="AN286" s="4"/>
       <c r="AO286" s="4"/>
-    </row>
-    <row r="287" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP286" s="4"/>
+      <c r="AQ286" s="4"/>
+      <c r="AR286" s="4"/>
+      <c r="AS286" s="4"/>
+    </row>
+    <row r="287" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -13564,8 +14813,12 @@
       <c r="AM287" s="4"/>
       <c r="AN287" s="4"/>
       <c r="AO287" s="4"/>
-    </row>
-    <row r="288" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP287" s="4"/>
+      <c r="AQ287" s="4"/>
+      <c r="AR287" s="4"/>
+      <c r="AS287" s="4"/>
+    </row>
+    <row r="288" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -13605,8 +14858,12 @@
       <c r="AM288" s="4"/>
       <c r="AN288" s="4"/>
       <c r="AO288" s="4"/>
-    </row>
-    <row r="289" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP288" s="4"/>
+      <c r="AQ288" s="4"/>
+      <c r="AR288" s="4"/>
+      <c r="AS288" s="4"/>
+    </row>
+    <row r="289" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -13646,8 +14903,12 @@
       <c r="AM289" s="4"/>
       <c r="AN289" s="4"/>
       <c r="AO289" s="4"/>
-    </row>
-    <row r="290" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP289" s="4"/>
+      <c r="AQ289" s="4"/>
+      <c r="AR289" s="4"/>
+      <c r="AS289" s="4"/>
+    </row>
+    <row r="290" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -13687,8 +14948,12 @@
       <c r="AM290" s="4"/>
       <c r="AN290" s="4"/>
       <c r="AO290" s="4"/>
-    </row>
-    <row r="291" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP290" s="4"/>
+      <c r="AQ290" s="4"/>
+      <c r="AR290" s="4"/>
+      <c r="AS290" s="4"/>
+    </row>
+    <row r="291" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -13728,8 +14993,12 @@
       <c r="AM291" s="4"/>
       <c r="AN291" s="4"/>
       <c r="AO291" s="4"/>
-    </row>
-    <row r="292" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP291" s="4"/>
+      <c r="AQ291" s="4"/>
+      <c r="AR291" s="4"/>
+      <c r="AS291" s="4"/>
+    </row>
+    <row r="292" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -13769,8 +15038,12 @@
       <c r="AM292" s="4"/>
       <c r="AN292" s="4"/>
       <c r="AO292" s="4"/>
-    </row>
-    <row r="293" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP292" s="4"/>
+      <c r="AQ292" s="4"/>
+      <c r="AR292" s="4"/>
+      <c r="AS292" s="4"/>
+    </row>
+    <row r="293" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -13810,8 +15083,12 @@
       <c r="AM293" s="4"/>
       <c r="AN293" s="4"/>
       <c r="AO293" s="4"/>
-    </row>
-    <row r="294" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP293" s="4"/>
+      <c r="AQ293" s="4"/>
+      <c r="AR293" s="4"/>
+      <c r="AS293" s="4"/>
+    </row>
+    <row r="294" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -13851,8 +15128,12 @@
       <c r="AM294" s="4"/>
       <c r="AN294" s="4"/>
       <c r="AO294" s="4"/>
-    </row>
-    <row r="295" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP294" s="4"/>
+      <c r="AQ294" s="4"/>
+      <c r="AR294" s="4"/>
+      <c r="AS294" s="4"/>
+    </row>
+    <row r="295" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -13892,8 +15173,12 @@
       <c r="AM295" s="4"/>
       <c r="AN295" s="4"/>
       <c r="AO295" s="4"/>
-    </row>
-    <row r="296" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP295" s="4"/>
+      <c r="AQ295" s="4"/>
+      <c r="AR295" s="4"/>
+      <c r="AS295" s="4"/>
+    </row>
+    <row r="296" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -13933,8 +15218,12 @@
       <c r="AM296" s="4"/>
       <c r="AN296" s="4"/>
       <c r="AO296" s="4"/>
-    </row>
-    <row r="297" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP296" s="4"/>
+      <c r="AQ296" s="4"/>
+      <c r="AR296" s="4"/>
+      <c r="AS296" s="4"/>
+    </row>
+    <row r="297" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -13974,8 +15263,12 @@
       <c r="AM297" s="4"/>
       <c r="AN297" s="4"/>
       <c r="AO297" s="4"/>
-    </row>
-    <row r="298" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP297" s="4"/>
+      <c r="AQ297" s="4"/>
+      <c r="AR297" s="4"/>
+      <c r="AS297" s="4"/>
+    </row>
+    <row r="298" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -14015,8 +15308,12 @@
       <c r="AM298" s="4"/>
       <c r="AN298" s="4"/>
       <c r="AO298" s="4"/>
-    </row>
-    <row r="299" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP298" s="4"/>
+      <c r="AQ298" s="4"/>
+      <c r="AR298" s="4"/>
+      <c r="AS298" s="4"/>
+    </row>
+    <row r="299" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -14056,8 +15353,12 @@
       <c r="AM299" s="4"/>
       <c r="AN299" s="4"/>
       <c r="AO299" s="4"/>
-    </row>
-    <row r="300" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP299" s="4"/>
+      <c r="AQ299" s="4"/>
+      <c r="AR299" s="4"/>
+      <c r="AS299" s="4"/>
+    </row>
+    <row r="300" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -14097,8 +15398,12 @@
       <c r="AM300" s="4"/>
       <c r="AN300" s="4"/>
       <c r="AO300" s="4"/>
-    </row>
-    <row r="301" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP300" s="4"/>
+      <c r="AQ300" s="4"/>
+      <c r="AR300" s="4"/>
+      <c r="AS300" s="4"/>
+    </row>
+    <row r="301" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -14138,8 +15443,12 @@
       <c r="AM301" s="4"/>
       <c r="AN301" s="4"/>
       <c r="AO301" s="4"/>
-    </row>
-    <row r="302" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP301" s="4"/>
+      <c r="AQ301" s="4"/>
+      <c r="AR301" s="4"/>
+      <c r="AS301" s="4"/>
+    </row>
+    <row r="302" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -14179,8 +15488,12 @@
       <c r="AM302" s="4"/>
       <c r="AN302" s="4"/>
       <c r="AO302" s="4"/>
-    </row>
-    <row r="303" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP302" s="4"/>
+      <c r="AQ302" s="4"/>
+      <c r="AR302" s="4"/>
+      <c r="AS302" s="4"/>
+    </row>
+    <row r="303" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -14220,8 +15533,12 @@
       <c r="AM303" s="4"/>
       <c r="AN303" s="4"/>
       <c r="AO303" s="4"/>
-    </row>
-    <row r="304" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP303" s="4"/>
+      <c r="AQ303" s="4"/>
+      <c r="AR303" s="4"/>
+      <c r="AS303" s="4"/>
+    </row>
+    <row r="304" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -14261,8 +15578,12 @@
       <c r="AM304" s="4"/>
       <c r="AN304" s="4"/>
       <c r="AO304" s="4"/>
-    </row>
-    <row r="305" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP304" s="4"/>
+      <c r="AQ304" s="4"/>
+      <c r="AR304" s="4"/>
+      <c r="AS304" s="4"/>
+    </row>
+    <row r="305" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -14302,8 +15623,12 @@
       <c r="AM305" s="4"/>
       <c r="AN305" s="4"/>
       <c r="AO305" s="4"/>
-    </row>
-    <row r="306" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP305" s="4"/>
+      <c r="AQ305" s="4"/>
+      <c r="AR305" s="4"/>
+      <c r="AS305" s="4"/>
+    </row>
+    <row r="306" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -14343,8 +15668,12 @@
       <c r="AM306" s="4"/>
       <c r="AN306" s="4"/>
       <c r="AO306" s="4"/>
-    </row>
-    <row r="307" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP306" s="4"/>
+      <c r="AQ306" s="4"/>
+      <c r="AR306" s="4"/>
+      <c r="AS306" s="4"/>
+    </row>
+    <row r="307" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -14384,8 +15713,12 @@
       <c r="AM307" s="4"/>
       <c r="AN307" s="4"/>
       <c r="AO307" s="4"/>
-    </row>
-    <row r="308" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP307" s="4"/>
+      <c r="AQ307" s="4"/>
+      <c r="AR307" s="4"/>
+      <c r="AS307" s="4"/>
+    </row>
+    <row r="308" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -14425,8 +15758,12 @@
       <c r="AM308" s="4"/>
       <c r="AN308" s="4"/>
       <c r="AO308" s="4"/>
-    </row>
-    <row r="309" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP308" s="4"/>
+      <c r="AQ308" s="4"/>
+      <c r="AR308" s="4"/>
+      <c r="AS308" s="4"/>
+    </row>
+    <row r="309" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -14466,8 +15803,12 @@
       <c r="AM309" s="4"/>
       <c r="AN309" s="4"/>
       <c r="AO309" s="4"/>
-    </row>
-    <row r="310" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP309" s="4"/>
+      <c r="AQ309" s="4"/>
+      <c r="AR309" s="4"/>
+      <c r="AS309" s="4"/>
+    </row>
+    <row r="310" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -14507,8 +15848,12 @@
       <c r="AM310" s="4"/>
       <c r="AN310" s="4"/>
       <c r="AO310" s="4"/>
-    </row>
-    <row r="311" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP310" s="4"/>
+      <c r="AQ310" s="4"/>
+      <c r="AR310" s="4"/>
+      <c r="AS310" s="4"/>
+    </row>
+    <row r="311" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -14548,8 +15893,12 @@
       <c r="AM311" s="4"/>
       <c r="AN311" s="4"/>
       <c r="AO311" s="4"/>
-    </row>
-    <row r="312" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP311" s="4"/>
+      <c r="AQ311" s="4"/>
+      <c r="AR311" s="4"/>
+      <c r="AS311" s="4"/>
+    </row>
+    <row r="312" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -14589,8 +15938,12 @@
       <c r="AM312" s="4"/>
       <c r="AN312" s="4"/>
       <c r="AO312" s="4"/>
-    </row>
-    <row r="313" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP312" s="4"/>
+      <c r="AQ312" s="4"/>
+      <c r="AR312" s="4"/>
+      <c r="AS312" s="4"/>
+    </row>
+    <row r="313" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -14630,8 +15983,12 @@
       <c r="AM313" s="4"/>
       <c r="AN313" s="4"/>
       <c r="AO313" s="4"/>
-    </row>
-    <row r="314" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP313" s="4"/>
+      <c r="AQ313" s="4"/>
+      <c r="AR313" s="4"/>
+      <c r="AS313" s="4"/>
+    </row>
+    <row r="314" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -14671,8 +16028,12 @@
       <c r="AM314" s="4"/>
       <c r="AN314" s="4"/>
       <c r="AO314" s="4"/>
-    </row>
-    <row r="315" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP314" s="4"/>
+      <c r="AQ314" s="4"/>
+      <c r="AR314" s="4"/>
+      <c r="AS314" s="4"/>
+    </row>
+    <row r="315" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -14712,8 +16073,12 @@
       <c r="AM315" s="4"/>
       <c r="AN315" s="4"/>
       <c r="AO315" s="4"/>
-    </row>
-    <row r="316" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP315" s="4"/>
+      <c r="AQ315" s="4"/>
+      <c r="AR315" s="4"/>
+      <c r="AS315" s="4"/>
+    </row>
+    <row r="316" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -14753,8 +16118,12 @@
       <c r="AM316" s="4"/>
       <c r="AN316" s="4"/>
       <c r="AO316" s="4"/>
-    </row>
-    <row r="317" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP316" s="4"/>
+      <c r="AQ316" s="4"/>
+      <c r="AR316" s="4"/>
+      <c r="AS316" s="4"/>
+    </row>
+    <row r="317" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -14794,8 +16163,12 @@
       <c r="AM317" s="4"/>
       <c r="AN317" s="4"/>
       <c r="AO317" s="4"/>
-    </row>
-    <row r="318" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP317" s="4"/>
+      <c r="AQ317" s="4"/>
+      <c r="AR317" s="4"/>
+      <c r="AS317" s="4"/>
+    </row>
+    <row r="318" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -14835,8 +16208,12 @@
       <c r="AM318" s="4"/>
       <c r="AN318" s="4"/>
       <c r="AO318" s="4"/>
-    </row>
-    <row r="319" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP318" s="4"/>
+      <c r="AQ318" s="4"/>
+      <c r="AR318" s="4"/>
+      <c r="AS318" s="4"/>
+    </row>
+    <row r="319" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -14876,8 +16253,12 @@
       <c r="AM319" s="4"/>
       <c r="AN319" s="4"/>
       <c r="AO319" s="4"/>
-    </row>
-    <row r="320" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP319" s="4"/>
+      <c r="AQ319" s="4"/>
+      <c r="AR319" s="4"/>
+      <c r="AS319" s="4"/>
+    </row>
+    <row r="320" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -14917,8 +16298,12 @@
       <c r="AM320" s="4"/>
       <c r="AN320" s="4"/>
       <c r="AO320" s="4"/>
-    </row>
-    <row r="321" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP320" s="4"/>
+      <c r="AQ320" s="4"/>
+      <c r="AR320" s="4"/>
+      <c r="AS320" s="4"/>
+    </row>
+    <row r="321" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -14958,8 +16343,12 @@
       <c r="AM321" s="4"/>
       <c r="AN321" s="4"/>
       <c r="AO321" s="4"/>
-    </row>
-    <row r="322" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP321" s="4"/>
+      <c r="AQ321" s="4"/>
+      <c r="AR321" s="4"/>
+      <c r="AS321" s="4"/>
+    </row>
+    <row r="322" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -14999,8 +16388,12 @@
       <c r="AM322" s="4"/>
       <c r="AN322" s="4"/>
       <c r="AO322" s="4"/>
-    </row>
-    <row r="323" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP322" s="4"/>
+      <c r="AQ322" s="4"/>
+      <c r="AR322" s="4"/>
+      <c r="AS322" s="4"/>
+    </row>
+    <row r="323" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -15040,8 +16433,12 @@
       <c r="AM323" s="4"/>
       <c r="AN323" s="4"/>
       <c r="AO323" s="4"/>
-    </row>
-    <row r="324" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP323" s="4"/>
+      <c r="AQ323" s="4"/>
+      <c r="AR323" s="4"/>
+      <c r="AS323" s="4"/>
+    </row>
+    <row r="324" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -15081,8 +16478,12 @@
       <c r="AM324" s="4"/>
       <c r="AN324" s="4"/>
       <c r="AO324" s="4"/>
-    </row>
-    <row r="325" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP324" s="4"/>
+      <c r="AQ324" s="4"/>
+      <c r="AR324" s="4"/>
+      <c r="AS324" s="4"/>
+    </row>
+    <row r="325" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -15122,8 +16523,12 @@
       <c r="AM325" s="4"/>
       <c r="AN325" s="4"/>
       <c r="AO325" s="4"/>
-    </row>
-    <row r="326" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP325" s="4"/>
+      <c r="AQ325" s="4"/>
+      <c r="AR325" s="4"/>
+      <c r="AS325" s="4"/>
+    </row>
+    <row r="326" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -15163,8 +16568,12 @@
       <c r="AM326" s="4"/>
       <c r="AN326" s="4"/>
       <c r="AO326" s="4"/>
-    </row>
-    <row r="327" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP326" s="4"/>
+      <c r="AQ326" s="4"/>
+      <c r="AR326" s="4"/>
+      <c r="AS326" s="4"/>
+    </row>
+    <row r="327" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -15204,8 +16613,12 @@
       <c r="AM327" s="4"/>
       <c r="AN327" s="4"/>
       <c r="AO327" s="4"/>
-    </row>
-    <row r="328" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP327" s="4"/>
+      <c r="AQ327" s="4"/>
+      <c r="AR327" s="4"/>
+      <c r="AS327" s="4"/>
+    </row>
+    <row r="328" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -15245,8 +16658,12 @@
       <c r="AM328" s="4"/>
       <c r="AN328" s="4"/>
       <c r="AO328" s="4"/>
-    </row>
-    <row r="329" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP328" s="4"/>
+      <c r="AQ328" s="4"/>
+      <c r="AR328" s="4"/>
+      <c r="AS328" s="4"/>
+    </row>
+    <row r="329" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -15286,8 +16703,12 @@
       <c r="AM329" s="4"/>
       <c r="AN329" s="4"/>
       <c r="AO329" s="4"/>
-    </row>
-    <row r="330" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP329" s="4"/>
+      <c r="AQ329" s="4"/>
+      <c r="AR329" s="4"/>
+      <c r="AS329" s="4"/>
+    </row>
+    <row r="330" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -15327,8 +16748,12 @@
       <c r="AM330" s="4"/>
       <c r="AN330" s="4"/>
       <c r="AO330" s="4"/>
-    </row>
-    <row r="331" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP330" s="4"/>
+      <c r="AQ330" s="4"/>
+      <c r="AR330" s="4"/>
+      <c r="AS330" s="4"/>
+    </row>
+    <row r="331" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -15368,8 +16793,12 @@
       <c r="AM331" s="4"/>
       <c r="AN331" s="4"/>
       <c r="AO331" s="4"/>
-    </row>
-    <row r="332" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP331" s="4"/>
+      <c r="AQ331" s="4"/>
+      <c r="AR331" s="4"/>
+      <c r="AS331" s="4"/>
+    </row>
+    <row r="332" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -15409,8 +16838,12 @@
       <c r="AM332" s="4"/>
       <c r="AN332" s="4"/>
       <c r="AO332" s="4"/>
-    </row>
-    <row r="333" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP332" s="4"/>
+      <c r="AQ332" s="4"/>
+      <c r="AR332" s="4"/>
+      <c r="AS332" s="4"/>
+    </row>
+    <row r="333" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -15450,8 +16883,12 @@
       <c r="AM333" s="4"/>
       <c r="AN333" s="4"/>
       <c r="AO333" s="4"/>
-    </row>
-    <row r="334" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP333" s="4"/>
+      <c r="AQ333" s="4"/>
+      <c r="AR333" s="4"/>
+      <c r="AS333" s="4"/>
+    </row>
+    <row r="334" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -15491,8 +16928,12 @@
       <c r="AM334" s="4"/>
       <c r="AN334" s="4"/>
       <c r="AO334" s="4"/>
-    </row>
-    <row r="335" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP334" s="4"/>
+      <c r="AQ334" s="4"/>
+      <c r="AR334" s="4"/>
+      <c r="AS334" s="4"/>
+    </row>
+    <row r="335" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -15532,8 +16973,12 @@
       <c r="AM335" s="4"/>
       <c r="AN335" s="4"/>
       <c r="AO335" s="4"/>
-    </row>
-    <row r="336" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP335" s="4"/>
+      <c r="AQ335" s="4"/>
+      <c r="AR335" s="4"/>
+      <c r="AS335" s="4"/>
+    </row>
+    <row r="336" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -15573,8 +17018,12 @@
       <c r="AM336" s="4"/>
       <c r="AN336" s="4"/>
       <c r="AO336" s="4"/>
-    </row>
-    <row r="337" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP336" s="4"/>
+      <c r="AQ336" s="4"/>
+      <c r="AR336" s="4"/>
+      <c r="AS336" s="4"/>
+    </row>
+    <row r="337" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -15614,8 +17063,12 @@
       <c r="AM337" s="4"/>
       <c r="AN337" s="4"/>
       <c r="AO337" s="4"/>
-    </row>
-    <row r="338" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP337" s="4"/>
+      <c r="AQ337" s="4"/>
+      <c r="AR337" s="4"/>
+      <c r="AS337" s="4"/>
+    </row>
+    <row r="338" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -15655,8 +17108,12 @@
       <c r="AM338" s="4"/>
       <c r="AN338" s="4"/>
       <c r="AO338" s="4"/>
-    </row>
-    <row r="339" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP338" s="4"/>
+      <c r="AQ338" s="4"/>
+      <c r="AR338" s="4"/>
+      <c r="AS338" s="4"/>
+    </row>
+    <row r="339" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -15696,8 +17153,12 @@
       <c r="AM339" s="4"/>
       <c r="AN339" s="4"/>
       <c r="AO339" s="4"/>
-    </row>
-    <row r="340" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP339" s="4"/>
+      <c r="AQ339" s="4"/>
+      <c r="AR339" s="4"/>
+      <c r="AS339" s="4"/>
+    </row>
+    <row r="340" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -15737,8 +17198,12 @@
       <c r="AM340" s="4"/>
       <c r="AN340" s="4"/>
       <c r="AO340" s="4"/>
-    </row>
-    <row r="341" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP340" s="4"/>
+      <c r="AQ340" s="4"/>
+      <c r="AR340" s="4"/>
+      <c r="AS340" s="4"/>
+    </row>
+    <row r="341" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -15778,8 +17243,12 @@
       <c r="AM341" s="4"/>
       <c r="AN341" s="4"/>
       <c r="AO341" s="4"/>
-    </row>
-    <row r="342" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP341" s="4"/>
+      <c r="AQ341" s="4"/>
+      <c r="AR341" s="4"/>
+      <c r="AS341" s="4"/>
+    </row>
+    <row r="342" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -15819,8 +17288,12 @@
       <c r="AM342" s="4"/>
       <c r="AN342" s="4"/>
       <c r="AO342" s="4"/>
-    </row>
-    <row r="343" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP342" s="4"/>
+      <c r="AQ342" s="4"/>
+      <c r="AR342" s="4"/>
+      <c r="AS342" s="4"/>
+    </row>
+    <row r="343" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -15860,8 +17333,12 @@
       <c r="AM343" s="4"/>
       <c r="AN343" s="4"/>
       <c r="AO343" s="4"/>
-    </row>
-    <row r="344" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP343" s="4"/>
+      <c r="AQ343" s="4"/>
+      <c r="AR343" s="4"/>
+      <c r="AS343" s="4"/>
+    </row>
+    <row r="344" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -15901,8 +17378,12 @@
       <c r="AM344" s="4"/>
       <c r="AN344" s="4"/>
       <c r="AO344" s="4"/>
-    </row>
-    <row r="345" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP344" s="4"/>
+      <c r="AQ344" s="4"/>
+      <c r="AR344" s="4"/>
+      <c r="AS344" s="4"/>
+    </row>
+    <row r="345" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -15942,8 +17423,12 @@
       <c r="AM345" s="4"/>
       <c r="AN345" s="4"/>
       <c r="AO345" s="4"/>
-    </row>
-    <row r="346" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP345" s="4"/>
+      <c r="AQ345" s="4"/>
+      <c r="AR345" s="4"/>
+      <c r="AS345" s="4"/>
+    </row>
+    <row r="346" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -15983,8 +17468,12 @@
       <c r="AM346" s="4"/>
       <c r="AN346" s="4"/>
       <c r="AO346" s="4"/>
-    </row>
-    <row r="347" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP346" s="4"/>
+      <c r="AQ346" s="4"/>
+      <c r="AR346" s="4"/>
+      <c r="AS346" s="4"/>
+    </row>
+    <row r="347" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -16024,8 +17513,12 @@
       <c r="AM347" s="4"/>
       <c r="AN347" s="4"/>
       <c r="AO347" s="4"/>
-    </row>
-    <row r="348" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP347" s="4"/>
+      <c r="AQ347" s="4"/>
+      <c r="AR347" s="4"/>
+      <c r="AS347" s="4"/>
+    </row>
+    <row r="348" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -16065,8 +17558,12 @@
       <c r="AM348" s="4"/>
       <c r="AN348" s="4"/>
       <c r="AO348" s="4"/>
-    </row>
-    <row r="349" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP348" s="4"/>
+      <c r="AQ348" s="4"/>
+      <c r="AR348" s="4"/>
+      <c r="AS348" s="4"/>
+    </row>
+    <row r="349" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -16106,8 +17603,12 @@
       <c r="AM349" s="4"/>
       <c r="AN349" s="4"/>
       <c r="AO349" s="4"/>
-    </row>
-    <row r="350" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP349" s="4"/>
+      <c r="AQ349" s="4"/>
+      <c r="AR349" s="4"/>
+      <c r="AS349" s="4"/>
+    </row>
+    <row r="350" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -16147,8 +17648,12 @@
       <c r="AM350" s="4"/>
       <c r="AN350" s="4"/>
       <c r="AO350" s="4"/>
-    </row>
-    <row r="351" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP350" s="4"/>
+      <c r="AQ350" s="4"/>
+      <c r="AR350" s="4"/>
+      <c r="AS350" s="4"/>
+    </row>
+    <row r="351" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -16188,8 +17693,12 @@
       <c r="AM351" s="4"/>
       <c r="AN351" s="4"/>
       <c r="AO351" s="4"/>
-    </row>
-    <row r="352" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP351" s="4"/>
+      <c r="AQ351" s="4"/>
+      <c r="AR351" s="4"/>
+      <c r="AS351" s="4"/>
+    </row>
+    <row r="352" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -16229,8 +17738,12 @@
       <c r="AM352" s="4"/>
       <c r="AN352" s="4"/>
       <c r="AO352" s="4"/>
-    </row>
-    <row r="353" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP352" s="4"/>
+      <c r="AQ352" s="4"/>
+      <c r="AR352" s="4"/>
+      <c r="AS352" s="4"/>
+    </row>
+    <row r="353" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -16270,8 +17783,12 @@
       <c r="AM353" s="4"/>
       <c r="AN353" s="4"/>
       <c r="AO353" s="4"/>
-    </row>
-    <row r="354" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP353" s="4"/>
+      <c r="AQ353" s="4"/>
+      <c r="AR353" s="4"/>
+      <c r="AS353" s="4"/>
+    </row>
+    <row r="354" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -16311,8 +17828,12 @@
       <c r="AM354" s="4"/>
       <c r="AN354" s="4"/>
       <c r="AO354" s="4"/>
-    </row>
-    <row r="355" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP354" s="4"/>
+      <c r="AQ354" s="4"/>
+      <c r="AR354" s="4"/>
+      <c r="AS354" s="4"/>
+    </row>
+    <row r="355" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -16352,8 +17873,12 @@
       <c r="AM355" s="4"/>
       <c r="AN355" s="4"/>
       <c r="AO355" s="4"/>
-    </row>
-    <row r="356" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP355" s="4"/>
+      <c r="AQ355" s="4"/>
+      <c r="AR355" s="4"/>
+      <c r="AS355" s="4"/>
+    </row>
+    <row r="356" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -16393,8 +17918,12 @@
       <c r="AM356" s="4"/>
       <c r="AN356" s="4"/>
       <c r="AO356" s="4"/>
-    </row>
-    <row r="357" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP356" s="4"/>
+      <c r="AQ356" s="4"/>
+      <c r="AR356" s="4"/>
+      <c r="AS356" s="4"/>
+    </row>
+    <row r="357" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -16434,8 +17963,12 @@
       <c r="AM357" s="4"/>
       <c r="AN357" s="4"/>
       <c r="AO357" s="4"/>
-    </row>
-    <row r="358" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP357" s="4"/>
+      <c r="AQ357" s="4"/>
+      <c r="AR357" s="4"/>
+      <c r="AS357" s="4"/>
+    </row>
+    <row r="358" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -16475,8 +18008,12 @@
       <c r="AM358" s="4"/>
       <c r="AN358" s="4"/>
       <c r="AO358" s="4"/>
-    </row>
-    <row r="359" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP358" s="4"/>
+      <c r="AQ358" s="4"/>
+      <c r="AR358" s="4"/>
+      <c r="AS358" s="4"/>
+    </row>
+    <row r="359" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -16516,8 +18053,12 @@
       <c r="AM359" s="4"/>
       <c r="AN359" s="4"/>
       <c r="AO359" s="4"/>
-    </row>
-    <row r="360" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP359" s="4"/>
+      <c r="AQ359" s="4"/>
+      <c r="AR359" s="4"/>
+      <c r="AS359" s="4"/>
+    </row>
+    <row r="360" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -16557,8 +18098,12 @@
       <c r="AM360" s="4"/>
       <c r="AN360" s="4"/>
       <c r="AO360" s="4"/>
-    </row>
-    <row r="361" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP360" s="4"/>
+      <c r="AQ360" s="4"/>
+      <c r="AR360" s="4"/>
+      <c r="AS360" s="4"/>
+    </row>
+    <row r="361" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -16598,8 +18143,12 @@
       <c r="AM361" s="4"/>
       <c r="AN361" s="4"/>
       <c r="AO361" s="4"/>
-    </row>
-    <row r="362" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP361" s="4"/>
+      <c r="AQ361" s="4"/>
+      <c r="AR361" s="4"/>
+      <c r="AS361" s="4"/>
+    </row>
+    <row r="362" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -16639,8 +18188,12 @@
       <c r="AM362" s="4"/>
       <c r="AN362" s="4"/>
       <c r="AO362" s="4"/>
-    </row>
-    <row r="363" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP362" s="4"/>
+      <c r="AQ362" s="4"/>
+      <c r="AR362" s="4"/>
+      <c r="AS362" s="4"/>
+    </row>
+    <row r="363" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -16680,8 +18233,12 @@
       <c r="AM363" s="4"/>
       <c r="AN363" s="4"/>
       <c r="AO363" s="4"/>
-    </row>
-    <row r="364" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP363" s="4"/>
+      <c r="AQ363" s="4"/>
+      <c r="AR363" s="4"/>
+      <c r="AS363" s="4"/>
+    </row>
+    <row r="364" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -16721,8 +18278,12 @@
       <c r="AM364" s="4"/>
       <c r="AN364" s="4"/>
       <c r="AO364" s="4"/>
-    </row>
-    <row r="365" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP364" s="4"/>
+      <c r="AQ364" s="4"/>
+      <c r="AR364" s="4"/>
+      <c r="AS364" s="4"/>
+    </row>
+    <row r="365" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -16762,8 +18323,12 @@
       <c r="AM365" s="4"/>
       <c r="AN365" s="4"/>
       <c r="AO365" s="4"/>
-    </row>
-    <row r="366" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP365" s="4"/>
+      <c r="AQ365" s="4"/>
+      <c r="AR365" s="4"/>
+      <c r="AS365" s="4"/>
+    </row>
+    <row r="366" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -16803,8 +18368,12 @@
       <c r="AM366" s="4"/>
       <c r="AN366" s="4"/>
       <c r="AO366" s="4"/>
-    </row>
-    <row r="367" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP366" s="4"/>
+      <c r="AQ366" s="4"/>
+      <c r="AR366" s="4"/>
+      <c r="AS366" s="4"/>
+    </row>
+    <row r="367" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -16844,8 +18413,12 @@
       <c r="AM367" s="4"/>
       <c r="AN367" s="4"/>
       <c r="AO367" s="4"/>
-    </row>
-    <row r="368" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP367" s="4"/>
+      <c r="AQ367" s="4"/>
+      <c r="AR367" s="4"/>
+      <c r="AS367" s="4"/>
+    </row>
+    <row r="368" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -16885,8 +18458,12 @@
       <c r="AM368" s="4"/>
       <c r="AN368" s="4"/>
       <c r="AO368" s="4"/>
-    </row>
-    <row r="369" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP368" s="4"/>
+      <c r="AQ368" s="4"/>
+      <c r="AR368" s="4"/>
+      <c r="AS368" s="4"/>
+    </row>
+    <row r="369" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -16926,8 +18503,12 @@
       <c r="AM369" s="4"/>
       <c r="AN369" s="4"/>
       <c r="AO369" s="4"/>
-    </row>
-    <row r="370" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP369" s="4"/>
+      <c r="AQ369" s="4"/>
+      <c r="AR369" s="4"/>
+      <c r="AS369" s="4"/>
+    </row>
+    <row r="370" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -16967,8 +18548,12 @@
       <c r="AM370" s="4"/>
       <c r="AN370" s="4"/>
       <c r="AO370" s="4"/>
-    </row>
-    <row r="371" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP370" s="4"/>
+      <c r="AQ370" s="4"/>
+      <c r="AR370" s="4"/>
+      <c r="AS370" s="4"/>
+    </row>
+    <row r="371" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -17008,8 +18593,12 @@
       <c r="AM371" s="4"/>
       <c r="AN371" s="4"/>
       <c r="AO371" s="4"/>
-    </row>
-    <row r="372" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP371" s="4"/>
+      <c r="AQ371" s="4"/>
+      <c r="AR371" s="4"/>
+      <c r="AS371" s="4"/>
+    </row>
+    <row r="372" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -17049,8 +18638,12 @@
       <c r="AM372" s="4"/>
       <c r="AN372" s="4"/>
       <c r="AO372" s="4"/>
-    </row>
-    <row r="373" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP372" s="4"/>
+      <c r="AQ372" s="4"/>
+      <c r="AR372" s="4"/>
+      <c r="AS372" s="4"/>
+    </row>
+    <row r="373" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -17090,8 +18683,12 @@
       <c r="AM373" s="4"/>
       <c r="AN373" s="4"/>
       <c r="AO373" s="4"/>
-    </row>
-    <row r="374" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP373" s="4"/>
+      <c r="AQ373" s="4"/>
+      <c r="AR373" s="4"/>
+      <c r="AS373" s="4"/>
+    </row>
+    <row r="374" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -17131,8 +18728,12 @@
       <c r="AM374" s="4"/>
       <c r="AN374" s="4"/>
       <c r="AO374" s="4"/>
-    </row>
-    <row r="375" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP374" s="4"/>
+      <c r="AQ374" s="4"/>
+      <c r="AR374" s="4"/>
+      <c r="AS374" s="4"/>
+    </row>
+    <row r="375" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -17172,8 +18773,12 @@
       <c r="AM375" s="4"/>
       <c r="AN375" s="4"/>
       <c r="AO375" s="4"/>
-    </row>
-    <row r="376" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP375" s="4"/>
+      <c r="AQ375" s="4"/>
+      <c r="AR375" s="4"/>
+      <c r="AS375" s="4"/>
+    </row>
+    <row r="376" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -17213,8 +18818,12 @@
       <c r="AM376" s="4"/>
       <c r="AN376" s="4"/>
       <c r="AO376" s="4"/>
-    </row>
-    <row r="377" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP376" s="4"/>
+      <c r="AQ376" s="4"/>
+      <c r="AR376" s="4"/>
+      <c r="AS376" s="4"/>
+    </row>
+    <row r="377" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -17254,8 +18863,12 @@
       <c r="AM377" s="4"/>
       <c r="AN377" s="4"/>
       <c r="AO377" s="4"/>
-    </row>
-    <row r="378" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP377" s="4"/>
+      <c r="AQ377" s="4"/>
+      <c r="AR377" s="4"/>
+      <c r="AS377" s="4"/>
+    </row>
+    <row r="378" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -17295,8 +18908,12 @@
       <c r="AM378" s="4"/>
       <c r="AN378" s="4"/>
       <c r="AO378" s="4"/>
-    </row>
-    <row r="379" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP378" s="4"/>
+      <c r="AQ378" s="4"/>
+      <c r="AR378" s="4"/>
+      <c r="AS378" s="4"/>
+    </row>
+    <row r="379" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -17336,8 +18953,12 @@
       <c r="AM379" s="4"/>
       <c r="AN379" s="4"/>
       <c r="AO379" s="4"/>
-    </row>
-    <row r="380" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP379" s="4"/>
+      <c r="AQ379" s="4"/>
+      <c r="AR379" s="4"/>
+      <c r="AS379" s="4"/>
+    </row>
+    <row r="380" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -17377,8 +18998,12 @@
       <c r="AM380" s="4"/>
       <c r="AN380" s="4"/>
       <c r="AO380" s="4"/>
-    </row>
-    <row r="381" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP380" s="4"/>
+      <c r="AQ380" s="4"/>
+      <c r="AR380" s="4"/>
+      <c r="AS380" s="4"/>
+    </row>
+    <row r="381" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -17418,8 +19043,12 @@
       <c r="AM381" s="4"/>
       <c r="AN381" s="4"/>
       <c r="AO381" s="4"/>
-    </row>
-    <row r="382" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP381" s="4"/>
+      <c r="AQ381" s="4"/>
+      <c r="AR381" s="4"/>
+      <c r="AS381" s="4"/>
+    </row>
+    <row r="382" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -17459,8 +19088,12 @@
       <c r="AM382" s="4"/>
       <c r="AN382" s="4"/>
       <c r="AO382" s="4"/>
-    </row>
-    <row r="383" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP382" s="4"/>
+      <c r="AQ382" s="4"/>
+      <c r="AR382" s="4"/>
+      <c r="AS382" s="4"/>
+    </row>
+    <row r="383" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -17500,8 +19133,12 @@
       <c r="AM383" s="4"/>
       <c r="AN383" s="4"/>
       <c r="AO383" s="4"/>
-    </row>
-    <row r="384" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP383" s="4"/>
+      <c r="AQ383" s="4"/>
+      <c r="AR383" s="4"/>
+      <c r="AS383" s="4"/>
+    </row>
+    <row r="384" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -17541,8 +19178,12 @@
       <c r="AM384" s="4"/>
       <c r="AN384" s="4"/>
       <c r="AO384" s="4"/>
-    </row>
-    <row r="385" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP384" s="4"/>
+      <c r="AQ384" s="4"/>
+      <c r="AR384" s="4"/>
+      <c r="AS384" s="4"/>
+    </row>
+    <row r="385" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -17582,8 +19223,12 @@
       <c r="AM385" s="4"/>
       <c r="AN385" s="4"/>
       <c r="AO385" s="4"/>
-    </row>
-    <row r="386" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP385" s="4"/>
+      <c r="AQ385" s="4"/>
+      <c r="AR385" s="4"/>
+      <c r="AS385" s="4"/>
+    </row>
+    <row r="386" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -17623,8 +19268,12 @@
       <c r="AM386" s="4"/>
       <c r="AN386" s="4"/>
       <c r="AO386" s="4"/>
-    </row>
-    <row r="387" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP386" s="4"/>
+      <c r="AQ386" s="4"/>
+      <c r="AR386" s="4"/>
+      <c r="AS386" s="4"/>
+    </row>
+    <row r="387" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -17664,8 +19313,12 @@
       <c r="AM387" s="4"/>
       <c r="AN387" s="4"/>
       <c r="AO387" s="4"/>
-    </row>
-    <row r="388" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP387" s="4"/>
+      <c r="AQ387" s="4"/>
+      <c r="AR387" s="4"/>
+      <c r="AS387" s="4"/>
+    </row>
+    <row r="388" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -17705,8 +19358,12 @@
       <c r="AM388" s="4"/>
       <c r="AN388" s="4"/>
       <c r="AO388" s="4"/>
-    </row>
-    <row r="389" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP388" s="4"/>
+      <c r="AQ388" s="4"/>
+      <c r="AR388" s="4"/>
+      <c r="AS388" s="4"/>
+    </row>
+    <row r="389" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -17746,8 +19403,12 @@
       <c r="AM389" s="4"/>
       <c r="AN389" s="4"/>
       <c r="AO389" s="4"/>
-    </row>
-    <row r="390" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP389" s="4"/>
+      <c r="AQ389" s="4"/>
+      <c r="AR389" s="4"/>
+      <c r="AS389" s="4"/>
+    </row>
+    <row r="390" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -17787,8 +19448,12 @@
       <c r="AM390" s="4"/>
       <c r="AN390" s="4"/>
       <c r="AO390" s="4"/>
-    </row>
-    <row r="391" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP390" s="4"/>
+      <c r="AQ390" s="4"/>
+      <c r="AR390" s="4"/>
+      <c r="AS390" s="4"/>
+    </row>
+    <row r="391" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -17828,8 +19493,12 @@
       <c r="AM391" s="4"/>
       <c r="AN391" s="4"/>
       <c r="AO391" s="4"/>
-    </row>
-    <row r="392" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP391" s="4"/>
+      <c r="AQ391" s="4"/>
+      <c r="AR391" s="4"/>
+      <c r="AS391" s="4"/>
+    </row>
+    <row r="392" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -17869,8 +19538,12 @@
       <c r="AM392" s="4"/>
       <c r="AN392" s="4"/>
       <c r="AO392" s="4"/>
-    </row>
-    <row r="393" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP392" s="4"/>
+      <c r="AQ392" s="4"/>
+      <c r="AR392" s="4"/>
+      <c r="AS392" s="4"/>
+    </row>
+    <row r="393" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -17910,8 +19583,12 @@
       <c r="AM393" s="4"/>
       <c r="AN393" s="4"/>
       <c r="AO393" s="4"/>
-    </row>
-    <row r="394" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP393" s="4"/>
+      <c r="AQ393" s="4"/>
+      <c r="AR393" s="4"/>
+      <c r="AS393" s="4"/>
+    </row>
+    <row r="394" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -17951,8 +19628,12 @@
       <c r="AM394" s="4"/>
       <c r="AN394" s="4"/>
       <c r="AO394" s="4"/>
-    </row>
-    <row r="395" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP394" s="4"/>
+      <c r="AQ394" s="4"/>
+      <c r="AR394" s="4"/>
+      <c r="AS394" s="4"/>
+    </row>
+    <row r="395" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -17992,8 +19673,12 @@
       <c r="AM395" s="4"/>
       <c r="AN395" s="4"/>
       <c r="AO395" s="4"/>
-    </row>
-    <row r="396" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP395" s="4"/>
+      <c r="AQ395" s="4"/>
+      <c r="AR395" s="4"/>
+      <c r="AS395" s="4"/>
+    </row>
+    <row r="396" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -18033,8 +19718,12 @@
       <c r="AM396" s="4"/>
       <c r="AN396" s="4"/>
       <c r="AO396" s="4"/>
-    </row>
-    <row r="397" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP396" s="4"/>
+      <c r="AQ396" s="4"/>
+      <c r="AR396" s="4"/>
+      <c r="AS396" s="4"/>
+    </row>
+    <row r="397" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -18074,8 +19763,12 @@
       <c r="AM397" s="4"/>
       <c r="AN397" s="4"/>
       <c r="AO397" s="4"/>
-    </row>
-    <row r="398" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP397" s="4"/>
+      <c r="AQ397" s="4"/>
+      <c r="AR397" s="4"/>
+      <c r="AS397" s="4"/>
+    </row>
+    <row r="398" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -18115,8 +19808,12 @@
       <c r="AM398" s="4"/>
       <c r="AN398" s="4"/>
       <c r="AO398" s="4"/>
-    </row>
-    <row r="399" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP398" s="4"/>
+      <c r="AQ398" s="4"/>
+      <c r="AR398" s="4"/>
+      <c r="AS398" s="4"/>
+    </row>
+    <row r="399" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -18156,8 +19853,12 @@
       <c r="AM399" s="4"/>
       <c r="AN399" s="4"/>
       <c r="AO399" s="4"/>
-    </row>
-    <row r="400" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP399" s="4"/>
+      <c r="AQ399" s="4"/>
+      <c r="AR399" s="4"/>
+      <c r="AS399" s="4"/>
+    </row>
+    <row r="400" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -18197,8 +19898,12 @@
       <c r="AM400" s="4"/>
       <c r="AN400" s="4"/>
       <c r="AO400" s="4"/>
-    </row>
-    <row r="401" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP400" s="4"/>
+      <c r="AQ400" s="4"/>
+      <c r="AR400" s="4"/>
+      <c r="AS400" s="4"/>
+    </row>
+    <row r="401" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -18238,8 +19943,12 @@
       <c r="AM401" s="4"/>
       <c r="AN401" s="4"/>
       <c r="AO401" s="4"/>
-    </row>
-    <row r="402" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP401" s="4"/>
+      <c r="AQ401" s="4"/>
+      <c r="AR401" s="4"/>
+      <c r="AS401" s="4"/>
+    </row>
+    <row r="402" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -18279,8 +19988,12 @@
       <c r="AM402" s="4"/>
       <c r="AN402" s="4"/>
       <c r="AO402" s="4"/>
-    </row>
-    <row r="403" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP402" s="4"/>
+      <c r="AQ402" s="4"/>
+      <c r="AR402" s="4"/>
+      <c r="AS402" s="4"/>
+    </row>
+    <row r="403" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -18320,8 +20033,12 @@
       <c r="AM403" s="4"/>
       <c r="AN403" s="4"/>
       <c r="AO403" s="4"/>
-    </row>
-    <row r="404" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP403" s="4"/>
+      <c r="AQ403" s="4"/>
+      <c r="AR403" s="4"/>
+      <c r="AS403" s="4"/>
+    </row>
+    <row r="404" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -18361,8 +20078,12 @@
       <c r="AM404" s="4"/>
       <c r="AN404" s="4"/>
       <c r="AO404" s="4"/>
-    </row>
-    <row r="405" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP404" s="4"/>
+      <c r="AQ404" s="4"/>
+      <c r="AR404" s="4"/>
+      <c r="AS404" s="4"/>
+    </row>
+    <row r="405" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -18402,8 +20123,12 @@
       <c r="AM405" s="4"/>
       <c r="AN405" s="4"/>
       <c r="AO405" s="4"/>
-    </row>
-    <row r="406" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP405" s="4"/>
+      <c r="AQ405" s="4"/>
+      <c r="AR405" s="4"/>
+      <c r="AS405" s="4"/>
+    </row>
+    <row r="406" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -18443,8 +20168,12 @@
       <c r="AM406" s="4"/>
       <c r="AN406" s="4"/>
       <c r="AO406" s="4"/>
-    </row>
-    <row r="407" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP406" s="4"/>
+      <c r="AQ406" s="4"/>
+      <c r="AR406" s="4"/>
+      <c r="AS406" s="4"/>
+    </row>
+    <row r="407" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -18484,8 +20213,12 @@
       <c r="AM407" s="4"/>
       <c r="AN407" s="4"/>
       <c r="AO407" s="4"/>
-    </row>
-    <row r="408" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP407" s="4"/>
+      <c r="AQ407" s="4"/>
+      <c r="AR407" s="4"/>
+      <c r="AS407" s="4"/>
+    </row>
+    <row r="408" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -18525,8 +20258,12 @@
       <c r="AM408" s="4"/>
       <c r="AN408" s="4"/>
       <c r="AO408" s="4"/>
-    </row>
-    <row r="409" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP408" s="4"/>
+      <c r="AQ408" s="4"/>
+      <c r="AR408" s="4"/>
+      <c r="AS408" s="4"/>
+    </row>
+    <row r="409" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -18566,8 +20303,12 @@
       <c r="AM409" s="4"/>
       <c r="AN409" s="4"/>
       <c r="AO409" s="4"/>
-    </row>
-    <row r="410" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP409" s="4"/>
+      <c r="AQ409" s="4"/>
+      <c r="AR409" s="4"/>
+      <c r="AS409" s="4"/>
+    </row>
+    <row r="410" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -18607,8 +20348,12 @@
       <c r="AM410" s="4"/>
       <c r="AN410" s="4"/>
       <c r="AO410" s="4"/>
-    </row>
-    <row r="411" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP410" s="4"/>
+      <c r="AQ410" s="4"/>
+      <c r="AR410" s="4"/>
+      <c r="AS410" s="4"/>
+    </row>
+    <row r="411" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -18648,8 +20393,12 @@
       <c r="AM411" s="4"/>
       <c r="AN411" s="4"/>
       <c r="AO411" s="4"/>
-    </row>
-    <row r="412" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP411" s="4"/>
+      <c r="AQ411" s="4"/>
+      <c r="AR411" s="4"/>
+      <c r="AS411" s="4"/>
+    </row>
+    <row r="412" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -18689,8 +20438,12 @@
       <c r="AM412" s="4"/>
       <c r="AN412" s="4"/>
       <c r="AO412" s="4"/>
-    </row>
-    <row r="413" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP412" s="4"/>
+      <c r="AQ412" s="4"/>
+      <c r="AR412" s="4"/>
+      <c r="AS412" s="4"/>
+    </row>
+    <row r="413" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -18730,8 +20483,12 @@
       <c r="AM413" s="4"/>
       <c r="AN413" s="4"/>
       <c r="AO413" s="4"/>
-    </row>
-    <row r="414" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP413" s="4"/>
+      <c r="AQ413" s="4"/>
+      <c r="AR413" s="4"/>
+      <c r="AS413" s="4"/>
+    </row>
+    <row r="414" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -18771,8 +20528,12 @@
       <c r="AM414" s="4"/>
       <c r="AN414" s="4"/>
       <c r="AO414" s="4"/>
-    </row>
-    <row r="415" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP414" s="4"/>
+      <c r="AQ414" s="4"/>
+      <c r="AR414" s="4"/>
+      <c r="AS414" s="4"/>
+    </row>
+    <row r="415" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -18812,8 +20573,12 @@
       <c r="AM415" s="4"/>
       <c r="AN415" s="4"/>
       <c r="AO415" s="4"/>
-    </row>
-    <row r="416" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP415" s="4"/>
+      <c r="AQ415" s="4"/>
+      <c r="AR415" s="4"/>
+      <c r="AS415" s="4"/>
+    </row>
+    <row r="416" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -18853,8 +20618,12 @@
       <c r="AM416" s="4"/>
       <c r="AN416" s="4"/>
       <c r="AO416" s="4"/>
-    </row>
-    <row r="417" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP416" s="4"/>
+      <c r="AQ416" s="4"/>
+      <c r="AR416" s="4"/>
+      <c r="AS416" s="4"/>
+    </row>
+    <row r="417" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -18894,8 +20663,12 @@
       <c r="AM417" s="4"/>
       <c r="AN417" s="4"/>
       <c r="AO417" s="4"/>
-    </row>
-    <row r="418" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP417" s="4"/>
+      <c r="AQ417" s="4"/>
+      <c r="AR417" s="4"/>
+      <c r="AS417" s="4"/>
+    </row>
+    <row r="418" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -18935,8 +20708,12 @@
       <c r="AM418" s="4"/>
       <c r="AN418" s="4"/>
       <c r="AO418" s="4"/>
-    </row>
-    <row r="419" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP418" s="4"/>
+      <c r="AQ418" s="4"/>
+      <c r="AR418" s="4"/>
+      <c r="AS418" s="4"/>
+    </row>
+    <row r="419" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -18976,8 +20753,12 @@
       <c r="AM419" s="4"/>
       <c r="AN419" s="4"/>
       <c r="AO419" s="4"/>
-    </row>
-    <row r="420" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP419" s="4"/>
+      <c r="AQ419" s="4"/>
+      <c r="AR419" s="4"/>
+      <c r="AS419" s="4"/>
+    </row>
+    <row r="420" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -19017,8 +20798,12 @@
       <c r="AM420" s="4"/>
       <c r="AN420" s="4"/>
       <c r="AO420" s="4"/>
-    </row>
-    <row r="421" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP420" s="4"/>
+      <c r="AQ420" s="4"/>
+      <c r="AR420" s="4"/>
+      <c r="AS420" s="4"/>
+    </row>
+    <row r="421" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -19058,8 +20843,12 @@
       <c r="AM421" s="4"/>
       <c r="AN421" s="4"/>
       <c r="AO421" s="4"/>
-    </row>
-    <row r="422" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP421" s="4"/>
+      <c r="AQ421" s="4"/>
+      <c r="AR421" s="4"/>
+      <c r="AS421" s="4"/>
+    </row>
+    <row r="422" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -19099,8 +20888,12 @@
       <c r="AM422" s="4"/>
       <c r="AN422" s="4"/>
       <c r="AO422" s="4"/>
-    </row>
-    <row r="423" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP422" s="4"/>
+      <c r="AQ422" s="4"/>
+      <c r="AR422" s="4"/>
+      <c r="AS422" s="4"/>
+    </row>
+    <row r="423" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -19140,8 +20933,12 @@
       <c r="AM423" s="4"/>
       <c r="AN423" s="4"/>
       <c r="AO423" s="4"/>
-    </row>
-    <row r="424" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP423" s="4"/>
+      <c r="AQ423" s="4"/>
+      <c r="AR423" s="4"/>
+      <c r="AS423" s="4"/>
+    </row>
+    <row r="424" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -19181,8 +20978,12 @@
       <c r="AM424" s="4"/>
       <c r="AN424" s="4"/>
       <c r="AO424" s="4"/>
-    </row>
-    <row r="425" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP424" s="4"/>
+      <c r="AQ424" s="4"/>
+      <c r="AR424" s="4"/>
+      <c r="AS424" s="4"/>
+    </row>
+    <row r="425" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -19222,8 +21023,12 @@
       <c r="AM425" s="4"/>
       <c r="AN425" s="4"/>
       <c r="AO425" s="4"/>
-    </row>
-    <row r="426" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP425" s="4"/>
+      <c r="AQ425" s="4"/>
+      <c r="AR425" s="4"/>
+      <c r="AS425" s="4"/>
+    </row>
+    <row r="426" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -19263,8 +21068,12 @@
       <c r="AM426" s="4"/>
       <c r="AN426" s="4"/>
       <c r="AO426" s="4"/>
-    </row>
-    <row r="427" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP426" s="4"/>
+      <c r="AQ426" s="4"/>
+      <c r="AR426" s="4"/>
+      <c r="AS426" s="4"/>
+    </row>
+    <row r="427" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -19304,8 +21113,12 @@
       <c r="AM427" s="4"/>
       <c r="AN427" s="4"/>
       <c r="AO427" s="4"/>
-    </row>
-    <row r="428" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP427" s="4"/>
+      <c r="AQ427" s="4"/>
+      <c r="AR427" s="4"/>
+      <c r="AS427" s="4"/>
+    </row>
+    <row r="428" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -19345,8 +21158,12 @@
       <c r="AM428" s="4"/>
       <c r="AN428" s="4"/>
       <c r="AO428" s="4"/>
-    </row>
-    <row r="429" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP428" s="4"/>
+      <c r="AQ428" s="4"/>
+      <c r="AR428" s="4"/>
+      <c r="AS428" s="4"/>
+    </row>
+    <row r="429" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -19386,8 +21203,12 @@
       <c r="AM429" s="4"/>
       <c r="AN429" s="4"/>
       <c r="AO429" s="4"/>
-    </row>
-    <row r="430" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP429" s="4"/>
+      <c r="AQ429" s="4"/>
+      <c r="AR429" s="4"/>
+      <c r="AS429" s="4"/>
+    </row>
+    <row r="430" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -19427,8 +21248,12 @@
       <c r="AM430" s="4"/>
       <c r="AN430" s="4"/>
       <c r="AO430" s="4"/>
-    </row>
-    <row r="431" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP430" s="4"/>
+      <c r="AQ430" s="4"/>
+      <c r="AR430" s="4"/>
+      <c r="AS430" s="4"/>
+    </row>
+    <row r="431" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -19468,8 +21293,12 @@
       <c r="AM431" s="4"/>
       <c r="AN431" s="4"/>
       <c r="AO431" s="4"/>
-    </row>
-    <row r="432" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP431" s="4"/>
+      <c r="AQ431" s="4"/>
+      <c r="AR431" s="4"/>
+      <c r="AS431" s="4"/>
+    </row>
+    <row r="432" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -19509,8 +21338,12 @@
       <c r="AM432" s="4"/>
       <c r="AN432" s="4"/>
       <c r="AO432" s="4"/>
-    </row>
-    <row r="433" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP432" s="4"/>
+      <c r="AQ432" s="4"/>
+      <c r="AR432" s="4"/>
+      <c r="AS432" s="4"/>
+    </row>
+    <row r="433" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -19550,8 +21383,12 @@
       <c r="AM433" s="4"/>
       <c r="AN433" s="4"/>
       <c r="AO433" s="4"/>
-    </row>
-    <row r="434" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP433" s="4"/>
+      <c r="AQ433" s="4"/>
+      <c r="AR433" s="4"/>
+      <c r="AS433" s="4"/>
+    </row>
+    <row r="434" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -19591,8 +21428,12 @@
       <c r="AM434" s="4"/>
       <c r="AN434" s="4"/>
       <c r="AO434" s="4"/>
-    </row>
-    <row r="435" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP434" s="4"/>
+      <c r="AQ434" s="4"/>
+      <c r="AR434" s="4"/>
+      <c r="AS434" s="4"/>
+    </row>
+    <row r="435" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -19632,8 +21473,12 @@
       <c r="AM435" s="4"/>
       <c r="AN435" s="4"/>
       <c r="AO435" s="4"/>
-    </row>
-    <row r="436" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP435" s="4"/>
+      <c r="AQ435" s="4"/>
+      <c r="AR435" s="4"/>
+      <c r="AS435" s="4"/>
+    </row>
+    <row r="436" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -19673,8 +21518,12 @@
       <c r="AM436" s="4"/>
       <c r="AN436" s="4"/>
       <c r="AO436" s="4"/>
-    </row>
-    <row r="437" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP436" s="4"/>
+      <c r="AQ436" s="4"/>
+      <c r="AR436" s="4"/>
+      <c r="AS436" s="4"/>
+    </row>
+    <row r="437" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -19714,8 +21563,12 @@
       <c r="AM437" s="4"/>
       <c r="AN437" s="4"/>
       <c r="AO437" s="4"/>
-    </row>
-    <row r="438" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP437" s="4"/>
+      <c r="AQ437" s="4"/>
+      <c r="AR437" s="4"/>
+      <c r="AS437" s="4"/>
+    </row>
+    <row r="438" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -19755,8 +21608,12 @@
       <c r="AM438" s="4"/>
       <c r="AN438" s="4"/>
       <c r="AO438" s="4"/>
-    </row>
-    <row r="439" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP438" s="4"/>
+      <c r="AQ438" s="4"/>
+      <c r="AR438" s="4"/>
+      <c r="AS438" s="4"/>
+    </row>
+    <row r="439" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -19796,8 +21653,12 @@
       <c r="AM439" s="4"/>
       <c r="AN439" s="4"/>
       <c r="AO439" s="4"/>
-    </row>
-    <row r="440" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP439" s="4"/>
+      <c r="AQ439" s="4"/>
+      <c r="AR439" s="4"/>
+      <c r="AS439" s="4"/>
+    </row>
+    <row r="440" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -19837,8 +21698,12 @@
       <c r="AM440" s="4"/>
       <c r="AN440" s="4"/>
       <c r="AO440" s="4"/>
-    </row>
-    <row r="441" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP440" s="4"/>
+      <c r="AQ440" s="4"/>
+      <c r="AR440" s="4"/>
+      <c r="AS440" s="4"/>
+    </row>
+    <row r="441" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -19878,8 +21743,12 @@
       <c r="AM441" s="4"/>
       <c r="AN441" s="4"/>
       <c r="AO441" s="4"/>
-    </row>
-    <row r="442" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP441" s="4"/>
+      <c r="AQ441" s="4"/>
+      <c r="AR441" s="4"/>
+      <c r="AS441" s="4"/>
+    </row>
+    <row r="442" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -19919,8 +21788,12 @@
       <c r="AM442" s="4"/>
       <c r="AN442" s="4"/>
       <c r="AO442" s="4"/>
-    </row>
-    <row r="443" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP442" s="4"/>
+      <c r="AQ442" s="4"/>
+      <c r="AR442" s="4"/>
+      <c r="AS442" s="4"/>
+    </row>
+    <row r="443" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -19960,8 +21833,12 @@
       <c r="AM443" s="4"/>
       <c r="AN443" s="4"/>
       <c r="AO443" s="4"/>
-    </row>
-    <row r="444" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP443" s="4"/>
+      <c r="AQ443" s="4"/>
+      <c r="AR443" s="4"/>
+      <c r="AS443" s="4"/>
+    </row>
+    <row r="444" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -20001,8 +21878,12 @@
       <c r="AM444" s="4"/>
       <c r="AN444" s="4"/>
       <c r="AO444" s="4"/>
-    </row>
-    <row r="445" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP444" s="4"/>
+      <c r="AQ444" s="4"/>
+      <c r="AR444" s="4"/>
+      <c r="AS444" s="4"/>
+    </row>
+    <row r="445" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -20042,8 +21923,12 @@
       <c r="AM445" s="4"/>
       <c r="AN445" s="4"/>
       <c r="AO445" s="4"/>
-    </row>
-    <row r="446" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP445" s="4"/>
+      <c r="AQ445" s="4"/>
+      <c r="AR445" s="4"/>
+      <c r="AS445" s="4"/>
+    </row>
+    <row r="446" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -20083,8 +21968,12 @@
       <c r="AM446" s="4"/>
       <c r="AN446" s="4"/>
       <c r="AO446" s="4"/>
-    </row>
-    <row r="447" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP446" s="4"/>
+      <c r="AQ446" s="4"/>
+      <c r="AR446" s="4"/>
+      <c r="AS446" s="4"/>
+    </row>
+    <row r="447" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -20124,8 +22013,12 @@
       <c r="AM447" s="4"/>
       <c r="AN447" s="4"/>
       <c r="AO447" s="4"/>
-    </row>
-    <row r="448" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP447" s="4"/>
+      <c r="AQ447" s="4"/>
+      <c r="AR447" s="4"/>
+      <c r="AS447" s="4"/>
+    </row>
+    <row r="448" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -20165,8 +22058,12 @@
       <c r="AM448" s="4"/>
       <c r="AN448" s="4"/>
       <c r="AO448" s="4"/>
-    </row>
-    <row r="449" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP448" s="4"/>
+      <c r="AQ448" s="4"/>
+      <c r="AR448" s="4"/>
+      <c r="AS448" s="4"/>
+    </row>
+    <row r="449" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -20206,8 +22103,12 @@
       <c r="AM449" s="4"/>
       <c r="AN449" s="4"/>
       <c r="AO449" s="4"/>
-    </row>
-    <row r="450" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP449" s="4"/>
+      <c r="AQ449" s="4"/>
+      <c r="AR449" s="4"/>
+      <c r="AS449" s="4"/>
+    </row>
+    <row r="450" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -20247,8 +22148,12 @@
       <c r="AM450" s="4"/>
       <c r="AN450" s="4"/>
       <c r="AO450" s="4"/>
-    </row>
-    <row r="451" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP450" s="4"/>
+      <c r="AQ450" s="4"/>
+      <c r="AR450" s="4"/>
+      <c r="AS450" s="4"/>
+    </row>
+    <row r="451" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -20288,8 +22193,12 @@
       <c r="AM451" s="4"/>
       <c r="AN451" s="4"/>
       <c r="AO451" s="4"/>
-    </row>
-    <row r="452" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP451" s="4"/>
+      <c r="AQ451" s="4"/>
+      <c r="AR451" s="4"/>
+      <c r="AS451" s="4"/>
+    </row>
+    <row r="452" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -20329,8 +22238,12 @@
       <c r="AM452" s="4"/>
       <c r="AN452" s="4"/>
       <c r="AO452" s="4"/>
-    </row>
-    <row r="453" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP452" s="4"/>
+      <c r="AQ452" s="4"/>
+      <c r="AR452" s="4"/>
+      <c r="AS452" s="4"/>
+    </row>
+    <row r="453" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -20370,8 +22283,12 @@
       <c r="AM453" s="4"/>
       <c r="AN453" s="4"/>
       <c r="AO453" s="4"/>
-    </row>
-    <row r="454" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP453" s="4"/>
+      <c r="AQ453" s="4"/>
+      <c r="AR453" s="4"/>
+      <c r="AS453" s="4"/>
+    </row>
+    <row r="454" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -20411,8 +22328,12 @@
       <c r="AM454" s="4"/>
       <c r="AN454" s="4"/>
       <c r="AO454" s="4"/>
-    </row>
-    <row r="455" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP454" s="4"/>
+      <c r="AQ454" s="4"/>
+      <c r="AR454" s="4"/>
+      <c r="AS454" s="4"/>
+    </row>
+    <row r="455" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -20452,8 +22373,12 @@
       <c r="AM455" s="4"/>
       <c r="AN455" s="4"/>
       <c r="AO455" s="4"/>
-    </row>
-    <row r="456" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP455" s="4"/>
+      <c r="AQ455" s="4"/>
+      <c r="AR455" s="4"/>
+      <c r="AS455" s="4"/>
+    </row>
+    <row r="456" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -20493,8 +22418,12 @@
       <c r="AM456" s="4"/>
       <c r="AN456" s="4"/>
       <c r="AO456" s="4"/>
-    </row>
-    <row r="457" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP456" s="4"/>
+      <c r="AQ456" s="4"/>
+      <c r="AR456" s="4"/>
+      <c r="AS456" s="4"/>
+    </row>
+    <row r="457" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -20534,8 +22463,12 @@
       <c r="AM457" s="4"/>
       <c r="AN457" s="4"/>
       <c r="AO457" s="4"/>
-    </row>
-    <row r="458" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP457" s="4"/>
+      <c r="AQ457" s="4"/>
+      <c r="AR457" s="4"/>
+      <c r="AS457" s="4"/>
+    </row>
+    <row r="458" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -20575,8 +22508,12 @@
       <c r="AM458" s="4"/>
       <c r="AN458" s="4"/>
       <c r="AO458" s="4"/>
-    </row>
-    <row r="459" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP458" s="4"/>
+      <c r="AQ458" s="4"/>
+      <c r="AR458" s="4"/>
+      <c r="AS458" s="4"/>
+    </row>
+    <row r="459" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -20616,8 +22553,12 @@
       <c r="AM459" s="4"/>
       <c r="AN459" s="4"/>
       <c r="AO459" s="4"/>
-    </row>
-    <row r="460" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP459" s="4"/>
+      <c r="AQ459" s="4"/>
+      <c r="AR459" s="4"/>
+      <c r="AS459" s="4"/>
+    </row>
+    <row r="460" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -20657,8 +22598,12 @@
       <c r="AM460" s="4"/>
       <c r="AN460" s="4"/>
       <c r="AO460" s="4"/>
-    </row>
-    <row r="461" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP460" s="4"/>
+      <c r="AQ460" s="4"/>
+      <c r="AR460" s="4"/>
+      <c r="AS460" s="4"/>
+    </row>
+    <row r="461" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -20698,8 +22643,12 @@
       <c r="AM461" s="4"/>
       <c r="AN461" s="4"/>
       <c r="AO461" s="4"/>
-    </row>
-    <row r="462" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP461" s="4"/>
+      <c r="AQ461" s="4"/>
+      <c r="AR461" s="4"/>
+      <c r="AS461" s="4"/>
+    </row>
+    <row r="462" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -20739,8 +22688,12 @@
       <c r="AM462" s="4"/>
       <c r="AN462" s="4"/>
       <c r="AO462" s="4"/>
-    </row>
-    <row r="463" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP462" s="4"/>
+      <c r="AQ462" s="4"/>
+      <c r="AR462" s="4"/>
+      <c r="AS462" s="4"/>
+    </row>
+    <row r="463" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -20780,8 +22733,12 @@
       <c r="AM463" s="4"/>
       <c r="AN463" s="4"/>
       <c r="AO463" s="4"/>
-    </row>
-    <row r="464" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP463" s="4"/>
+      <c r="AQ463" s="4"/>
+      <c r="AR463" s="4"/>
+      <c r="AS463" s="4"/>
+    </row>
+    <row r="464" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -20821,8 +22778,12 @@
       <c r="AM464" s="4"/>
       <c r="AN464" s="4"/>
       <c r="AO464" s="4"/>
-    </row>
-    <row r="465" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP464" s="4"/>
+      <c r="AQ464" s="4"/>
+      <c r="AR464" s="4"/>
+      <c r="AS464" s="4"/>
+    </row>
+    <row r="465" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -20862,8 +22823,12 @@
       <c r="AM465" s="4"/>
       <c r="AN465" s="4"/>
       <c r="AO465" s="4"/>
-    </row>
-    <row r="466" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP465" s="4"/>
+      <c r="AQ465" s="4"/>
+      <c r="AR465" s="4"/>
+      <c r="AS465" s="4"/>
+    </row>
+    <row r="466" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -20903,8 +22868,12 @@
       <c r="AM466" s="4"/>
       <c r="AN466" s="4"/>
       <c r="AO466" s="4"/>
-    </row>
-    <row r="467" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP466" s="4"/>
+      <c r="AQ466" s="4"/>
+      <c r="AR466" s="4"/>
+      <c r="AS466" s="4"/>
+    </row>
+    <row r="467" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -20944,8 +22913,12 @@
       <c r="AM467" s="4"/>
       <c r="AN467" s="4"/>
       <c r="AO467" s="4"/>
-    </row>
-    <row r="468" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP467" s="4"/>
+      <c r="AQ467" s="4"/>
+      <c r="AR467" s="4"/>
+      <c r="AS467" s="4"/>
+    </row>
+    <row r="468" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -20985,8 +22958,12 @@
       <c r="AM468" s="4"/>
       <c r="AN468" s="4"/>
       <c r="AO468" s="4"/>
-    </row>
-    <row r="469" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP468" s="4"/>
+      <c r="AQ468" s="4"/>
+      <c r="AR468" s="4"/>
+      <c r="AS468" s="4"/>
+    </row>
+    <row r="469" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -21026,8 +23003,12 @@
       <c r="AM469" s="4"/>
       <c r="AN469" s="4"/>
       <c r="AO469" s="4"/>
-    </row>
-    <row r="470" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP469" s="4"/>
+      <c r="AQ469" s="4"/>
+      <c r="AR469" s="4"/>
+      <c r="AS469" s="4"/>
+    </row>
+    <row r="470" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -21067,8 +23048,12 @@
       <c r="AM470" s="4"/>
       <c r="AN470" s="4"/>
       <c r="AO470" s="4"/>
-    </row>
-    <row r="471" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP470" s="4"/>
+      <c r="AQ470" s="4"/>
+      <c r="AR470" s="4"/>
+      <c r="AS470" s="4"/>
+    </row>
+    <row r="471" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -21108,8 +23093,12 @@
       <c r="AM471" s="4"/>
       <c r="AN471" s="4"/>
       <c r="AO471" s="4"/>
-    </row>
-    <row r="472" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP471" s="4"/>
+      <c r="AQ471" s="4"/>
+      <c r="AR471" s="4"/>
+      <c r="AS471" s="4"/>
+    </row>
+    <row r="472" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -21149,8 +23138,12 @@
       <c r="AM472" s="4"/>
       <c r="AN472" s="4"/>
       <c r="AO472" s="4"/>
-    </row>
-    <row r="473" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP472" s="4"/>
+      <c r="AQ472" s="4"/>
+      <c r="AR472" s="4"/>
+      <c r="AS472" s="4"/>
+    </row>
+    <row r="473" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -21190,8 +23183,12 @@
       <c r="AM473" s="4"/>
       <c r="AN473" s="4"/>
       <c r="AO473" s="4"/>
-    </row>
-    <row r="474" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP473" s="4"/>
+      <c r="AQ473" s="4"/>
+      <c r="AR473" s="4"/>
+      <c r="AS473" s="4"/>
+    </row>
+    <row r="474" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -21231,8 +23228,12 @@
       <c r="AM474" s="4"/>
       <c r="AN474" s="4"/>
       <c r="AO474" s="4"/>
-    </row>
-    <row r="475" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP474" s="4"/>
+      <c r="AQ474" s="4"/>
+      <c r="AR474" s="4"/>
+      <c r="AS474" s="4"/>
+    </row>
+    <row r="475" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -21272,8 +23273,12 @@
       <c r="AM475" s="4"/>
       <c r="AN475" s="4"/>
       <c r="AO475" s="4"/>
-    </row>
-    <row r="476" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP475" s="4"/>
+      <c r="AQ475" s="4"/>
+      <c r="AR475" s="4"/>
+      <c r="AS475" s="4"/>
+    </row>
+    <row r="476" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -21313,8 +23318,12 @@
       <c r="AM476" s="4"/>
       <c r="AN476" s="4"/>
       <c r="AO476" s="4"/>
-    </row>
-    <row r="477" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP476" s="4"/>
+      <c r="AQ476" s="4"/>
+      <c r="AR476" s="4"/>
+      <c r="AS476" s="4"/>
+    </row>
+    <row r="477" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -21354,8 +23363,12 @@
       <c r="AM477" s="4"/>
       <c r="AN477" s="4"/>
       <c r="AO477" s="4"/>
-    </row>
-    <row r="478" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP477" s="4"/>
+      <c r="AQ477" s="4"/>
+      <c r="AR477" s="4"/>
+      <c r="AS477" s="4"/>
+    </row>
+    <row r="478" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -21395,8 +23408,12 @@
       <c r="AM478" s="4"/>
       <c r="AN478" s="4"/>
       <c r="AO478" s="4"/>
-    </row>
-    <row r="479" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP478" s="4"/>
+      <c r="AQ478" s="4"/>
+      <c r="AR478" s="4"/>
+      <c r="AS478" s="4"/>
+    </row>
+    <row r="479" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -21436,8 +23453,12 @@
       <c r="AM479" s="4"/>
       <c r="AN479" s="4"/>
       <c r="AO479" s="4"/>
-    </row>
-    <row r="480" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP479" s="4"/>
+      <c r="AQ479" s="4"/>
+      <c r="AR479" s="4"/>
+      <c r="AS479" s="4"/>
+    </row>
+    <row r="480" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -21477,8 +23498,12 @@
       <c r="AM480" s="4"/>
       <c r="AN480" s="4"/>
       <c r="AO480" s="4"/>
-    </row>
-    <row r="481" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP480" s="4"/>
+      <c r="AQ480" s="4"/>
+      <c r="AR480" s="4"/>
+      <c r="AS480" s="4"/>
+    </row>
+    <row r="481" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -21518,8 +23543,12 @@
       <c r="AM481" s="4"/>
       <c r="AN481" s="4"/>
       <c r="AO481" s="4"/>
-    </row>
-    <row r="482" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP481" s="4"/>
+      <c r="AQ481" s="4"/>
+      <c r="AR481" s="4"/>
+      <c r="AS481" s="4"/>
+    </row>
+    <row r="482" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -21559,8 +23588,12 @@
       <c r="AM482" s="4"/>
       <c r="AN482" s="4"/>
       <c r="AO482" s="4"/>
-    </row>
-    <row r="483" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP482" s="4"/>
+      <c r="AQ482" s="4"/>
+      <c r="AR482" s="4"/>
+      <c r="AS482" s="4"/>
+    </row>
+    <row r="483" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -21600,8 +23633,12 @@
       <c r="AM483" s="4"/>
       <c r="AN483" s="4"/>
       <c r="AO483" s="4"/>
-    </row>
-    <row r="484" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP483" s="4"/>
+      <c r="AQ483" s="4"/>
+      <c r="AR483" s="4"/>
+      <c r="AS483" s="4"/>
+    </row>
+    <row r="484" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -21641,8 +23678,12 @@
       <c r="AM484" s="4"/>
       <c r="AN484" s="4"/>
       <c r="AO484" s="4"/>
-    </row>
-    <row r="485" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP484" s="4"/>
+      <c r="AQ484" s="4"/>
+      <c r="AR484" s="4"/>
+      <c r="AS484" s="4"/>
+    </row>
+    <row r="485" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -21682,8 +23723,12 @@
       <c r="AM485" s="4"/>
       <c r="AN485" s="4"/>
       <c r="AO485" s="4"/>
-    </row>
-    <row r="486" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP485" s="4"/>
+      <c r="AQ485" s="4"/>
+      <c r="AR485" s="4"/>
+      <c r="AS485" s="4"/>
+    </row>
+    <row r="486" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -21723,8 +23768,12 @@
       <c r="AM486" s="4"/>
       <c r="AN486" s="4"/>
       <c r="AO486" s="4"/>
-    </row>
-    <row r="487" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP486" s="4"/>
+      <c r="AQ486" s="4"/>
+      <c r="AR486" s="4"/>
+      <c r="AS486" s="4"/>
+    </row>
+    <row r="487" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -21764,8 +23813,12 @@
       <c r="AM487" s="4"/>
       <c r="AN487" s="4"/>
       <c r="AO487" s="4"/>
-    </row>
-    <row r="488" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP487" s="4"/>
+      <c r="AQ487" s="4"/>
+      <c r="AR487" s="4"/>
+      <c r="AS487" s="4"/>
+    </row>
+    <row r="488" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -21805,8 +23858,12 @@
       <c r="AM488" s="4"/>
       <c r="AN488" s="4"/>
       <c r="AO488" s="4"/>
-    </row>
-    <row r="489" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP488" s="4"/>
+      <c r="AQ488" s="4"/>
+      <c r="AR488" s="4"/>
+      <c r="AS488" s="4"/>
+    </row>
+    <row r="489" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -21846,8 +23903,12 @@
       <c r="AM489" s="4"/>
       <c r="AN489" s="4"/>
       <c r="AO489" s="4"/>
-    </row>
-    <row r="490" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP489" s="4"/>
+      <c r="AQ489" s="4"/>
+      <c r="AR489" s="4"/>
+      <c r="AS489" s="4"/>
+    </row>
+    <row r="490" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -21887,8 +23948,12 @@
       <c r="AM490" s="4"/>
       <c r="AN490" s="4"/>
       <c r="AO490" s="4"/>
-    </row>
-    <row r="491" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP490" s="4"/>
+      <c r="AQ490" s="4"/>
+      <c r="AR490" s="4"/>
+      <c r="AS490" s="4"/>
+    </row>
+    <row r="491" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -21928,8 +23993,12 @@
       <c r="AM491" s="4"/>
       <c r="AN491" s="4"/>
       <c r="AO491" s="4"/>
-    </row>
-    <row r="492" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP491" s="4"/>
+      <c r="AQ491" s="4"/>
+      <c r="AR491" s="4"/>
+      <c r="AS491" s="4"/>
+    </row>
+    <row r="492" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -21969,8 +24038,12 @@
       <c r="AM492" s="4"/>
       <c r="AN492" s="4"/>
       <c r="AO492" s="4"/>
-    </row>
-    <row r="493" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP492" s="4"/>
+      <c r="AQ492" s="4"/>
+      <c r="AR492" s="4"/>
+      <c r="AS492" s="4"/>
+    </row>
+    <row r="493" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -22010,8 +24083,12 @@
       <c r="AM493" s="4"/>
       <c r="AN493" s="4"/>
       <c r="AO493" s="4"/>
-    </row>
-    <row r="494" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP493" s="4"/>
+      <c r="AQ493" s="4"/>
+      <c r="AR493" s="4"/>
+      <c r="AS493" s="4"/>
+    </row>
+    <row r="494" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -22051,8 +24128,12 @@
       <c r="AM494" s="4"/>
       <c r="AN494" s="4"/>
       <c r="AO494" s="4"/>
-    </row>
-    <row r="495" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP494" s="4"/>
+      <c r="AQ494" s="4"/>
+      <c r="AR494" s="4"/>
+      <c r="AS494" s="4"/>
+    </row>
+    <row r="495" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -22092,8 +24173,12 @@
       <c r="AM495" s="4"/>
       <c r="AN495" s="4"/>
       <c r="AO495" s="4"/>
-    </row>
-    <row r="496" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP495" s="4"/>
+      <c r="AQ495" s="4"/>
+      <c r="AR495" s="4"/>
+      <c r="AS495" s="4"/>
+    </row>
+    <row r="496" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -22133,8 +24218,12 @@
       <c r="AM496" s="4"/>
       <c r="AN496" s="4"/>
       <c r="AO496" s="4"/>
-    </row>
-    <row r="497" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP496" s="4"/>
+      <c r="AQ496" s="4"/>
+      <c r="AR496" s="4"/>
+      <c r="AS496" s="4"/>
+    </row>
+    <row r="497" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -22174,8 +24263,12 @@
       <c r="AM497" s="4"/>
       <c r="AN497" s="4"/>
       <c r="AO497" s="4"/>
-    </row>
-    <row r="498" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP497" s="4"/>
+      <c r="AQ497" s="4"/>
+      <c r="AR497" s="4"/>
+      <c r="AS497" s="4"/>
+    </row>
+    <row r="498" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -22215,8 +24308,12 @@
       <c r="AM498" s="4"/>
       <c r="AN498" s="4"/>
       <c r="AO498" s="4"/>
-    </row>
-    <row r="499" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP498" s="4"/>
+      <c r="AQ498" s="4"/>
+      <c r="AR498" s="4"/>
+      <c r="AS498" s="4"/>
+    </row>
+    <row r="499" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -22256,8 +24353,12 @@
       <c r="AM499" s="4"/>
       <c r="AN499" s="4"/>
       <c r="AO499" s="4"/>
-    </row>
-    <row r="500" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP499" s="4"/>
+      <c r="AQ499" s="4"/>
+      <c r="AR499" s="4"/>
+      <c r="AS499" s="4"/>
+    </row>
+    <row r="500" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -22297,8 +24398,12 @@
       <c r="AM500" s="4"/>
       <c r="AN500" s="4"/>
       <c r="AO500" s="4"/>
-    </row>
-    <row r="501" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP500" s="4"/>
+      <c r="AQ500" s="4"/>
+      <c r="AR500" s="4"/>
+      <c r="AS500" s="4"/>
+    </row>
+    <row r="501" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -22338,8 +24443,12 @@
       <c r="AM501" s="4"/>
       <c r="AN501" s="4"/>
       <c r="AO501" s="4"/>
-    </row>
-    <row r="502" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP501" s="4"/>
+      <c r="AQ501" s="4"/>
+      <c r="AR501" s="4"/>
+      <c r="AS501" s="4"/>
+    </row>
+    <row r="502" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -22379,8 +24488,12 @@
       <c r="AM502" s="4"/>
       <c r="AN502" s="4"/>
       <c r="AO502" s="4"/>
-    </row>
-    <row r="503" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP502" s="4"/>
+      <c r="AQ502" s="4"/>
+      <c r="AR502" s="4"/>
+      <c r="AS502" s="4"/>
+    </row>
+    <row r="503" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -22420,8 +24533,12 @@
       <c r="AM503" s="4"/>
       <c r="AN503" s="4"/>
       <c r="AO503" s="4"/>
-    </row>
-    <row r="504" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP503" s="4"/>
+      <c r="AQ503" s="4"/>
+      <c r="AR503" s="4"/>
+      <c r="AS503" s="4"/>
+    </row>
+    <row r="504" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -22461,8 +24578,12 @@
       <c r="AM504" s="4"/>
       <c r="AN504" s="4"/>
       <c r="AO504" s="4"/>
-    </row>
-    <row r="505" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP504" s="4"/>
+      <c r="AQ504" s="4"/>
+      <c r="AR504" s="4"/>
+      <c r="AS504" s="4"/>
+    </row>
+    <row r="505" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -22502,8 +24623,12 @@
       <c r="AM505" s="4"/>
       <c r="AN505" s="4"/>
       <c r="AO505" s="4"/>
-    </row>
-    <row r="506" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP505" s="4"/>
+      <c r="AQ505" s="4"/>
+      <c r="AR505" s="4"/>
+      <c r="AS505" s="4"/>
+    </row>
+    <row r="506" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -22543,8 +24668,12 @@
       <c r="AM506" s="4"/>
       <c r="AN506" s="4"/>
       <c r="AO506" s="4"/>
-    </row>
-    <row r="507" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP506" s="4"/>
+      <c r="AQ506" s="4"/>
+      <c r="AR506" s="4"/>
+      <c r="AS506" s="4"/>
+    </row>
+    <row r="507" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -22584,8 +24713,12 @@
       <c r="AM507" s="4"/>
       <c r="AN507" s="4"/>
       <c r="AO507" s="4"/>
-    </row>
-    <row r="508" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP507" s="4"/>
+      <c r="AQ507" s="4"/>
+      <c r="AR507" s="4"/>
+      <c r="AS507" s="4"/>
+    </row>
+    <row r="508" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -22625,8 +24758,12 @@
       <c r="AM508" s="4"/>
       <c r="AN508" s="4"/>
       <c r="AO508" s="4"/>
-    </row>
-    <row r="509" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP508" s="4"/>
+      <c r="AQ508" s="4"/>
+      <c r="AR508" s="4"/>
+      <c r="AS508" s="4"/>
+    </row>
+    <row r="509" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -22666,8 +24803,12 @@
       <c r="AM509" s="4"/>
       <c r="AN509" s="4"/>
       <c r="AO509" s="4"/>
-    </row>
-    <row r="510" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP509" s="4"/>
+      <c r="AQ509" s="4"/>
+      <c r="AR509" s="4"/>
+      <c r="AS509" s="4"/>
+    </row>
+    <row r="510" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -22707,8 +24848,12 @@
       <c r="AM510" s="4"/>
       <c r="AN510" s="4"/>
       <c r="AO510" s="4"/>
-    </row>
-    <row r="511" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP510" s="4"/>
+      <c r="AQ510" s="4"/>
+      <c r="AR510" s="4"/>
+      <c r="AS510" s="4"/>
+    </row>
+    <row r="511" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -22748,8 +24893,12 @@
       <c r="AM511" s="4"/>
       <c r="AN511" s="4"/>
       <c r="AO511" s="4"/>
-    </row>
-    <row r="512" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP511" s="4"/>
+      <c r="AQ511" s="4"/>
+      <c r="AR511" s="4"/>
+      <c r="AS511" s="4"/>
+    </row>
+    <row r="512" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -22789,8 +24938,12 @@
       <c r="AM512" s="4"/>
       <c r="AN512" s="4"/>
       <c r="AO512" s="4"/>
-    </row>
-    <row r="513" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP512" s="4"/>
+      <c r="AQ512" s="4"/>
+      <c r="AR512" s="4"/>
+      <c r="AS512" s="4"/>
+    </row>
+    <row r="513" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -22830,8 +24983,12 @@
       <c r="AM513" s="4"/>
       <c r="AN513" s="4"/>
       <c r="AO513" s="4"/>
-    </row>
-    <row r="514" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP513" s="4"/>
+      <c r="AQ513" s="4"/>
+      <c r="AR513" s="4"/>
+      <c r="AS513" s="4"/>
+    </row>
+    <row r="514" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -22871,8 +25028,12 @@
       <c r="AM514" s="4"/>
       <c r="AN514" s="4"/>
       <c r="AO514" s="4"/>
-    </row>
-    <row r="515" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP514" s="4"/>
+      <c r="AQ514" s="4"/>
+      <c r="AR514" s="4"/>
+      <c r="AS514" s="4"/>
+    </row>
+    <row r="515" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -22912,8 +25073,12 @@
       <c r="AM515" s="4"/>
       <c r="AN515" s="4"/>
       <c r="AO515" s="4"/>
-    </row>
-    <row r="516" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP515" s="4"/>
+      <c r="AQ515" s="4"/>
+      <c r="AR515" s="4"/>
+      <c r="AS515" s="4"/>
+    </row>
+    <row r="516" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -22953,8 +25118,12 @@
       <c r="AM516" s="4"/>
       <c r="AN516" s="4"/>
       <c r="AO516" s="4"/>
-    </row>
-    <row r="517" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP516" s="4"/>
+      <c r="AQ516" s="4"/>
+      <c r="AR516" s="4"/>
+      <c r="AS516" s="4"/>
+    </row>
+    <row r="517" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -22994,8 +25163,12 @@
       <c r="AM517" s="4"/>
       <c r="AN517" s="4"/>
       <c r="AO517" s="4"/>
-    </row>
-    <row r="518" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP517" s="4"/>
+      <c r="AQ517" s="4"/>
+      <c r="AR517" s="4"/>
+      <c r="AS517" s="4"/>
+    </row>
+    <row r="518" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -23035,6 +25208,10 @@
       <c r="AM518" s="4"/>
       <c r="AN518" s="4"/>
       <c r="AO518" s="4"/>
+      <c r="AP518" s="4"/>
+      <c r="AQ518" s="4"/>
+      <c r="AR518" s="4"/>
+      <c r="AS518" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C6D1DC-17A4-4F4B-8143-998266BD3441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AFAB29-AC6A-41C0-BC13-01A403E831AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AD2507E4-7809-4EA5-A8F6-6E64402326AB}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{AD2507E4-7809-4EA5-A8F6-6E64402326AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Oracle</t>
   </si>
@@ -239,6 +239,12 @@
   <si>
     <t>Q426</t>
   </si>
+  <si>
+    <t>10-09-205: Oracle and OpenAi signed deal:</t>
+  </si>
+  <si>
+    <t>OpenAi is to buy 300$ billion in computing power over 5 years</t>
+  </si>
 </sst>
 </file>
 
@@ -248,13 +254,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -455,42 +467,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -827,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E364-B57F-4259-9EAC-BC85DA4E665C}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -966,11 +979,19 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="G14" s="22" t="s">
         <v>61</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="26" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AFAB29-AC6A-41C0-BC13-01A403E831AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5AF33A-2090-439E-AFC6-21562A37F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{AD2507E4-7809-4EA5-A8F6-6E64402326AB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AD2507E4-7809-4EA5-A8F6-6E64402326AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -843,7 +843,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>318.95</v>
+        <v>188.13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <v>2826</v>
+        <v>2873.13</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>62</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="H5" s="4">
         <f>+H3*H4</f>
-        <v>901352.7</v>
+        <v>540521.94689999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -902,8 +902,8 @@
         <v>7</v>
       </c>
       <c r="H6" s="4">
-        <f>10445+560</f>
-        <v>11005</v>
+        <f>19241+525</f>
+        <v>19766</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>62</v>
@@ -920,8 +920,8 @@
         <v>8</v>
       </c>
       <c r="H7" s="4">
-        <f>9079+82236</f>
-        <v>91315</v>
+        <f>8091+99984</f>
+        <v>108075</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>62</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="H8" s="4">
         <f>+H5-H6+H7</f>
-        <v>981662.7</v>
+        <v>628830.94689999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1007,10 +1007,10 @@
   <dimension ref="A1:AS518"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1105,8 +1105,12 @@
         <v>11007</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4">
+        <v>7186</v>
+      </c>
+      <c r="L3" s="4">
+        <v>7977</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1171,8 +1175,12 @@
         <v>1129</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="4">
+        <v>5721</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5877</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1240,7 +1248,9 @@
       <c r="K5" s="4">
         <v>670</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>776</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1308,7 +1318,9 @@
       <c r="K6" s="4">
         <v>1349</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>1428</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1388,7 +1400,9 @@
       <c r="K7" s="18">
         <v>14926</v>
       </c>
-      <c r="L7" s="18"/>
+      <c r="L7" s="18">
+        <v>16058</v>
+      </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="4"/>
@@ -1456,7 +1470,9 @@
       <c r="K8" s="4">
         <v>3607</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>3990</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1524,7 +1540,9 @@
       <c r="K9" s="4">
         <v>178</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>215</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1592,7 +1610,9 @@
       <c r="K10" s="4">
         <v>1099</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>1169</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1658,7 +1678,7 @@
         <v>9401</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" ref="H11:K11" si="3">+H7-SUM(H8:H10)</f>
+        <f t="shared" ref="H11:L11" si="3">+H7-SUM(H8:H10)</f>
         <v>9974</v>
       </c>
       <c r="I11" s="4">
@@ -1673,7 +1693,10 @@
         <f t="shared" si="3"/>
         <v>10042</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <f t="shared" si="3"/>
+        <v>10684</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1753,7 +1776,9 @@
       <c r="K12" s="4">
         <v>2063</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>2149</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1821,7 +1846,9 @@
       <c r="K13" s="4">
         <v>2491</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <v>2561</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1889,7 +1916,9 @@
       <c r="K14" s="4">
         <v>376</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <v>409</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1957,7 +1986,9 @@
       <c r="K15" s="4">
         <v>420</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <v>407</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2025,7 +2056,9 @@
       <c r="K16" s="4">
         <v>13</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>21</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -2093,7 +2126,9 @@
       <c r="K17" s="4">
         <v>402</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <v>406</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2174,7 +2209,10 @@
         <f t="shared" si="6"/>
         <v>4277</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <f t="shared" si="6"/>
+        <v>4731</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2254,7 +2292,9 @@
       <c r="K19" s="4">
         <v>923</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <v>1057</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2322,7 +2362,9 @@
       <c r="K20" s="4">
         <v>73</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <v>2668</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2403,7 +2445,10 @@
         <f t="shared" si="8"/>
         <v>3427</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <f t="shared" si="8"/>
+        <v>6342</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2483,7 +2528,9 @@
       <c r="K22" s="4">
         <v>500</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <v>207</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2564,7 +2611,10 @@
         <f t="shared" si="10"/>
         <v>2927</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <f t="shared" si="10"/>
+        <v>6135</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2702,9 +2752,9 @@
         <f t="shared" si="12"/>
         <v>1.0357395612172682</v>
       </c>
-      <c r="L25" s="19" t="e">
+      <c r="L25" s="19">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.1421089385474859</v>
       </c>
       <c r="M25" s="19" t="e">
         <f t="shared" si="12"/>
@@ -2791,7 +2841,9 @@
       <c r="K26" s="4">
         <v>2826</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4">
+        <v>2864</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2933,7 +2985,7 @@
         <v>0.10181208756677496</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" ref="H29:K33" si="13">+H3/D3-1</f>
+        <f t="shared" ref="H29:L33" si="13">+H3/D3-1</f>
         <v>0.12107065048241528</v>
       </c>
       <c r="I29" s="20">
@@ -2946,9 +2998,12 @@
       </c>
       <c r="K29" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
-      </c>
-      <c r="L29" s="20"/>
+        <v>-0.31685521437398989</v>
+      </c>
+      <c r="L29" s="20">
+        <f t="shared" si="13"/>
+        <v>-0.26179900055524707</v>
+      </c>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="4"/>
@@ -3015,9 +3070,12 @@
       </c>
       <c r="K30" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
-      </c>
-      <c r="L30" s="20"/>
+        <v>5.5758620689655176</v>
+      </c>
+      <c r="L30" s="20">
+        <f t="shared" si="13"/>
+        <v>3.917991631799163</v>
+      </c>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="4"/>
@@ -3086,7 +3144,10 @@
         <f t="shared" si="13"/>
         <v>2.2900763358778553E-2</v>
       </c>
-      <c r="L31" s="20"/>
+      <c r="L31" s="20">
+        <f t="shared" si="13"/>
+        <v>6.5934065934065922E-2</v>
+      </c>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="4"/>
@@ -3155,7 +3216,10 @@
         <f t="shared" si="13"/>
         <v>6.8091844813935154E-2</v>
       </c>
-      <c r="L32" s="20"/>
+      <c r="L32" s="20">
+        <f t="shared" si="13"/>
+        <v>7.3684210526315796E-2</v>
+      </c>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="4"/>
@@ -3224,7 +3288,10 @@
         <f t="shared" si="13"/>
         <v>0.12166528894566775</v>
       </c>
-      <c r="L33" s="24"/>
+      <c r="L33" s="24">
+        <f t="shared" si="13"/>
+        <v>0.14218649975104913</v>
+      </c>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
       <c r="O33" s="18"/>
@@ -3302,10 +3369,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="20">
-        <f t="shared" ref="K34" si="18">+K11/K7</f>
+        <f t="shared" ref="K34:L34" si="18">+K11/K7</f>
         <v>0.67278574299879401</v>
       </c>
-      <c r="L34" s="20"/>
+      <c r="L34" s="20">
+        <f t="shared" si="18"/>
+        <v>0.66533814920911694</v>
+      </c>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="4"/>
@@ -3395,10 +3465,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="20">
-        <f t="shared" ref="K35" si="22">+K18/K7</f>
+        <f t="shared" ref="K35:L35" si="22">+K18/K7</f>
         <v>0.28654696502746885</v>
       </c>
-      <c r="L35" s="20"/>
+      <c r="L35" s="20">
+        <f t="shared" si="22"/>
+        <v>0.29461950429692363</v>
+      </c>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
       <c r="O35" s="4"/>
@@ -3488,10 +3561,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="20">
-        <f t="shared" ref="K36" si="26">+K22/K21</f>
+        <f t="shared" ref="K36:L36" si="26">+K22/K21</f>
         <v>0.14590020426028597</v>
       </c>
-      <c r="L36" s="20"/>
+      <c r="L36" s="20">
+        <f t="shared" si="26"/>
+        <v>3.2639545884578999E-2</v>
+      </c>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
       <c r="O36" s="4"/>
